--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D825DD-3611-5146-90BF-B3BEA8887E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D97694F-36BC-CC40-A553-CFD0379BEF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="1" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="average" sheetId="1" r:id="rId1"/>
     <sheet name="chart" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">average!$I$20</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">average!$I$21:$I$24</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">average!$J$20</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">average!$J$21:$J$24</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">average!$K$20</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">average!$K$21:$K$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,30 +44,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -85,9 +71,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>Party</t>
   </si>
   <si>
@@ -95,6 +78,21 @@
   </si>
   <si>
     <t>Lib</t>
+  </si>
+  <si>
+    <t>2019GE</t>
+  </si>
+  <si>
+    <t>cons</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>Polls</t>
+  </si>
+  <si>
+    <t>Aggregate</t>
   </si>
 </sst>
 </file>
@@ -104,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,6 +126,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -135,18 +141,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -171,8 +165,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,12 +201,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,19 +229,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -232,14 +244,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Total" xfId="2" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A931D-EDBC-E948-9A77-FFFFFCA63EAC}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,19 +601,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -588,83 +621,83 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>31.6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="F2" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="G2" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>44847</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B3" s="8">
         <v>24</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C3" s="8">
         <v>52</v>
       </c>
-      <c r="D2" s="10">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="D3" s="8">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>44834</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>29</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>44</v>
       </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>44804</v>
-      </c>
-      <c r="B4" s="1">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1">
-        <v>41</v>
-      </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>6</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="9">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>44770</v>
+      <c r="A5" s="4">
+        <v>44804</v>
       </c>
       <c r="B5" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>12</v>
@@ -675,22 +708,22 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="9">
-        <v>8</v>
+      <c r="G5" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>44742</v>
+      <c r="A6" s="4">
+        <v>44770</v>
       </c>
       <c r="B6" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>6</v>
@@ -698,13 +731,13 @@
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="9">
-        <v>6</v>
+      <c r="G6" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>44710</v>
+      <c r="A7" s="4">
+        <v>44742</v>
       </c>
       <c r="B7" s="1">
         <v>33</v>
@@ -713,7 +746,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -721,22 +754,22 @@
       <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>44679</v>
+      <c r="A8" s="4">
+        <v>44710</v>
       </c>
       <c r="B8" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
         <v>39</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -744,19 +777,19 @@
       <c r="F8" s="1">
         <v>4</v>
       </c>
-      <c r="G8" s="9">
-        <v>5</v>
+      <c r="G8" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>44650</v>
+      <c r="A9" s="4">
+        <v>44679</v>
       </c>
       <c r="B9" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -765,82 +798,745 @@
         <v>6</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>44650</v>
+      </c>
+      <c r="B10" s="1">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>44620</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>33</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>39</v>
-      </c>
-      <c r="D10" s="1">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>44592</v>
-      </c>
-      <c r="B11" s="1">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1">
-        <v>40</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
       </c>
       <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7">
         <v>6</v>
       </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-      <c r="G11" s="9">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>44592</v>
+      </c>
+      <c r="B12" s="1">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="8">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C13" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E13" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G13" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>44560</v>
+      </c>
+      <c r="B14" s="10">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10">
+        <v>38</v>
+      </c>
+      <c r="D14" s="10">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10">
+        <v>7</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>44529</v>
+      </c>
+      <c r="B15" s="10">
+        <v>37</v>
+      </c>
+      <c r="C15" s="10">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10">
+        <v>7</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>44500</v>
+      </c>
+      <c r="B16" s="1">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>44468</v>
+      </c>
+      <c r="B17" s="1">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>44437</v>
+      </c>
+      <c r="B18" s="1">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>44407</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="J21" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="K21" s="1">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J22" s="1">
+        <v>44</v>
+      </c>
+      <c r="K22" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>44284</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-8</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J23" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="K23" s="1">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>44255</v>
+      </c>
+      <c r="B24" s="1">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2022</v>
+      </c>
+      <c r="J24" s="1">
         <v>31.6</v>
       </c>
-      <c r="C12" s="8">
+      <c r="K24" s="1">
         <v>41.1</v>
       </c>
-      <c r="D12" s="8">
-        <v>11.1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>5.8</v>
-      </c>
-      <c r="F12" s="8" cm="1">
-        <f t="array" ref="F12">SUM(F3:F11/9)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="G12" s="7">
-        <v>9.5</v>
-      </c>
-    </row>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>44226</v>
+      </c>
+      <c r="B25" s="1">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1">
+        <v>39</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44</v>
+      </c>
+      <c r="C26" s="5">
+        <v>35</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F26" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G26" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>44195</v>
+      </c>
+      <c r="B27" s="1">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>44164</v>
+      </c>
+      <c r="B28" s="1">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B29" s="1">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B30" s="1">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>44071</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>44010</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>38</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B34" s="1">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B35" s="1">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B36" s="1">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1">
+        <v>29</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>43881</v>
+      </c>
+      <c r="B37" s="1">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B38" s="1">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1">
+        <v>29</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="15">
+        <v>44.7</v>
+      </c>
+      <c r="C39" s="15">
+        <v>32.9</v>
+      </c>
+      <c r="D39" s="15">
+        <v>11.8</v>
+      </c>
+      <c r="E39" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="F39" s="15">
+        <v>4</v>
+      </c>
+      <c r="G39" s="16">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -849,30 +1545,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381CFD7-A18A-AD47-BDA2-5D9B5FE8AC32}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>44847</v>
       </c>
       <c r="B2" s="1">
@@ -881,9 +1580,12 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="D2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>44834</v>
       </c>
       <c r="B3" s="1">
@@ -892,9 +1594,12 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>44804</v>
       </c>
       <c r="B4" s="1">
@@ -903,9 +1608,12 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="D4">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>44770</v>
       </c>
       <c r="B5" s="1">
@@ -914,9 +1622,12 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="D5">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>44742</v>
       </c>
       <c r="B6" s="1">
@@ -925,9 +1636,12 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="D6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>44710</v>
       </c>
       <c r="B7" s="1">
@@ -936,9 +1650,12 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="D7">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>44679</v>
       </c>
       <c r="B8" s="1">
@@ -947,9 +1664,12 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="D8">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>44650</v>
       </c>
       <c r="B9" s="1">
@@ -958,9 +1678,12 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="D9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>44620</v>
       </c>
       <c r="B10" s="1">
@@ -969,9 +1692,12 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="D10">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>44592</v>
       </c>
       <c r="B11" s="1">
@@ -980,119 +1706,152 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="D11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>44847</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>44834</v>
       </c>
       <c r="B13" s="1">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>44804</v>
       </c>
       <c r="B14" s="1">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>44770</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>44742</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>44710</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>44679</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>44650</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>44620</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>44592</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>44847</v>
       </c>
       <c r="B22" s="1">
@@ -1101,9 +1860,12 @@
       <c r="C22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="D22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>44834</v>
       </c>
       <c r="B23" s="1">
@@ -1112,9 +1874,12 @@
       <c r="C23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="D23">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>44804</v>
       </c>
       <c r="B24" s="1">
@@ -1123,9 +1888,12 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="D24">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>44770</v>
       </c>
       <c r="B25" s="1">
@@ -1134,9 +1902,12 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="D25">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>44742</v>
       </c>
       <c r="B26" s="1">
@@ -1145,9 +1916,12 @@
       <c r="C26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="D26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>44710</v>
       </c>
       <c r="B27" s="1">
@@ -1156,9 +1930,12 @@
       <c r="C27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="D27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>44679</v>
       </c>
       <c r="B28" s="1">
@@ -1167,9 +1944,12 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="D28">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>44650</v>
       </c>
       <c r="B29" s="1">
@@ -1178,9 +1958,12 @@
       <c r="C29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="D29">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>44620</v>
       </c>
       <c r="B30" s="1">
@@ -1189,9 +1972,12 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="D30">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>44592</v>
       </c>
       <c r="B31" s="1">
@@ -1200,119 +1986,152 @@
       <c r="C31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="D31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>44847</v>
       </c>
       <c r="B32" s="1">
         <v>10</v>
       </c>
       <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>44834</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>44834</v>
-      </c>
-      <c r="B33" s="1">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>44804</v>
       </c>
       <c r="B34" s="1">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>44770</v>
       </c>
       <c r="B35" s="1">
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>44742</v>
       </c>
       <c r="B36" s="1">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>44710</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
       </c>
       <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>44679</v>
       </c>
       <c r="B38" s="1">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>44650</v>
       </c>
       <c r="B39" s="1">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>44620</v>
       </c>
       <c r="B40" s="1">
         <v>11</v>
       </c>
       <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>44592</v>
       </c>
       <c r="B41" s="1">
         <v>11</v>
       </c>
       <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>44847</v>
       </c>
       <c r="B42" s="1">
@@ -1321,9 +2140,12 @@
       <c r="C42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="D42">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>44834</v>
       </c>
       <c r="B43" s="1">
@@ -1332,9 +2154,12 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="D43">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>44804</v>
       </c>
       <c r="B44" s="1">
@@ -1343,9 +2168,12 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>44770</v>
       </c>
       <c r="B45" s="1">
@@ -1354,9 +2182,12 @@
       <c r="C45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="D45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>44742</v>
       </c>
       <c r="B46" s="1">
@@ -1365,9 +2196,12 @@
       <c r="C46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="D46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>44710</v>
       </c>
       <c r="B47" s="1">
@@ -1376,9 +2210,12 @@
       <c r="C47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>44679</v>
       </c>
       <c r="B48" s="1">
@@ -1387,9 +2224,12 @@
       <c r="C48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="D48">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>44650</v>
       </c>
       <c r="B49" s="1">
@@ -1398,9 +2238,12 @@
       <c r="C49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="D49">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>44620</v>
       </c>
       <c r="B50" s="1">
@@ -1409,9 +2252,12 @@
       <c r="C50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="D50">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>44592</v>
       </c>
       <c r="B51" s="1">
@@ -1419,6 +2265,1759 @@
       </c>
       <c r="C51" t="s">
         <v>5</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>44560</v>
+      </c>
+      <c r="B52" s="10">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>44529</v>
+      </c>
+      <c r="B53" s="10">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>44500</v>
+      </c>
+      <c r="B54" s="1">
+        <v>39</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>44468</v>
+      </c>
+      <c r="B55" s="1">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>44437</v>
+      </c>
+      <c r="B56" s="1">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>44407</v>
+      </c>
+      <c r="B57" s="1">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>44284</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>44255</v>
+      </c>
+      <c r="B62" s="1">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>44226</v>
+      </c>
+      <c r="B63" s="1">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>44560</v>
+      </c>
+      <c r="B64" s="10">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>44529</v>
+      </c>
+      <c r="B65" s="10">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>44500</v>
+      </c>
+      <c r="B66" s="1">
+        <v>35</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>44468</v>
+      </c>
+      <c r="B67" s="1">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>44437</v>
+      </c>
+      <c r="B68" s="1">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>44407</v>
+      </c>
+      <c r="B69" s="1">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B70" s="1">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B71" s="1">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B72" s="1">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>44284</v>
+      </c>
+      <c r="B73" s="1">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>44255</v>
+      </c>
+      <c r="B74" s="1">
+        <v>37</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>44226</v>
+      </c>
+      <c r="B75" s="1">
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>44560</v>
+      </c>
+      <c r="B76" s="10">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>44529</v>
+      </c>
+      <c r="B77" s="10">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>44500</v>
+      </c>
+      <c r="B78" s="1">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>44468</v>
+      </c>
+      <c r="B79" s="1">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>44437</v>
+      </c>
+      <c r="B80" s="1">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>44407</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B82" s="1">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B83" s="1">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B84" s="1">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>44284</v>
+      </c>
+      <c r="B85" s="1">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>44255</v>
+      </c>
+      <c r="B86" s="1">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>44226</v>
+      </c>
+      <c r="B87" s="1">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>44560</v>
+      </c>
+      <c r="B88" s="10">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>44529</v>
+      </c>
+      <c r="B89" s="10">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>44500</v>
+      </c>
+      <c r="B90" s="1">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>44468</v>
+      </c>
+      <c r="B91" s="1">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>44437</v>
+      </c>
+      <c r="B92" s="1">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>44407</v>
+      </c>
+      <c r="B93" s="1">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B94" s="1">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B95" s="1">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B96" s="1">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>44284</v>
+      </c>
+      <c r="B97" s="1">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>44255</v>
+      </c>
+      <c r="B98" s="1">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>44226</v>
+      </c>
+      <c r="B99" s="1">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>44560</v>
+      </c>
+      <c r="B100" s="10">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>44529</v>
+      </c>
+      <c r="B101" s="10">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>44500</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>44468</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>44437</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>44407</v>
+      </c>
+      <c r="B105" s="1">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B106" s="1">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B108" s="1">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>44284</v>
+      </c>
+      <c r="B109" s="1">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>44255</v>
+      </c>
+      <c r="B110" s="1">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>44226</v>
+      </c>
+      <c r="B111" s="1">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>44195</v>
+      </c>
+      <c r="B112" s="1">
+        <v>39</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>44164</v>
+      </c>
+      <c r="B113" s="1">
+        <v>38</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B114" s="1">
+        <v>40</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B115" s="1">
+        <v>41</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>44071</v>
+      </c>
+      <c r="B116" s="1">
+        <v>42</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B117" s="1">
+        <v>43</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>44010</v>
+      </c>
+      <c r="B118" s="1">
+        <v>43</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B119" s="1">
+        <v>47</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B120" s="1">
+        <v>51</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B121" s="1">
+        <v>50</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>43881</v>
+      </c>
+      <c r="B122" s="1">
+        <v>47</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B123" s="1">
+        <v>47</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>43811</v>
+      </c>
+      <c r="B124" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>44195</v>
+      </c>
+      <c r="B125" s="1">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>44164</v>
+      </c>
+      <c r="B126" s="1">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B127" s="1">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>44071</v>
+      </c>
+      <c r="B129" s="1">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B130" s="1">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>44010</v>
+      </c>
+      <c r="B131" s="1">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B134" s="1">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>43881</v>
+      </c>
+      <c r="B135" s="1">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>43811</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>44195</v>
+      </c>
+      <c r="B138" s="1">
+        <v>38</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>44164</v>
+      </c>
+      <c r="B139" s="1">
+        <v>39</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B140" s="1">
+        <v>39</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B141" s="1">
+        <v>38</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>44071</v>
+      </c>
+      <c r="B142" s="1">
+        <v>37</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B143" s="1">
+        <v>37</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>44010</v>
+      </c>
+      <c r="B144" s="1">
+        <v>38</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B145" s="1">
+        <v>35</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B146" s="1">
+        <v>31</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B147" s="1">
+        <v>29</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>43881</v>
+      </c>
+      <c r="B148" s="1">
+        <v>30</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B149" s="1">
+        <v>29</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>43811</v>
+      </c>
+      <c r="B150" s="1">
+        <v>32.9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>44195</v>
+      </c>
+      <c r="B151" s="1">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>44164</v>
+      </c>
+      <c r="B152" s="1">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B153" s="1">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B154" s="1">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>44071</v>
+      </c>
+      <c r="B155" s="1">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B156" s="1">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>44010</v>
+      </c>
+      <c r="B157" s="1">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B158" s="1">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B159" s="1">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B160" s="1">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>43881</v>
+      </c>
+      <c r="B161" s="1">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B162" s="1">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>43811</v>
+      </c>
+      <c r="B163" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>44195</v>
+      </c>
+      <c r="B164" s="1">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>44164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B166" s="1">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B167" s="1">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>44071</v>
+      </c>
+      <c r="B168" s="1">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B169" s="1">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>44010</v>
+      </c>
+      <c r="B170" s="1">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B171" s="1">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B172" s="1">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B173" s="1">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>43881</v>
+      </c>
+      <c r="B174" s="1">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B175" s="1">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>43811</v>
+      </c>
+      <c r="B176" s="1">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,22 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D97694F-36BC-CC40-A553-CFD0379BEF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1785F9C-7B46-DE47-9CB1-C5C2E6127E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="1" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="2960" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="2" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
-    <sheet name="chart" sheetId="2" r:id="rId2"/>
+    <sheet name="polls" sheetId="3" r:id="rId2"/>
+    <sheet name="chart" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">average!$I$20</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">average!$I$21:$I$24</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">average!$J$20</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">average!$J$21:$J$24</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">average!$K$20</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">average!$K$21:$K$24</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +87,36 @@
   <si>
     <t>Aggregate</t>
   </si>
+  <si>
+    <t>13–17 Oct</t>
+  </si>
+  <si>
+    <t>14–16 Oct</t>
+  </si>
+  <si>
+    <t>13–14 Oct</t>
+  </si>
+  <si>
+    <t>12–13 Oct</t>
+  </si>
+  <si>
+    <t>11–12 Oct</t>
+  </si>
+  <si>
+    <t>5–12 Oct</t>
+  </si>
+  <si>
+    <t>7–9 Oct</t>
+  </si>
+  <si>
+    <t>6–7 Oct</t>
+  </si>
+  <si>
+    <t>5–7 Oct</t>
+  </si>
+  <si>
+    <t>5–6 Oct</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +152,21 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -218,7 +256,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,6 +305,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -586,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A931D-EDBC-E948-9A77-FFFFFCA63EAC}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B37:B38"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,7 +674,7 @@
         <v>31.6</v>
       </c>
       <c r="C2" s="6">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6">
         <v>11.1</v>
@@ -640,18 +686,18 @@
         <v>4.3</v>
       </c>
       <c r="G2" s="5">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44847</v>
+        <v>44851</v>
       </c>
       <c r="B3" s="8">
         <v>24</v>
       </c>
       <c r="C3" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="8">
         <v>10</v>
@@ -1544,11 +1590,403 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D2" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>44850</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>44847</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>44846</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>44843</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.54</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>44840</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381CFD7-A18A-AD47-BDA2-5D9B5FE8AC32}">
   <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1572,7 +2010,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44847</v>
+        <v>44851</v>
       </c>
       <c r="B2" s="1">
         <v>24</v>
@@ -1712,7 +2150,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44847</v>
+        <v>44851</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1852,16 +2290,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>44847</v>
+        <v>44851</v>
       </c>
       <c r="B22" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1992,7 +2430,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>44847</v>
+        <v>44851</v>
       </c>
       <c r="B32" s="1">
         <v>10</v>
@@ -2132,7 +2570,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>44847</v>
+        <v>44851</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1785F9C-7B46-DE47-9CB1-C5C2E6127E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B377E4-20A8-394D-9347-680EB1A5AD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="2" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="2000" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="2" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>5–6 Oct</t>
+  </si>
+  <si>
+    <t>19–20 Oct</t>
+  </si>
+  <si>
+    <t>18–19 Oct</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +320,9 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,10 +680,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="6">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="C2" s="6">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="D2" s="6">
         <v>11.1</v>
@@ -686,7 +695,7 @@
         <v>4.3</v>
       </c>
       <c r="G2" s="5">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -694,10 +703,10 @@
         <v>44851</v>
       </c>
       <c r="B3" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8">
         <v>10</v>
@@ -1591,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F19"/>
+      <selection activeCell="E23" sqref="E2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1617,14 +1626,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>16</v>
+      <c r="A2" s="22">
+        <v>44854</v>
       </c>
       <c r="B2" s="17">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="C2" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D2" s="17">
         <v>7.0000000000000007E-2</v>
@@ -1637,14 +1646,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
-        <v>44850</v>
+      <c r="A3" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="17">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="C3" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="D3" s="17">
         <v>0.11</v>
@@ -1657,74 +1666,74 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>17</v>
+      <c r="A4" s="23">
+        <v>44853</v>
       </c>
       <c r="B4" s="17">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="C4" s="18">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D4" s="17">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="17">
         <v>0.04</v>
       </c>
       <c r="F4" s="17">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>18</v>
+      <c r="A5" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="C5" s="18">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="D5" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F5" s="17">
         <v>0.03</v>
       </c>
-      <c r="F5" s="17">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
-        <v>44847</v>
+      <c r="A6" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="17">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C6" s="18">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D6" s="17">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6" s="17">
         <v>0.04</v>
       </c>
       <c r="F6" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>19</v>
+      <c r="A7" s="20">
+        <v>44850</v>
       </c>
       <c r="B7" s="17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="C7" s="18">
-        <v>0.49</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D7" s="17">
         <v>0.11</v>
@@ -1733,118 +1742,118 @@
         <v>0.04</v>
       </c>
       <c r="F7" s="17">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
-        <v>44846</v>
+      <c r="A8" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="17">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="C8" s="18">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="D8" s="17">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F8" s="17">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="17">
-        <v>0.23</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C9" s="18">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="D9" s="17">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="17">
         <v>0.05</v>
       </c>
-      <c r="F9" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>21</v>
+      <c r="A10" s="20">
+        <v>44847</v>
       </c>
       <c r="B10" s="17">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="C10" s="18">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="D10" s="17">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E10" s="17">
         <v>0.04</v>
       </c>
       <c r="F10" s="17">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
-        <v>44843</v>
+      <c r="A11" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="17">
         <v>0.25</v>
       </c>
       <c r="C11" s="18">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="D11" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E11" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F11" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>22</v>
+      <c r="A12" s="20">
+        <v>44846</v>
       </c>
       <c r="B12" s="17">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="C12" s="18">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="D12" s="17">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E12" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F12" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="17">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C13" s="18">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D13" s="17">
         <v>0.09</v>
@@ -1853,38 +1862,38 @@
         <v>0.05</v>
       </c>
       <c r="F13" s="17">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="17">
         <v>0.26</v>
       </c>
       <c r="C14" s="18">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="D14" s="17">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="17">
         <v>0.04</v>
       </c>
       <c r="F14" s="17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>23</v>
+      <c r="A15" s="20">
+        <v>44843</v>
       </c>
       <c r="B15" s="17">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="C15" s="18">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="D15" s="17">
         <v>0.1</v>
@@ -1893,86 +1902,166 @@
         <v>0.03</v>
       </c>
       <c r="F15" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="17">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="C16" s="18">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="D16" s="17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E16" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F16" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
-        <v>44840</v>
+      <c r="A17" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B17" s="17">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="C17" s="18">
         <v>0.52</v>
       </c>
       <c r="D17" s="17">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E17" s="17">
         <v>0.05</v>
       </c>
       <c r="F17" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="17">
         <v>0.26</v>
       </c>
       <c r="C18" s="18">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="D18" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E18" s="17">
         <v>0.04</v>
       </c>
       <c r="F18" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
-        <v>44839</v>
+      <c r="A19" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="17">
         <v>0.24</v>
       </c>
       <c r="C19" s="18">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D19" s="17">
         <v>0.1</v>
       </c>
       <c r="E19" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>44840</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F21" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="17">
         <v>0.04</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F22" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F23" s="17">
         <v>0.05</v>
       </c>
     </row>
@@ -1986,7 +2075,7 @@
   <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2010,7 +2099,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44851</v>
+        <v>44854</v>
       </c>
       <c r="B2" s="1">
         <v>24</v>
@@ -2150,7 +2239,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44851</v>
+        <v>44854</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -2290,16 +2379,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>44851</v>
+        <v>44854</v>
       </c>
       <c r="B22" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>47.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2430,7 +2519,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>44851</v>
+        <v>44854</v>
       </c>
       <c r="B32" s="1">
         <v>10</v>
@@ -2570,7 +2659,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>44851</v>
+        <v>44854</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B377E4-20A8-394D-9347-680EB1A5AD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B1DDE-4E1B-5946-8A7D-38A5CE6298C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="2" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="2000" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="1" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
-    <sheet name="polls" sheetId="3" r:id="rId2"/>
-    <sheet name="chart" sheetId="2" r:id="rId3"/>
+    <sheet name="table" sheetId="4" r:id="rId2"/>
+    <sheet name="polls" sheetId="3" r:id="rId3"/>
+    <sheet name="chart" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +123,12 @@
   </si>
   <si>
     <t>18–19 Oct</t>
+  </si>
+  <si>
+    <t>20–21 Oct</t>
+  </si>
+  <si>
+    <t>19–21 Oct</t>
   </si>
 </sst>
 </file>
@@ -262,7 +269,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +330,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +655,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1599,470 +1612,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FDD339-2D4A-054C-AB9F-A7A8061A7268}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E2:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
-        <v>44854</v>
-      </c>
-      <c r="B2" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D2" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0.53</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
-        <v>44853</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.19</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.52</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D6" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
-        <v>44850</v>
-      </c>
-      <c r="B7" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.52</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="17">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.49</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
-        <v>44847</v>
-      </c>
-      <c r="B10" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.53</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0.13</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0.49</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
-        <v>44846</v>
-      </c>
-      <c r="B12" s="17">
-        <v>0.19</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0.53</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0.06</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.51</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F13" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.47</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
-        <v>44843</v>
-      </c>
-      <c r="B15" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.54</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.51</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0.52</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C18" s="18">
-        <v>0.51</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="C19" s="18">
-        <v>0.51</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0.47</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
-        <v>44840</v>
-      </c>
-      <c r="B21" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="18">
-        <v>0.52</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F21" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C22" s="18">
-        <v>0.48</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
-        <v>44839</v>
-      </c>
-      <c r="B23" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="C23" s="18">
-        <v>0.52</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0.05</v>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="15">
+        <v>44.7</v>
+      </c>
+      <c r="C2" s="15">
+        <v>32.9</v>
+      </c>
+      <c r="D2" s="15">
+        <v>11.8</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="F2" s="15">
+        <v>4</v>
+      </c>
+      <c r="G2" s="24">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="G3" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C4" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G4" s="25">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="G5" s="25">
+        <v>9.6</v>
       </c>
     </row>
   </sheetData>
@@ -2071,11 +1745,546 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D2:D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>44854</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>44854</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D5" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>44853</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D9" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>44850</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>44847</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>44846</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>44843</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.54</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>44840</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381CFD7-A18A-AD47-BDA2-5D9B5FE8AC32}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2099,7 +2308,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B2" s="1">
         <v>24</v>
@@ -2379,7 +2588,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B22" s="1">
         <v>52</v>
@@ -2519,7 +2728,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B32" s="1">
         <v>10</v>
@@ -2659,7 +2868,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B1DDE-4E1B-5946-8A7D-38A5CE6298C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCFECAC-0BC0-4D4C-825E-70EE490C6FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="1" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="8500" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="1" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -129,6 +129,33 @@
   </si>
   <si>
     <t>19–21 Oct</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>2019 Vote</t>
+  </si>
+  <si>
+    <t>2019 Seats</t>
+  </si>
+  <si>
+    <t>2020 Vote</t>
+  </si>
+  <si>
+    <t>2020 Seats</t>
+  </si>
+  <si>
+    <t>2021 Vote</t>
+  </si>
+  <si>
+    <t>2021 Seats</t>
+  </si>
+  <si>
+    <t>2022 Vote</t>
+  </si>
+  <si>
+    <t>2022 Seats</t>
   </si>
 </sst>
 </file>
@@ -330,11 +357,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1613,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FDD339-2D4A-054C-AB9F-A7A8061A7268}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1624,119 +1651,178 @@
     <col min="1" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>365</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1">
+        <v>373</v>
+      </c>
+      <c r="F2" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="G2" s="1">
+        <v>346</v>
+      </c>
+      <c r="H2" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1">
+        <v>203</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>196</v>
+      </c>
+      <c r="F3" s="1">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G3" s="1">
+        <v>221</v>
+      </c>
+      <c r="H3" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="15">
-        <v>44.7</v>
-      </c>
-      <c r="C2" s="15">
-        <v>32.9</v>
-      </c>
-      <c r="D2" s="15">
-        <v>11.8</v>
-      </c>
-      <c r="E2" s="15">
-        <v>2.8</v>
-      </c>
-      <c r="F2" s="15">
-        <v>4</v>
-      </c>
-      <c r="G2" s="24">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="5">
-        <v>44</v>
-      </c>
-      <c r="C3" s="5">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D5" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F3" s="5">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1">
         <v>4.7</v>
       </c>
-      <c r="G3" s="25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="6">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="C4" s="6">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5.9</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E6" s="1">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G4" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="6">
-        <v>31.5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>41.1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="G6" s="1">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1">
         <v>4.3</v>
       </c>
-      <c r="G5" s="25">
-        <v>9.6</v>
+      <c r="I6" s="1">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCFECAC-0BC0-4D4C-825E-70EE490C6FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3603A84B-24CD-5040-9585-EF63F7F9D730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="1" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="8720" yWindow="500" windowWidth="27640" windowHeight="15800" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -156,6 +156,21 @@
   </si>
   <si>
     <t>2022 Seats</t>
+  </si>
+  <si>
+    <t>21–23 Oct</t>
+  </si>
+  <si>
+    <t>21–22 Oct</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>25–26 Oct</t>
+  </si>
+  <si>
+    <t>24–26 Oct</t>
   </si>
 </sst>
 </file>
@@ -296,7 +311,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -681,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A931D-EDBC-E948-9A77-FFFFFCA63EAC}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1642,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FDD339-2D4A-054C-AB9F-A7A8061A7268}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1687,19 +1705,19 @@
       <c r="B2" s="1">
         <v>44.7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="26">
         <v>365</v>
       </c>
       <c r="D2" s="1">
         <v>44</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="26">
         <v>373</v>
       </c>
       <c r="F2" s="1">
         <v>40.299999999999997</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="26">
         <v>346</v>
       </c>
       <c r="H2" s="1">
@@ -1734,7 +1752,7 @@
       <c r="H3" s="1">
         <v>41.1</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="26">
         <v>332</v>
       </c>
     </row>
@@ -1832,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D2:D26"/>
+      <selection activeCell="E2" sqref="E2:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1862,79 +1880,79 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B2" s="17">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="C2" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E2" s="17">
         <v>0.04</v>
       </c>
       <c r="F2" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B3" s="17">
         <v>0.23</v>
       </c>
       <c r="C3" s="18">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="D3" s="17">
         <v>0.09</v>
       </c>
       <c r="E3" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>44857</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.54</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="17">
         <v>0.03</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
-        <v>44854</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.53</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
-        <v>44854</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D5" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.04</v>
       </c>
       <c r="F5" s="17">
         <v>0.04</v>
@@ -1942,36 +1960,36 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B6" s="17">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="C6" s="18">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="D6" s="17">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="17">
         <v>0.04</v>
       </c>
       <c r="F6" s="17">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
-        <v>44853</v>
+      <c r="A7" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="17">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="C7" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D7" s="17">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="17">
         <v>0.04</v>
@@ -1982,36 +2000,36 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="17">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="C8" s="18">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D8" s="17">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F8" s="17">
         <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>16</v>
+      <c r="A9" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="17">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="C9" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D9" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="17">
         <v>0.04</v>
@@ -2021,334 +2039,334 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
-        <v>44850</v>
+      <c r="A10" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="17">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C10" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="17">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F10" s="17">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>17</v>
+      <c r="A11" s="23">
+        <v>44854</v>
       </c>
       <c r="B11" s="17">
-        <v>0.22</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C11" s="18">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="D11" s="17">
         <v>0.11</v>
       </c>
       <c r="E11" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>44854</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D12" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E12" s="17">
         <v>0.04</v>
       </c>
-      <c r="F11" s="17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="17">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0.49</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0.03</v>
-      </c>
       <c r="F12" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
-        <v>44847</v>
+      <c r="A13" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="17">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="C13" s="18">
         <v>0.53</v>
       </c>
       <c r="D13" s="17">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E13" s="17">
         <v>0.04</v>
       </c>
       <c r="F13" s="17">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>19</v>
+      <c r="A14" s="23">
+        <v>44853</v>
       </c>
       <c r="B14" s="17">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="C14" s="18">
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D14" s="17">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E14" s="17">
         <v>0.04</v>
       </c>
       <c r="F14" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
-        <v>44846</v>
+      <c r="A15" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="17">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="C15" s="18">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="D15" s="17">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E15" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F15" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" s="17">
         <v>0.23</v>
       </c>
       <c r="C16" s="18">
-        <v>0.51</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D16" s="17">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E16" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F16" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>21</v>
+      <c r="A17" s="20">
+        <v>44850</v>
       </c>
       <c r="B17" s="17">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="C17" s="18">
-        <v>0.47</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D17" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E17" s="17">
         <v>0.04</v>
       </c>
       <c r="F17" s="17">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
-        <v>44843</v>
+      <c r="A18" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="17">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="C18" s="18">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="D18" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E18" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F18" s="17">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="17">
-        <v>0.23</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C19" s="18">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="D19" s="17">
         <v>0.1</v>
       </c>
       <c r="E19" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>44847</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="E20" s="17">
         <v>0.04</v>
       </c>
-      <c r="F19" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0.52</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.05</v>
-      </c>
       <c r="F20" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="17">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C21" s="18">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="D21" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E21" s="17">
         <v>0.04</v>
       </c>
       <c r="F21" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>23</v>
+      <c r="A22" s="20">
+        <v>44846</v>
       </c>
       <c r="B22" s="17">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="C22" s="18">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="D22" s="17">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E22" s="17">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F22" s="17">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="17">
         <v>0.26</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C24" s="18">
         <v>0.47</v>
       </c>
-      <c r="D23" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
-        <v>44840</v>
-      </c>
-      <c r="B24" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="18">
-        <v>0.52</v>
-      </c>
       <c r="D24" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F24" s="17">
         <v>0.08</v>
       </c>
-      <c r="E24" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F24" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>25</v>
+      <c r="A25" s="20">
+        <v>44843</v>
       </c>
       <c r="B25" s="17">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C25" s="18">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="D25" s="17">
         <v>0.1</v>
       </c>
       <c r="E25" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F25" s="17">
         <v>0.04</v>
       </c>
-      <c r="F25" s="17">
-        <v>0.06</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
-        <v>44839</v>
+      <c r="A26" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B26" s="17">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C26" s="18">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D26" s="17">
         <v>0.1</v>
@@ -2357,6 +2375,146 @@
         <v>0.04</v>
       </c>
       <c r="F26" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>44840</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F31" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C32" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F33" s="17">
         <v>0.05</v>
       </c>
     </row>
@@ -2367,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381CFD7-A18A-AD47-BDA2-5D9B5FE8AC32}">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2394,77 +2552,77 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44855</v>
+        <v>44860</v>
       </c>
       <c r="B2" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>26.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44834</v>
+        <v>44857</v>
       </c>
       <c r="B3" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B4" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>31.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44770</v>
+        <v>44804</v>
       </c>
       <c r="B5" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>32.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44742</v>
+        <v>44770</v>
       </c>
       <c r="B6" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44710</v>
+        <v>44742</v>
       </c>
       <c r="B7" s="1">
         <v>33</v>
@@ -2473,110 +2631,110 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>33.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44679</v>
+        <v>44710</v>
       </c>
       <c r="B8" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>34.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="B9" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44620</v>
+        <v>44650</v>
       </c>
       <c r="B10" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>32.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B11" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44854</v>
+        <v>44592</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>5.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>44834</v>
+        <v>44860</v>
       </c>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>44804</v>
+        <v>44857</v>
       </c>
       <c r="B14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>44770</v>
+        <v>44834</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -2590,7 +2748,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>44742</v>
+        <v>44804</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -2604,7 +2762,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>44710</v>
+        <v>44770</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2618,7 +2776,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>44679</v>
+        <v>44742</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
@@ -2632,7 +2790,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>44650</v>
+        <v>44710</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -2641,26 +2799,26 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>44620</v>
+        <v>44679</v>
       </c>
       <c r="B20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>44592</v>
+        <v>44650</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
@@ -2669,124 +2827,124 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>44855</v>
+        <v>44620</v>
       </c>
       <c r="B22" s="1">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>44834</v>
+        <v>44592</v>
       </c>
       <c r="B23" s="1">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>42.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>44804</v>
+        <v>44860</v>
       </c>
       <c r="B24" s="1">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>40.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>44770</v>
+        <v>44857</v>
       </c>
       <c r="B25" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>39.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="B26" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>44710</v>
+        <v>44804</v>
       </c>
       <c r="B27" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>39</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>44679</v>
+        <v>44770</v>
       </c>
       <c r="B28" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>44650</v>
+        <v>44742</v>
       </c>
       <c r="B29" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>38.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>44620</v>
+        <v>44710</v>
       </c>
       <c r="B30" s="1">
         <v>39</v>
@@ -2795,99 +2953,99 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>39.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>44592</v>
+        <v>44679</v>
       </c>
       <c r="B31" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>44855</v>
+        <v>44650</v>
       </c>
       <c r="B32" s="1">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>44834</v>
+        <v>44620</v>
       </c>
       <c r="B33" s="1">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>44804</v>
+        <v>44592</v>
       </c>
       <c r="B34" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>44770</v>
+        <v>44860</v>
       </c>
       <c r="B35" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>12.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>44742</v>
+        <v>44855</v>
       </c>
       <c r="B36" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
       <c r="D36">
-        <v>12.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>44710</v>
+        <v>44834</v>
       </c>
       <c r="B37" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2898,52 +3056,52 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>44679</v>
+        <v>44804</v>
       </c>
       <c r="B38" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>44650</v>
+        <v>44770</v>
       </c>
       <c r="B39" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>44620</v>
+        <v>44742</v>
       </c>
       <c r="B40" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>44592</v>
+        <v>44710</v>
       </c>
       <c r="B41" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -2954,63 +3112,63 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>44855</v>
+        <v>44679</v>
       </c>
       <c r="B42" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>4.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>44834</v>
+        <v>44650</v>
       </c>
       <c r="B43" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D43">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>44804</v>
+        <v>44620</v>
       </c>
       <c r="B44" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>44770</v>
+        <v>44592</v>
       </c>
       <c r="B45" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>44742</v>
+        <v>44857</v>
       </c>
       <c r="B46" s="1">
         <v>4</v>
@@ -3024,7 +3182,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>44710</v>
+        <v>44855</v>
       </c>
       <c r="B47" s="1">
         <v>4</v>
@@ -3033,15 +3191,15 @@
         <v>5</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>44679</v>
+        <v>44834</v>
       </c>
       <c r="B48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3052,21 +3210,21 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>44650</v>
+        <v>44804</v>
       </c>
       <c r="B49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>44620</v>
+        <v>44770</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>
@@ -3075,502 +3233,502 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>44592</v>
+        <v>44742</v>
       </c>
       <c r="B51" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B52" s="10">
-        <v>33</v>
+        <v>44710</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B53" s="10">
-        <v>37</v>
+        <v>44679</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>35</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>44500</v>
+        <v>44650</v>
       </c>
       <c r="B54" s="1">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>38</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>44468</v>
+        <v>44620</v>
       </c>
       <c r="B55" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>39</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>44437</v>
+        <v>44592</v>
       </c>
       <c r="B56" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>39.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>44407</v>
-      </c>
-      <c r="B57" s="1">
-        <v>42</v>
+        <v>44560</v>
+      </c>
+      <c r="B57" s="10">
+        <v>33</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>44377</v>
-      </c>
-      <c r="B58" s="1">
-        <v>43</v>
+        <v>44529</v>
+      </c>
+      <c r="B58" s="10">
+        <v>37</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>42.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>44347</v>
+        <v>44500</v>
       </c>
       <c r="B59" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>44316</v>
+        <v>44468</v>
       </c>
       <c r="B60" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>44284</v>
+        <v>44437</v>
       </c>
       <c r="B61" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>43</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>44255</v>
+        <v>44407</v>
       </c>
       <c r="B62" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>44226</v>
+        <v>44377</v>
       </c>
       <c r="B63" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>40.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B64" s="10">
-        <v>38</v>
+        <v>44347</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B65" s="10">
-        <v>36</v>
+        <v>44316</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>44500</v>
+        <v>44284</v>
       </c>
       <c r="B66" s="1">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>35.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>44468</v>
+        <v>44255</v>
       </c>
       <c r="B67" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>34.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>44437</v>
+        <v>44226</v>
       </c>
       <c r="B68" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>34</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>44407</v>
-      </c>
-      <c r="B69" s="1">
-        <v>33</v>
+        <v>44560</v>
+      </c>
+      <c r="B69" s="10">
+        <v>38</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>33.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>44377</v>
-      </c>
-      <c r="B70" s="1">
-        <v>33</v>
+        <v>44529</v>
+      </c>
+      <c r="B70" s="10">
+        <v>36</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>44347</v>
+        <v>44500</v>
       </c>
       <c r="B71" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
       <c r="D71">
-        <v>34</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>44316</v>
+        <v>44468</v>
       </c>
       <c r="B72" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>35</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>44284</v>
+        <v>44437</v>
       </c>
       <c r="B73" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>44255</v>
+        <v>44407</v>
       </c>
       <c r="B74" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
       </c>
       <c r="D74">
-        <v>38</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>44226</v>
+        <v>44377</v>
       </c>
       <c r="B75" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B76" s="10">
-        <v>7</v>
+        <v>44347</v>
+      </c>
+      <c r="B76" s="1">
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B77" s="10">
-        <v>7</v>
+        <v>44316</v>
+      </c>
+      <c r="B77" s="1">
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>44500</v>
+        <v>44284</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>44468</v>
+        <v>44255</v>
       </c>
       <c r="B79" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>6.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>44437</v>
+        <v>44226</v>
       </c>
       <c r="B80" s="1">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>44407</v>
-      </c>
-      <c r="B81" s="1">
-        <v>6</v>
+        <v>44560</v>
+      </c>
+      <c r="B81" s="10">
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="D81">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>44377</v>
-      </c>
-      <c r="B82" s="1">
-        <v>5</v>
+        <v>44529</v>
+      </c>
+      <c r="B82" s="10">
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>44347</v>
+        <v>44500</v>
       </c>
       <c r="B83" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>44316</v>
+        <v>44468</v>
       </c>
       <c r="B84" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>44284</v>
+        <v>44437</v>
       </c>
       <c r="B85" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>44255</v>
+        <v>44407</v>
       </c>
       <c r="B86" s="1">
         <v>6</v>
@@ -3584,7 +3742,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>44226</v>
+        <v>44377</v>
       </c>
       <c r="B87" s="1">
         <v>5</v>
@@ -3598,273 +3756,273 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B88" s="10">
-        <v>10</v>
+        <v>44347</v>
+      </c>
+      <c r="B88" s="1">
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88">
-        <v>9.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B89" s="10">
+        <v>44316</v>
+      </c>
+      <c r="B89" s="1">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="C89" t="s">
-        <v>10</v>
-      </c>
       <c r="D89">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>44500</v>
+        <v>44284</v>
       </c>
       <c r="B90" s="1">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
         <v>9</v>
       </c>
-      <c r="C90" t="s">
-        <v>10</v>
-      </c>
       <c r="D90">
-        <v>9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>44468</v>
+        <v>44255</v>
       </c>
       <c r="B91" s="1">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
         <v>9</v>
       </c>
-      <c r="C91" t="s">
-        <v>10</v>
-      </c>
       <c r="D91">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>44437</v>
+        <v>44226</v>
       </c>
       <c r="B92" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92">
-        <v>9.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>44407</v>
-      </c>
-      <c r="B93" s="1">
-        <v>9</v>
+        <v>44560</v>
+      </c>
+      <c r="B93" s="10">
+        <v>10</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
       </c>
       <c r="D93">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>44377</v>
-      </c>
-      <c r="B94" s="1">
-        <v>8</v>
+        <v>44529</v>
+      </c>
+      <c r="B94" s="10">
+        <v>9</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
       </c>
       <c r="D94">
-        <v>7.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>44347</v>
+        <v>44500</v>
       </c>
       <c r="B95" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>44316</v>
+        <v>44468</v>
       </c>
       <c r="B96" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>44284</v>
+        <v>44437</v>
       </c>
       <c r="B97" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>44255</v>
+        <v>44407</v>
       </c>
       <c r="B98" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>44226</v>
+        <v>44377</v>
       </c>
       <c r="B99" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
       </c>
       <c r="D99">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B100" s="10">
-        <v>4</v>
+        <v>44347</v>
+      </c>
+      <c r="B100" s="1">
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B101" s="10">
-        <v>4</v>
+        <v>44316</v>
+      </c>
+      <c r="B101" s="1">
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>44500</v>
+        <v>44284</v>
       </c>
       <c r="B102" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>44468</v>
+        <v>44255</v>
       </c>
       <c r="B103" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>44437</v>
+        <v>44226</v>
       </c>
       <c r="B104" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>44407</v>
-      </c>
-      <c r="B105" s="1">
-        <v>5</v>
+        <v>44560</v>
+      </c>
+      <c r="B105" s="10">
+        <v>4</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>44377</v>
-      </c>
-      <c r="B106" s="1">
-        <v>6</v>
+        <v>44529</v>
+      </c>
+      <c r="B106" s="10">
+        <v>4</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
       </c>
       <c r="D106">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <v>44347</v>
+        <v>44500</v>
       </c>
       <c r="B107" s="1">
         <v>5</v>
@@ -3878,7 +4036,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <v>44316</v>
+        <v>44468</v>
       </c>
       <c r="B108" s="1">
         <v>5</v>
@@ -3892,7 +4050,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <v>44284</v>
+        <v>44437</v>
       </c>
       <c r="B109" s="1">
         <v>5</v>
@@ -3906,7 +4064,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>44255</v>
+        <v>44407</v>
       </c>
       <c r="B110" s="1">
         <v>5</v>
@@ -3920,329 +4078,329 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>44226</v>
+        <v>44377</v>
       </c>
       <c r="B111" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>44195</v>
+        <v>44347</v>
       </c>
       <c r="B112" s="1">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D112">
-        <v>38.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>44164</v>
+        <v>44316</v>
       </c>
       <c r="B113" s="1">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D113">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>44134</v>
+        <v>44284</v>
       </c>
       <c r="B114" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D114">
-        <v>40.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>44104</v>
+        <v>44255</v>
       </c>
       <c r="B115" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D115">
-        <v>40.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>44071</v>
+        <v>44226</v>
       </c>
       <c r="B116" s="1">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>41.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>44043</v>
+        <v>44195</v>
       </c>
       <c r="B117" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>44.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>44010</v>
+        <v>44164</v>
       </c>
       <c r="B118" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>43981</v>
+        <v>44134</v>
       </c>
       <c r="B119" s="1">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>45</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>43947</v>
+        <v>44104</v>
       </c>
       <c r="B120" s="1">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>49</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <v>43917</v>
+        <v>44071</v>
       </c>
       <c r="B121" s="1">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>50.5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <v>43881</v>
+        <v>44043</v>
       </c>
       <c r="B122" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>48.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>43861</v>
+        <v>44010</v>
       </c>
       <c r="B123" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>43811</v>
+        <v>43981</v>
       </c>
       <c r="B124" s="1">
-        <v>44.7</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>44.7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>44195</v>
+        <v>43947</v>
       </c>
       <c r="B125" s="1">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>44164</v>
+        <v>43917</v>
       </c>
       <c r="B126" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>44134</v>
+        <v>43881</v>
       </c>
       <c r="B127" s="1">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>44104</v>
+        <v>43861</v>
       </c>
       <c r="B128" s="1">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>4.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <v>44071</v>
+        <v>43811</v>
       </c>
       <c r="B129" s="1">
-        <v>4</v>
+        <v>44.7</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>44043</v>
+        <v>44195</v>
       </c>
       <c r="B130" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>44010</v>
+        <v>44164</v>
       </c>
       <c r="B131" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>43981</v>
+        <v>44134</v>
       </c>
       <c r="B132" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <v>43947</v>
+        <v>44104</v>
       </c>
       <c r="B133" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>43917</v>
+        <v>44071</v>
       </c>
       <c r="B134" s="1">
         <v>4</v>
@@ -4256,21 +4414,21 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <v>43881</v>
+        <v>44043</v>
       </c>
       <c r="B135" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
       </c>
       <c r="D135">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <v>43861</v>
+        <v>44010</v>
       </c>
       <c r="B136" s="1">
         <v>4</v>
@@ -4284,273 +4442,273 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <v>43811</v>
+        <v>43981</v>
       </c>
       <c r="B137" s="1">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
       </c>
       <c r="D137">
-        <v>2.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <v>44195</v>
+        <v>43947</v>
       </c>
       <c r="B138" s="1">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D138">
-        <v>38.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <v>44164</v>
+        <v>43917</v>
       </c>
       <c r="B139" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D139">
-        <v>38.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <v>44134</v>
+        <v>43881</v>
       </c>
       <c r="B140" s="1">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D140">
-        <v>39</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <v>44104</v>
+        <v>43861</v>
       </c>
       <c r="B141" s="1">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D141">
-        <v>38.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <v>44071</v>
+        <v>43811</v>
       </c>
       <c r="B142" s="1">
-        <v>37</v>
+        <v>2.8</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D142">
-        <v>37.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <v>44043</v>
+        <v>44195</v>
       </c>
       <c r="B143" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>37</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <v>44010</v>
+        <v>44164</v>
       </c>
       <c r="B144" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
       </c>
       <c r="D144">
-        <v>37.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>43981</v>
+        <v>44134</v>
       </c>
       <c r="B145" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
       </c>
       <c r="D145">
-        <v>36.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
-        <v>43947</v>
+        <v>44104</v>
       </c>
       <c r="B146" s="1">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
       </c>
       <c r="D146">
-        <v>33</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <v>43917</v>
+        <v>44071</v>
       </c>
       <c r="B147" s="1">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
       </c>
       <c r="D147">
-        <v>30</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>43881</v>
+        <v>44043</v>
       </c>
       <c r="B148" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
       </c>
       <c r="D148">
-        <v>29.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <v>43861</v>
+        <v>44010</v>
       </c>
       <c r="B149" s="1">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
       </c>
       <c r="D149">
-        <v>29</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <v>43811</v>
+        <v>43981</v>
       </c>
       <c r="B150" s="1">
-        <v>32.9</v>
+        <v>35</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
       </c>
       <c r="D150">
-        <v>32.9</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <v>44195</v>
+        <v>43947</v>
       </c>
       <c r="B151" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C151" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <v>44164</v>
+        <v>43917</v>
       </c>
       <c r="B152" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>44134</v>
+        <v>43881</v>
       </c>
       <c r="B153" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>7</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>44104</v>
+        <v>43861</v>
       </c>
       <c r="B154" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <v>44071</v>
+        <v>43811</v>
       </c>
       <c r="B155" s="1">
-        <v>7</v>
+        <v>32.9</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>7</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>44043</v>
+        <v>44195</v>
       </c>
       <c r="B156" s="1">
         <v>7</v>
@@ -4564,7 +4722,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>44010</v>
+        <v>44164</v>
       </c>
       <c r="B157" s="1">
         <v>7</v>
@@ -4578,7 +4736,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <v>43981</v>
+        <v>44134</v>
       </c>
       <c r="B158" s="1">
         <v>7</v>
@@ -4592,7 +4750,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <v>43947</v>
+        <v>44104</v>
       </c>
       <c r="B159" s="1">
         <v>7</v>
@@ -4601,138 +4759,138 @@
         <v>10</v>
       </c>
       <c r="D159">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <v>43917</v>
+        <v>44071</v>
       </c>
       <c r="B160" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>10</v>
       </c>
       <c r="D160">
-        <v>8.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <v>43881</v>
+        <v>44043</v>
       </c>
       <c r="B161" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>10</v>
       </c>
       <c r="D161">
-        <v>9.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <v>43861</v>
+        <v>44010</v>
       </c>
       <c r="B162" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>10</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <v>43811</v>
+        <v>43981</v>
       </c>
       <c r="B163" s="1">
-        <v>11.8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>10</v>
       </c>
       <c r="D163">
-        <v>11.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <v>44195</v>
+        <v>43947</v>
       </c>
       <c r="B164" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <v>44164</v>
+        <v>43917</v>
       </c>
       <c r="B165" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <v>44134</v>
+        <v>43881</v>
       </c>
       <c r="B166" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>44104</v>
+        <v>43861</v>
       </c>
       <c r="B167" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
-        <v>44071</v>
+        <v>43811</v>
       </c>
       <c r="B168" s="1">
-        <v>5</v>
+        <v>11.8</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
-        <v>44043</v>
+        <v>44195</v>
       </c>
       <c r="B169" s="1">
         <v>5</v>
@@ -4746,7 +4904,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
-        <v>44010</v>
+        <v>44164</v>
       </c>
       <c r="B170" s="1">
         <v>5</v>
@@ -4760,7 +4918,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <v>43981</v>
+        <v>44134</v>
       </c>
       <c r="B171" s="1">
         <v>5</v>
@@ -4774,71 +4932,141 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
-        <v>43947</v>
+        <v>44104</v>
       </c>
       <c r="B172" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
       </c>
       <c r="D172">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
-        <v>43917</v>
+        <v>44071</v>
       </c>
       <c r="B173" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
-        <v>43881</v>
+        <v>44043</v>
       </c>
       <c r="B174" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
-        <v>43861</v>
+        <v>44010</v>
       </c>
       <c r="B175" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B176" s="1">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B177" s="1">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B178" s="1">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>43881</v>
+      </c>
+      <c r="B179" s="1">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B180" s="1">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
         <v>43811</v>
       </c>
-      <c r="B176" s="1">
-        <v>4</v>
-      </c>
-      <c r="C176" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176">
+      <c r="B181" s="1">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181">
         <v>4</v>
       </c>
     </row>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3603A84B-24CD-5040-9585-EF63F7F9D730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE832B-7635-9D42-A88F-7296AC4DA1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="500" windowWidth="27640" windowHeight="15800" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="7540" yWindow="540" windowWidth="27640" windowHeight="15800" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -172,6 +172,15 @@
   <si>
     <t>24–26 Oct</t>
   </si>
+  <si>
+    <t>27–28 Oct</t>
+  </si>
+  <si>
+    <t>26–28 Oct</t>
+  </si>
+  <si>
+    <t>26–27 Oct</t>
+  </si>
 </sst>
 </file>
 
@@ -180,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,6 +232,14 @@
       <b/>
       <sz val="10.8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,7 +328,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,6 +398,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,7 +718,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,7 +776,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44851</v>
+        <v>44863</v>
       </c>
       <c r="B3" s="8">
         <v>23</v>
@@ -1850,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E33"/>
+      <selection activeCell="C38" sqref="C2:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1879,217 +1897,217 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>42</v>
+      <c r="A2" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="27">
+        <v>0.53</v>
       </c>
       <c r="D2" s="17">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E2" s="17">
         <v>0.04</v>
       </c>
       <c r="F2" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.44</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F3" s="17">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0.51</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>43</v>
+      <c r="A4" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="17">
         <v>0.26</v>
       </c>
-      <c r="C4" s="18">
-        <v>0.49</v>
+      <c r="C4" s="27">
+        <v>0.5</v>
       </c>
       <c r="D4" s="17">
         <v>0.1</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>41</v>
+      <c r="E4" s="17">
+        <v>0.04</v>
       </c>
       <c r="F4" s="17">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <v>44857</v>
+      <c r="A5" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B5" s="17">
-        <v>0.21</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.54</v>
+        <v>0.27</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.51</v>
       </c>
       <c r="D5" s="17">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="17">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F5" s="17">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>39</v>
+      <c r="A6" s="20">
+        <v>44860</v>
       </c>
       <c r="B6" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C6" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="27">
         <v>0.51</v>
       </c>
       <c r="D6" s="17">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F6" s="17">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" s="17">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C7" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D7" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="17">
         <v>0.04</v>
       </c>
       <c r="F7" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B8" s="17">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="C8" s="18">
         <v>0.51</v>
       </c>
       <c r="D8" s="17">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="17">
         <v>0.05</v>
       </c>
       <c r="F8" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B9" s="17">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="C9" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.49</v>
       </c>
       <c r="D9" s="17">
         <v>0.1</v>
       </c>
-      <c r="E9" s="17">
-        <v>0.04</v>
+      <c r="E9" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="F9" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>29</v>
+      <c r="A10" s="23">
+        <v>44857</v>
       </c>
       <c r="B10" s="17">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="C10" s="18">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="D10" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E10" s="17">
         <v>0.03</v>
       </c>
       <c r="F10" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>44854</v>
+      <c r="A11" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="17">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="18">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="D11" s="17">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E11" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F11" s="17">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
-        <v>44854</v>
+      <c r="A12" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="17">
         <v>0.22</v>
       </c>
       <c r="C12" s="18">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D12" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="17">
         <v>0.04</v>
@@ -2100,36 +2118,36 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" s="17">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="C13" s="18">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="D13" s="17">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E13" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F13" s="17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
-        <v>44853</v>
+      <c r="A14" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="B14" s="17">
         <v>0.19</v>
       </c>
       <c r="C14" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D14" s="17">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="17">
         <v>0.04</v>
@@ -2140,73 +2158,73 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="17">
         <v>0.23</v>
       </c>
       <c r="C15" s="18">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>44854</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D16" s="17">
         <v>0.11</v>
       </c>
-      <c r="E15" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="E16" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>44854</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D17" s="17">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
-        <v>44850</v>
-      </c>
-      <c r="B17" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.11</v>
       </c>
       <c r="E17" s="17">
         <v>0.04</v>
       </c>
       <c r="F17" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>17</v>
+      <c r="A18" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="17">
         <v>0.22</v>
       </c>
       <c r="C18" s="18">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="D18" s="17">
         <v>0.11</v>
@@ -2215,41 +2233,41 @@
         <v>0.04</v>
       </c>
       <c r="F18" s="17">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>18</v>
+      <c r="A19" s="23">
+        <v>44853</v>
       </c>
       <c r="B19" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.19</v>
       </c>
       <c r="C19" s="18">
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D19" s="17">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E19" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F19" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
-        <v>44847</v>
+      <c r="A20" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="B20" s="17">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C20" s="18">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="D20" s="17">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E20" s="17">
         <v>0.04</v>
@@ -2260,139 +2278,139 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" s="17">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="C21" s="18">
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D21" s="17">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E21" s="17">
         <v>0.04</v>
       </c>
       <c r="F21" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
-        <v>44846</v>
+        <v>44850</v>
       </c>
       <c r="B22" s="17">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="C22" s="18">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D22" s="17">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E22" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F22" s="17">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="17">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="C23" s="18">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="D23" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E23" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F23" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24" s="17">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C24" s="18">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="D24" s="17">
         <v>0.1</v>
       </c>
       <c r="E24" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F24" s="17">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
-        <v>44843</v>
+        <v>44847</v>
       </c>
       <c r="B25" s="17">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C25" s="18">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="D25" s="17">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E25" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F25" s="17">
         <v>0.03</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0.04</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" s="17">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="C26" s="18">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="D26" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E26" s="17">
         <v>0.04</v>
       </c>
       <c r="F26" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>23</v>
+      <c r="A27" s="20">
+        <v>44846</v>
       </c>
       <c r="B27" s="17">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="C27" s="18">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="D27" s="17">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E27" s="17">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F27" s="17">
         <v>0.06</v>
@@ -2400,10 +2418,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B28" s="17">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="C28" s="18">
         <v>0.51</v>
@@ -2412,109 +2430,209 @@
         <v>0.09</v>
       </c>
       <c r="E28" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F28" s="17">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="17">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="C29" s="18">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="D29" s="17">
         <v>0.1</v>
       </c>
       <c r="E29" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="17">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>24</v>
+      <c r="A30" s="20">
+        <v>44843</v>
       </c>
       <c r="B30" s="17">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C30" s="18">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="D30" s="17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E30" s="17">
         <v>0.03</v>
       </c>
       <c r="F30" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="20">
-        <v>44840</v>
+      <c r="A31" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B31" s="17">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C31" s="18">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D31" s="17">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E31" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F31" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" s="17">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="C32" s="18">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="D32" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E32" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F32" s="17">
         <v>0.06</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="20">
-        <v>44839</v>
+      <c r="A33" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B33" s="17">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="C33" s="18">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D33" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E33" s="17">
         <v>0.04</v>
       </c>
       <c r="F33" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F34" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D35" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E35" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
+        <v>44840</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C38" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F38" s="17">
         <v>0.05</v>
       </c>
     </row>
@@ -2528,7 +2646,7 @@
   <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2552,7 +2670,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44860</v>
+        <v>44863</v>
       </c>
       <c r="B2" s="1">
         <v>23</v>
@@ -2566,7 +2684,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
@@ -2706,7 +2824,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>44860</v>
+        <v>44863</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
@@ -2720,7 +2838,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
@@ -2860,7 +2978,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>44860</v>
+        <v>44863</v>
       </c>
       <c r="B24" s="1">
         <v>52</v>
@@ -2874,7 +2992,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B25" s="1">
         <v>52</v>
@@ -3014,7 +3132,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>44860</v>
+        <v>44863</v>
       </c>
       <c r="B35" s="1">
         <v>10</v>
@@ -3028,7 +3146,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="B36" s="1">
         <v>10</v>
@@ -3168,7 +3286,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>44857</v>
+        <v>44863</v>
       </c>
       <c r="B46" s="1">
         <v>4</v>
@@ -3182,7 +3300,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>44855</v>
+        <v>44857</v>
       </c>
       <c r="B47" s="1">
         <v>4</v>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE832B-7635-9D42-A88F-7296AC4DA1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE4A43-EA50-B647-A846-97F9E094A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="540" windowWidth="27640" windowHeight="15800" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="3" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A931D-EDBC-E948-9A77-FFFFFCA63EAC}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1868,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C2:C38"/>
+      <selection activeCell="C2" sqref="C2:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1897,54 +1897,54 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>44</v>
+      <c r="A2" s="23">
+        <v>44864</v>
       </c>
       <c r="B2" s="17">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="C2" s="27">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E2" s="17">
         <v>0.04</v>
       </c>
       <c r="F2" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="C3" s="27">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="D3" s="17">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E3" s="17">
         <v>0.04</v>
       </c>
       <c r="F3" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="17">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C4" s="27">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="D4" s="17">
         <v>0.1</v>
@@ -1961,56 +1961,56 @@
         <v>46</v>
       </c>
       <c r="B5" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="17">
         <v>0.27</v>
-      </c>
-      <c r="C5" s="27">
-        <v>0.51</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
-        <v>44860</v>
-      </c>
-      <c r="B6" s="17">
-        <v>0.2</v>
       </c>
       <c r="C6" s="27">
         <v>0.51</v>
       </c>
       <c r="D6" s="17">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="17">
         <v>0.05</v>
       </c>
       <c r="F6" s="17">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>42</v>
+      <c r="A7" s="20">
+        <v>44860</v>
       </c>
       <c r="B7" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.51</v>
       </c>
       <c r="D7" s="17">
         <v>0.09</v>
       </c>
       <c r="E7" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F7" s="17">
         <v>0.05</v>
@@ -2024,307 +2024,307 @@
         <v>0.23</v>
       </c>
       <c r="C8" s="18">
-        <v>0.51</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D8" s="17">
         <v>0.09</v>
       </c>
       <c r="E8" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F8" s="17">
         <v>0.05</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B10" s="17">
         <v>0.26</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C10" s="18">
         <v>0.49</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D10" s="17">
         <v>0.1</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
         <v>44857</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B11" s="17">
         <v>0.21</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C11" s="18">
         <v>0.54</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="17">
         <v>0.11</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>0.03</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>0.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0.51</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="17">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="C12" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.51</v>
       </c>
       <c r="D12" s="17">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E12" s="17">
         <v>0.04</v>
       </c>
       <c r="F12" s="17">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B13" s="17">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="C13" s="18">
-        <v>0.51</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D13" s="17">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F13" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="17">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="C14" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.51</v>
       </c>
       <c r="D14" s="17">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E14" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F14" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B16" s="17">
         <v>0.23</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C16" s="18">
         <v>0.5</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="17">
         <v>0.09</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>0.03</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <v>44854</v>
-      </c>
-      <c r="B16" s="17">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.53</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0.05</v>
       </c>
       <c r="F16" s="17">
         <v>0.06</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>44854</v>
       </c>
       <c r="B17" s="17">
-        <v>0.22</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C17" s="18">
-        <v>0.56999999999999995</v>
+        <v>0.53</v>
       </c>
       <c r="D17" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E17" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F17" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>26</v>
+      <c r="A18" s="22">
+        <v>44854</v>
       </c>
       <c r="B18" s="17">
         <v>0.22</v>
       </c>
       <c r="C18" s="18">
-        <v>0.53</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D18" s="17">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E18" s="17">
         <v>0.04</v>
       </c>
       <c r="F18" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
-        <v>44853</v>
+      <c r="A19" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="17">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="C19" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="D19" s="17">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E19" s="17">
         <v>0.04</v>
       </c>
       <c r="F19" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>27</v>
+      <c r="A20" s="23">
+        <v>44853</v>
       </c>
       <c r="B20" s="17">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="C20" s="18">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D20" s="17">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E20" s="17">
         <v>0.04</v>
       </c>
       <c r="F20" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>16</v>
+      <c r="A21" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="B21" s="17">
         <v>0.23</v>
       </c>
       <c r="C21" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="D21" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E21" s="17">
         <v>0.04</v>
       </c>
       <c r="F21" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
-        <v>44850</v>
+      <c r="A22" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="B22" s="17">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C22" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D22" s="17">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E22" s="17">
         <v>0.04</v>
       </c>
       <c r="F22" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>17</v>
+      <c r="A23" s="20">
+        <v>44850</v>
       </c>
       <c r="B23" s="17">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="C23" s="18">
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D23" s="17">
         <v>0.11</v>
@@ -2333,164 +2333,164 @@
         <v>0.04</v>
       </c>
       <c r="F23" s="17">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B25" s="17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C25" s="18">
         <v>0.49</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="17">
         <v>0.1</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>0.03</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
         <v>44847</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B26" s="17">
         <v>0.24</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C26" s="18">
         <v>0.53</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D26" s="17">
         <v>0.13</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C26" s="18">
-        <v>0.49</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0.11</v>
       </c>
       <c r="E26" s="17">
         <v>0.04</v>
       </c>
       <c r="F26" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
-        <v>44846</v>
+      <c r="A27" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="B27" s="17">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="C27" s="18">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="D27" s="17">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E27" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="17">
         <v>0.06</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>20</v>
+      <c r="A28" s="20">
+        <v>44846</v>
       </c>
       <c r="B28" s="17">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="C28" s="18">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="D28" s="17">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E28" s="17">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F28" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B30" s="17">
         <v>0.26</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C30" s="18">
         <v>0.47</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
-        <v>44843</v>
-      </c>
-      <c r="B30" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C30" s="18">
-        <v>0.54</v>
       </c>
       <c r="D30" s="17">
         <v>0.1</v>
       </c>
       <c r="E30" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>22</v>
+      <c r="A31" s="20">
+        <v>44843</v>
       </c>
       <c r="B31" s="17">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="C31" s="18">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="D31" s="17">
         <v>0.1</v>
       </c>
       <c r="E31" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F31" s="17">
         <v>0.04</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="17">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C32" s="18">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D32" s="17">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E32" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F32" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2521,19 +2521,19 @@
         <v>23</v>
       </c>
       <c r="B33" s="17">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="C33" s="18">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="D33" s="17">
         <v>0.09</v>
       </c>
       <c r="E33" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F33" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2541,90 +2541,90 @@
         <v>23</v>
       </c>
       <c r="B34" s="17">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="C34" s="18">
         <v>0.51</v>
       </c>
       <c r="D34" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E34" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F34" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="17">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="C35" s="18">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="D35" s="17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E35" s="17">
         <v>0.03</v>
       </c>
       <c r="F35" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F36" s="17">
         <v>0.06</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="20">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="20">
         <v>44840</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B37" s="17">
         <v>0.2</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C37" s="18">
         <v>0.52</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="17">
         <v>0.08</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>0.05</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B38" s="17">
         <v>0.26</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C38" s="18">
         <v>0.48</v>
-      </c>
-      <c r="D37" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E37" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F37" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="20">
-        <v>44839</v>
-      </c>
-      <c r="B38" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="C38" s="18">
-        <v>0.52</v>
       </c>
       <c r="D38" s="17">
         <v>0.1</v>
@@ -2633,6 +2633,26 @@
         <v>0.04</v>
       </c>
       <c r="F38" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F39" s="17">
         <v>0.05</v>
       </c>
     </row>
@@ -2645,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381CFD7-A18A-AD47-BDA2-5D9B5FE8AC32}">
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2670,7 +2690,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B2" s="1">
         <v>23</v>
@@ -2824,7 +2844,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
@@ -2978,7 +2998,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B24" s="1">
         <v>52</v>
@@ -3132,7 +3152,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B35" s="1">
         <v>10</v>
@@ -3286,7 +3306,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B46" s="1">
         <v>4</v>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE4A43-EA50-B647-A846-97F9E094A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF3FBC-AE48-FD48-BFAE-F0A4A73F51BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="3" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="2560" yWindow="500" windowWidth="32000" windowHeight="15800" activeTab="3" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -181,6 +181,18 @@
   <si>
     <t>26–27 Oct</t>
   </si>
+  <si>
+    <t>28–31 Oct</t>
+  </si>
+  <si>
+    <t>1–2 Nov</t>
+  </si>
+  <si>
+    <t>3–4 Nov</t>
+  </si>
+  <si>
+    <t>2-3 Nov</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -240,6 +252,12 @@
       <b/>
       <sz val="10.8"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,8 +405,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,6 +415,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A931D-EDBC-E948-9A77-FFFFFCA63EAC}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,106 +774,106 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4">
+        <v>44869</v>
+      </c>
+      <c r="B2" s="26">
+        <v>26</v>
+      </c>
+      <c r="C2" s="26">
+        <v>49</v>
+      </c>
+      <c r="D2" s="26">
+        <v>10</v>
+      </c>
+      <c r="E2" s="26">
+        <v>4</v>
+      </c>
+      <c r="F2" s="26">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B3" s="6">
         <v>31.5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="6">
         <v>41.1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D3" s="6">
         <v>11.1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E3" s="6">
         <v>5.8</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F3" s="6">
         <v>4.3</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G3" s="5">
         <v>9.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>44863</v>
-      </c>
-      <c r="B3" s="8">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8">
-        <v>52</v>
-      </c>
-      <c r="D3" s="8">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>44834</v>
-      </c>
-      <c r="B4" s="1">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7">
-        <v>15</v>
+        <v>44865</v>
+      </c>
+      <c r="B4" s="8">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B5" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44770</v>
+        <v>44804</v>
       </c>
       <c r="B6" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>12</v>
@@ -863,21 +885,21 @@
         <v>4</v>
       </c>
       <c r="G6" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44742</v>
+        <v>44770</v>
       </c>
       <c r="B7" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -886,12 +908,12 @@
         <v>4</v>
       </c>
       <c r="G7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44710</v>
+        <v>44742</v>
       </c>
       <c r="B8" s="1">
         <v>33</v>
@@ -900,7 +922,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -914,16 +936,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44679</v>
+        <v>44710</v>
       </c>
       <c r="B9" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1">
         <v>39</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -932,18 +954,18 @@
         <v>4</v>
       </c>
       <c r="G9" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="B10" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -952,116 +974,116 @@
         <v>6</v>
       </c>
       <c r="F10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44620</v>
+        <v>44650</v>
       </c>
       <c r="B11" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B12" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
       </c>
       <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7">
         <v>6</v>
       </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>44592</v>
+      </c>
+      <c r="B13" s="1">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="6">
         <v>40.299999999999997</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>35.200000000000003</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>5.9</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G14" s="14">
         <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B14" s="10">
-        <v>33</v>
-      </c>
-      <c r="C14" s="10">
-        <v>38</v>
-      </c>
-      <c r="D14" s="10">
-        <v>10</v>
-      </c>
-      <c r="E14" s="10">
-        <v>7</v>
-      </c>
-      <c r="F14" s="10">
-        <v>4</v>
-      </c>
-      <c r="G14" s="11">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>44529</v>
+        <v>44560</v>
       </c>
       <c r="B15" s="10">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10">
         <v>7</v>
@@ -1070,41 +1092,41 @@
         <v>4</v>
       </c>
       <c r="G15" s="11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>44500</v>
-      </c>
-      <c r="B16" s="1">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B16" s="10">
+        <v>37</v>
+      </c>
+      <c r="C16" s="10">
+        <v>36</v>
+      </c>
+      <c r="D16" s="10">
         <v>9</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="10">
         <v>7</v>
       </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-4</v>
+      <c r="F16" s="10">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>44468</v>
+        <v>44500</v>
       </c>
       <c r="B17" s="1">
         <v>39</v>
       </c>
       <c r="C17" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1">
         <v>9</v>
@@ -1116,44 +1138,44 @@
         <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>44437</v>
+        <v>44468</v>
       </c>
       <c r="B18" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1">
         <v>34</v>
       </c>
       <c r="D18" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1">
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>44407</v>
+        <v>44437</v>
       </c>
       <c r="B19" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
@@ -1162,41 +1184,35 @@
         <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>-9</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>44377</v>
+        <v>44407</v>
       </c>
       <c r="B20" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1">
         <v>33</v>
       </c>
       <c r="D20" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="1">
-        <v>-10</v>
-      </c>
-      <c r="J20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B21" s="1">
         <v>43</v>
@@ -1205,36 +1221,33 @@
         <v>33</v>
       </c>
       <c r="D21" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="1">
         <v>-10</v>
       </c>
-      <c r="I21" s="1">
-        <v>2019</v>
-      </c>
-      <c r="J21" s="1">
-        <v>44.7</v>
-      </c>
-      <c r="K21" s="1">
-        <v>32.9</v>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B22" s="1">
         <v>43</v>
       </c>
       <c r="C22" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1">
         <v>7</v>
@@ -1246,21 +1259,21 @@
         <v>5</v>
       </c>
       <c r="G22" s="1">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I22" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J22" s="1">
-        <v>44</v>
+        <v>44.7</v>
       </c>
       <c r="K22" s="1">
-        <v>35</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>44284</v>
+        <v>44316</v>
       </c>
       <c r="B23" s="1">
         <v>43</v>
@@ -1281,125 +1294,134 @@
         <v>-8</v>
       </c>
       <c r="I23" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J23" s="1">
-        <v>40.299999999999997</v>
+        <v>44</v>
       </c>
       <c r="K23" s="1">
-        <v>35.200000000000003</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>44255</v>
+        <v>44284</v>
       </c>
       <c r="B24" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1">
         <v>7</v>
       </c>
       <c r="E24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
       </c>
       <c r="G24" s="1">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="I24" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J24" s="1">
-        <v>31.6</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="K24" s="1">
-        <v>41.1</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>44226</v>
+        <v>44255</v>
       </c>
       <c r="B25" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1">
         <v>7</v>
       </c>
       <c r="E25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
       </c>
       <c r="G25" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2022</v>
+      </c>
+      <c r="J25" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="K25" s="1">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>44226</v>
+      </c>
+      <c r="B26" s="1">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B27" s="5">
         <v>44</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C27" s="5">
         <v>35</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <v>7.5</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F27" s="5">
         <v>4.7</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G27" s="14">
         <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>44195</v>
-      </c>
-      <c r="B27" s="1">
-        <v>39</v>
-      </c>
-      <c r="C27" s="1">
-        <v>38</v>
-      </c>
-      <c r="D27" s="1">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5</v>
-      </c>
-      <c r="G27" s="1">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>44164</v>
+        <v>44195</v>
       </c>
       <c r="B28" s="1">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1">
         <v>38</v>
-      </c>
-      <c r="C28" s="1">
-        <v>39</v>
       </c>
       <c r="D28" s="1">
         <v>7</v>
@@ -1411,15 +1433,15 @@
         <v>5</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>44134</v>
+        <v>44164</v>
       </c>
       <c r="B29" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
         <v>39</v>
@@ -1434,18 +1456,18 @@
         <v>5</v>
       </c>
       <c r="G29" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B30" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="1">
         <v>7</v>
@@ -1457,38 +1479,38 @@
         <v>5</v>
       </c>
       <c r="G30" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>44071</v>
+        <v>44104</v>
       </c>
       <c r="B31" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1">
         <v>7</v>
       </c>
       <c r="E31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1">
         <v>5</v>
       </c>
       <c r="G31" s="1">
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>44043</v>
+        <v>44071</v>
       </c>
       <c r="B32" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1">
         <v>37</v>
@@ -1503,18 +1525,18 @@
         <v>5</v>
       </c>
       <c r="G32" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>44010</v>
+        <v>44043</v>
       </c>
       <c r="B33" s="1">
         <v>43</v>
       </c>
       <c r="C33" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1">
         <v>7</v>
@@ -1526,18 +1548,18 @@
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>43981</v>
+        <v>44010</v>
       </c>
       <c r="B34" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1">
         <v>7</v>
@@ -1549,18 +1571,18 @@
         <v>5</v>
       </c>
       <c r="G34" s="1">
-        <v>-12</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>43947</v>
+        <v>43981</v>
       </c>
       <c r="B35" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1">
         <v>7</v>
@@ -1569,24 +1591,24 @@
         <v>4</v>
       </c>
       <c r="F35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35" s="1">
-        <v>-20</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>43917</v>
+        <v>43947</v>
       </c>
       <c r="B36" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1">
         <v>4</v>
@@ -1595,79 +1617,102 @@
         <v>4</v>
       </c>
       <c r="G36" s="1">
-        <v>-21</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>43881</v>
+        <v>43917</v>
       </c>
       <c r="B37" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="1">
         <v>4</v>
       </c>
       <c r="G37" s="1">
-        <v>-17</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>43861</v>
+        <v>43881</v>
       </c>
       <c r="B38" s="1">
         <v>47</v>
       </c>
       <c r="C38" s="1">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B39" s="1">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1">
         <v>29</v>
       </c>
-      <c r="D38" s="1">
-        <v>10</v>
-      </c>
-      <c r="E38" s="1">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1">
-        <v>4</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="D39" s="1">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1">
         <v>-18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B40" s="15">
         <v>44.7</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C40" s="15">
         <v>32.9</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D40" s="15">
         <v>11.8</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>2.8</v>
       </c>
-      <c r="F39" s="15">
-        <v>4</v>
-      </c>
-      <c r="G39" s="16">
+      <c r="F40" s="15">
+        <v>4</v>
+      </c>
+      <c r="G40" s="16">
         <v>11.8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1688,10 +1733,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1717,25 +1762,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>44.7</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="24">
         <v>365</v>
       </c>
       <c r="D2" s="1">
         <v>44</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <v>373</v>
       </c>
       <c r="F2" s="1">
         <v>40.299999999999997</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="24">
         <v>346</v>
       </c>
       <c r="H2" s="1">
@@ -1746,7 +1791,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -1770,12 +1815,12 @@
       <c r="H3" s="1">
         <v>41.1</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
@@ -1804,7 +1849,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -1833,7 +1878,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -1868,16 +1913,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C39"/>
+      <selection activeCell="F5" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="23"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1896,58 +1944,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
-        <v>44864</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="17">
         <v>0.27</v>
       </c>
-      <c r="C2" s="27">
-        <v>0.5</v>
+      <c r="C2" s="25">
+        <v>0.51</v>
       </c>
       <c r="D2" s="17">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E2" s="17">
         <v>0.04</v>
       </c>
       <c r="F2" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>44</v>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="27">
-        <v>0.53</v>
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.47</v>
       </c>
       <c r="D3" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F3" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B4" s="17">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.44</v>
+        <v>0.24</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.5</v>
       </c>
       <c r="D4" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="17">
         <v>0.04</v>
@@ -1956,75 +2005,75 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>46</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>44866</v>
       </c>
       <c r="B5" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C5" s="27">
-        <v>0.5</v>
+        <v>0.21</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.47</v>
       </c>
       <c r="D5" s="17">
         <v>0.1</v>
       </c>
       <c r="E5" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F5" s="17">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>44864</v>
+      </c>
+      <c r="B7" s="17">
         <v>0.27</v>
       </c>
-      <c r="C6" s="27">
-        <v>0.51</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
-        <v>44860</v>
-      </c>
-      <c r="B7" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="27">
-        <v>0.51</v>
+      <c r="C7" s="25">
+        <v>0.5</v>
       </c>
       <c r="D7" s="17">
         <v>0.09</v>
       </c>
       <c r="E7" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F7" s="17">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>42</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>44864</v>
       </c>
       <c r="B8" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.27</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.5</v>
       </c>
       <c r="D8" s="17">
         <v>0.09</v>
@@ -2036,341 +2085,341 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>42</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.51</v>
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.53</v>
       </c>
       <c r="D9" s="17">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E9" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F9" s="17">
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>43</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.49</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.44</v>
       </c>
       <c r="D10" s="17">
         <v>0.1</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>41</v>
+      <c r="E10" s="17">
+        <v>0.04</v>
       </c>
       <c r="F10" s="17">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>44857</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="17">
-        <v>0.21</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0.54</v>
+        <v>0.26</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.5</v>
       </c>
       <c r="D11" s="17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F11" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>39</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C12" s="18">
+        <v>0.27</v>
+      </c>
+      <c r="C12" s="25">
         <v>0.51</v>
       </c>
       <c r="D12" s="17">
         <v>0.08</v>
       </c>
       <c r="E12" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F12" s="17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>40</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>44860</v>
       </c>
       <c r="B13" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.51</v>
       </c>
       <c r="D13" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E13" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E14" s="17">
         <v>0.04</v>
       </c>
-      <c r="F13" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="F14" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C15" s="18">
         <v>0.51</v>
       </c>
-      <c r="D14" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="D15" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E15" s="17">
         <v>0.05</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="17">
-        <v>0.19</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.04</v>
       </c>
       <c r="F15" s="17">
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>29</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="B16" s="17">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="C16" s="18">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="D16" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0.03</v>
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="17">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <v>44854</v>
+      <c r="A17" s="20">
+        <v>44857</v>
       </c>
       <c r="B17" s="17">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="C17" s="18">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="D17" s="17">
         <v>0.11</v>
       </c>
       <c r="E17" s="17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F17" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
-        <v>44854</v>
+      <c r="A18" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="17">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="C18" s="18">
-        <v>0.56999999999999995</v>
+        <v>0.51</v>
       </c>
       <c r="D18" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E18" s="17">
         <v>0.04</v>
       </c>
       <c r="F18" s="17">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>26</v>
+      <c r="A19" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="B19" s="17">
         <v>0.22</v>
       </c>
       <c r="C19" s="18">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D19" s="17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E19" s="17">
         <v>0.04</v>
       </c>
       <c r="F19" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E20" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <v>44853</v>
-      </c>
-      <c r="B20" s="17">
+      <c r="F20" s="17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="17">
         <v>0.19</v>
       </c>
-      <c r="C20" s="18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="17">
-        <v>0.23</v>
-      </c>
       <c r="C21" s="18">
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D21" s="17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E21" s="17">
         <v>0.04</v>
       </c>
       <c r="F21" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B22" s="17">
         <v>0.23</v>
       </c>
       <c r="C22" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="D22" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E22" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F22" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
-        <v>44850</v>
+        <v>44854</v>
       </c>
       <c r="B23" s="17">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C23" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="D23" s="17">
         <v>0.11</v>
       </c>
       <c r="E23" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F23" s="17">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>17</v>
+      <c r="A24" s="27">
+        <v>44854</v>
       </c>
       <c r="B24" s="17">
         <v>0.22</v>
       </c>
       <c r="C24" s="18">
-        <v>0.52</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D24" s="17">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E24" s="17">
         <v>0.04</v>
       </c>
       <c r="F24" s="17">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B25" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="C25" s="18">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="D25" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E25" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F25" s="17">
         <v>0.05</v>
@@ -2378,33 +2427,33 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
-        <v>44847</v>
+        <v>44853</v>
       </c>
       <c r="B26" s="17">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="C26" s="18">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D26" s="17">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E26" s="17">
         <v>0.04</v>
       </c>
       <c r="F26" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B27" s="17">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="C27" s="18">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="D27" s="17">
         <v>0.11</v>
@@ -2413,78 +2462,78 @@
         <v>0.04</v>
       </c>
       <c r="F27" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
-        <v>44846</v>
+      <c r="A28" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="B28" s="17">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="C28" s="18">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D28" s="17">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E28" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F28" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>20</v>
+      <c r="A29" s="20">
+        <v>44850</v>
       </c>
       <c r="B29" s="17">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="C29" s="18">
-        <v>0.51</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D29" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E29" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F29" s="17">
         <v>0.05</v>
-      </c>
-      <c r="F29" s="17">
-        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B30" s="17">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="C30" s="18">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="D30" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E30" s="17">
         <v>0.04</v>
       </c>
       <c r="F30" s="17">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="20">
-        <v>44843</v>
+      <c r="A31" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="B31" s="17">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C31" s="18">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="D31" s="17">
         <v>0.1</v>
@@ -2493,92 +2542,92 @@
         <v>0.03</v>
       </c>
       <c r="F31" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>22</v>
+      <c r="A32" s="20">
+        <v>44847</v>
       </c>
       <c r="B32" s="17">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="C32" s="18">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="D32" s="17">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E32" s="17">
         <v>0.04</v>
       </c>
       <c r="F32" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B33" s="17">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="C33" s="18">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="D33" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E33" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F33" s="17">
         <v>0.06</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
-        <v>23</v>
+      <c r="A34" s="20">
+        <v>44846</v>
       </c>
       <c r="B34" s="17">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="C34" s="18">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="D34" s="17">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E34" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F34" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B35" s="17">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C35" s="18">
         <v>0.51</v>
       </c>
       <c r="D35" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E35" s="17">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F35" s="17">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B36" s="17">
         <v>0.26</v>
@@ -2587,44 +2636,44 @@
         <v>0.47</v>
       </c>
       <c r="D36" s="17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E36" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F36" s="17">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="B37" s="17">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C37" s="18">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="D37" s="17">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E37" s="17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F37" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B38" s="17">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="C38" s="18">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="D38" s="17">
         <v>0.1</v>
@@ -2633,26 +2682,146 @@
         <v>0.04</v>
       </c>
       <c r="F38" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
-        <v>44839</v>
+      <c r="A39" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B39" s="17">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="C39" s="18">
         <v>0.52</v>
       </c>
       <c r="D39" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F39" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F40" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D41" s="17">
         <v>0.1</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E41" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C42" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D42" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E42" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="20">
+        <v>44840</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D43" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F43" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E44" s="17">
         <v>0.04</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F44" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C45" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F45" s="17">
         <v>0.05</v>
       </c>
     </row>
@@ -2663,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381CFD7-A18A-AD47-BDA2-5D9B5FE8AC32}">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2690,21 +2859,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44864</v>
+        <v>44869</v>
       </c>
       <c r="B2" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>23.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44858</v>
+        <v>44865</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
@@ -2713,68 +2882,68 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>26.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>44834</v>
+        <v>44858</v>
       </c>
       <c r="B4" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B5" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>31.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44770</v>
+        <v>44804</v>
       </c>
       <c r="B6" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>32.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44742</v>
+        <v>44770</v>
       </c>
       <c r="B7" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44710</v>
+        <v>44742</v>
       </c>
       <c r="B8" s="1">
         <v>33</v>
@@ -2783,124 +2952,124 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>33.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44679</v>
+        <v>44710</v>
       </c>
       <c r="B9" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>34.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="B10" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44620</v>
+        <v>44650</v>
       </c>
       <c r="B11" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>32.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B12" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>44864</v>
+        <v>44592</v>
       </c>
       <c r="B13" s="1">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>44858</v>
+        <v>44869</v>
       </c>
       <c r="B14" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B15" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>44804</v>
+        <v>44858</v>
       </c>
       <c r="B16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>44770</v>
+        <v>44834</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2914,7 +3083,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>44742</v>
+        <v>44804</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
@@ -2928,7 +3097,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>44710</v>
+        <v>44770</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -2942,7 +3111,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>44679</v>
+        <v>44742</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
@@ -2956,7 +3125,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>44650</v>
+        <v>44710</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
@@ -2965,26 +3134,26 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>44620</v>
+        <v>44679</v>
       </c>
       <c r="B22" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>44592</v>
+        <v>44650</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
@@ -2993,138 +3162,138 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>44864</v>
+        <v>44620</v>
       </c>
       <c r="B24" s="1">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>52</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>44858</v>
+        <v>44592</v>
       </c>
       <c r="B25" s="1">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>44834</v>
+        <v>44869</v>
       </c>
       <c r="B26" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>42.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>44804</v>
+        <v>44865</v>
       </c>
       <c r="B27" s="1">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>40.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>44770</v>
+        <v>44858</v>
       </c>
       <c r="B28" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>39.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="B29" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>44710</v>
+        <v>44804</v>
       </c>
       <c r="B30" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>44679</v>
+        <v>44770</v>
       </c>
       <c r="B31" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>44650</v>
+        <v>44742</v>
       </c>
       <c r="B32" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>38.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>44620</v>
+        <v>44710</v>
       </c>
       <c r="B33" s="1">
         <v>39</v>
@@ -3133,113 +3302,113 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>39.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>44592</v>
+        <v>44679</v>
       </c>
       <c r="B34" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>44864</v>
+        <v>44650</v>
       </c>
       <c r="B35" s="1">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>44858</v>
+        <v>44620</v>
       </c>
       <c r="B36" s="1">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>44834</v>
+        <v>44592</v>
       </c>
       <c r="B37" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>44804</v>
+        <v>44869</v>
       </c>
       <c r="B38" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>44770</v>
+        <v>44865</v>
       </c>
       <c r="B39" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39">
-        <v>12.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>44742</v>
+        <v>44858</v>
       </c>
       <c r="B40" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40">
-        <v>12.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>44710</v>
+        <v>44834</v>
       </c>
       <c r="B41" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -3250,52 +3419,52 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>44679</v>
+        <v>44804</v>
       </c>
       <c r="B42" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>44650</v>
+        <v>44770</v>
       </c>
       <c r="B43" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>44620</v>
+        <v>44742</v>
       </c>
       <c r="B44" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>44592</v>
+        <v>44710</v>
       </c>
       <c r="B45" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -3306,63 +3475,63 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>44864</v>
+        <v>44679</v>
       </c>
       <c r="B46" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>44857</v>
+        <v>44650</v>
       </c>
       <c r="B47" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>44834</v>
+        <v>44620</v>
       </c>
       <c r="B48" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>4.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>44804</v>
+        <v>44592</v>
       </c>
       <c r="B49" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>44770</v>
+        <v>44869</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>
@@ -3376,7 +3545,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>44742</v>
+        <v>44865</v>
       </c>
       <c r="B51" s="1">
         <v>4</v>
@@ -3390,7 +3559,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>44710</v>
+        <v>44857</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
@@ -3399,15 +3568,15 @@
         <v>5</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>44679</v>
+        <v>44834</v>
       </c>
       <c r="B53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3418,21 +3587,21 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>44650</v>
+        <v>44804</v>
       </c>
       <c r="B54" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
       </c>
       <c r="D54">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>44620</v>
+        <v>44770</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
@@ -3441,502 +3610,502 @@
         <v>5</v>
       </c>
       <c r="D55">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>44592</v>
+        <v>44742</v>
       </c>
       <c r="B56" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B57" s="10">
-        <v>33</v>
+        <v>44710</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B58" s="10">
-        <v>37</v>
+        <v>44679</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>44500</v>
+        <v>44650</v>
       </c>
       <c r="B59" s="1">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>38</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>44468</v>
+        <v>44620</v>
       </c>
       <c r="B60" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>39</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>44437</v>
+        <v>44592</v>
       </c>
       <c r="B61" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>39.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>44407</v>
-      </c>
-      <c r="B62" s="1">
-        <v>42</v>
+        <v>44560</v>
+      </c>
+      <c r="B62" s="10">
+        <v>33</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>44377</v>
-      </c>
-      <c r="B63" s="1">
-        <v>43</v>
+        <v>44529</v>
+      </c>
+      <c r="B63" s="10">
+        <v>37</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>42.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>44347</v>
+        <v>44500</v>
       </c>
       <c r="B64" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>44316</v>
+        <v>44468</v>
       </c>
       <c r="B65" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>44284</v>
+        <v>44437</v>
       </c>
       <c r="B66" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>43</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>44255</v>
+        <v>44407</v>
       </c>
       <c r="B67" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>44226</v>
+        <v>44377</v>
       </c>
       <c r="B68" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>40.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B69" s="10">
-        <v>38</v>
+        <v>44347</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B70" s="10">
-        <v>36</v>
+        <v>44316</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>44500</v>
+        <v>44284</v>
       </c>
       <c r="B71" s="1">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>35.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>44468</v>
+        <v>44255</v>
       </c>
       <c r="B72" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>34.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>44437</v>
+        <v>44226</v>
       </c>
       <c r="B73" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>34</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>44407</v>
-      </c>
-      <c r="B74" s="1">
-        <v>33</v>
+        <v>44560</v>
+      </c>
+      <c r="B74" s="10">
+        <v>38</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
       </c>
       <c r="D74">
-        <v>33.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>44377</v>
-      </c>
-      <c r="B75" s="1">
-        <v>33</v>
+        <v>44529</v>
+      </c>
+      <c r="B75" s="10">
+        <v>36</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>44347</v>
+        <v>44500</v>
       </c>
       <c r="B76" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
       </c>
       <c r="D76">
-        <v>34</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>44316</v>
+        <v>44468</v>
       </c>
       <c r="B77" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>35</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>44284</v>
+        <v>44437</v>
       </c>
       <c r="B78" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
       <c r="D78">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>44255</v>
+        <v>44407</v>
       </c>
       <c r="B79" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>38</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>44226</v>
+        <v>44377</v>
       </c>
       <c r="B80" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B81" s="10">
-        <v>7</v>
+        <v>44347</v>
+      </c>
+      <c r="B81" s="1">
+        <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B82" s="10">
-        <v>7</v>
+        <v>44316</v>
+      </c>
+      <c r="B82" s="1">
+        <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>44500</v>
+        <v>44284</v>
       </c>
       <c r="B83" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>44468</v>
+        <v>44255</v>
       </c>
       <c r="B84" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>6.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>44437</v>
+        <v>44226</v>
       </c>
       <c r="B85" s="1">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>44407</v>
-      </c>
-      <c r="B86" s="1">
-        <v>6</v>
+        <v>44560</v>
+      </c>
+      <c r="B86" s="10">
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
       <c r="D86">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>44377</v>
-      </c>
-      <c r="B87" s="1">
-        <v>5</v>
+        <v>44529</v>
+      </c>
+      <c r="B87" s="10">
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>44347</v>
+        <v>44500</v>
       </c>
       <c r="B88" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>44316</v>
+        <v>44468</v>
       </c>
       <c r="B89" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>44284</v>
+        <v>44437</v>
       </c>
       <c r="B90" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>44255</v>
+        <v>44407</v>
       </c>
       <c r="B91" s="1">
         <v>6</v>
@@ -3950,7 +4119,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>44226</v>
+        <v>44377</v>
       </c>
       <c r="B92" s="1">
         <v>5</v>
@@ -3964,273 +4133,273 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B93" s="10">
-        <v>10</v>
+        <v>44347</v>
+      </c>
+      <c r="B93" s="1">
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93">
-        <v>9.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B94" s="10">
+        <v>44316</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
         <v>9</v>
       </c>
-      <c r="C94" t="s">
-        <v>10</v>
-      </c>
       <c r="D94">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>44500</v>
+        <v>44284</v>
       </c>
       <c r="B95" s="1">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
         <v>9</v>
       </c>
-      <c r="C95" t="s">
-        <v>10</v>
-      </c>
       <c r="D95">
-        <v>9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>44468</v>
+        <v>44255</v>
       </c>
       <c r="B96" s="1">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
         <v>9</v>
       </c>
-      <c r="C96" t="s">
-        <v>10</v>
-      </c>
       <c r="D96">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>44437</v>
+        <v>44226</v>
       </c>
       <c r="B97" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97">
-        <v>9.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>44407</v>
-      </c>
-      <c r="B98" s="1">
-        <v>9</v>
+        <v>44560</v>
+      </c>
+      <c r="B98" s="10">
+        <v>10</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>44377</v>
-      </c>
-      <c r="B99" s="1">
-        <v>8</v>
+        <v>44529</v>
+      </c>
+      <c r="B99" s="10">
+        <v>9</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
       </c>
       <c r="D99">
-        <v>7.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>44347</v>
+        <v>44500</v>
       </c>
       <c r="B100" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>44316</v>
+        <v>44468</v>
       </c>
       <c r="B101" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>44284</v>
+        <v>44437</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>44255</v>
+        <v>44407</v>
       </c>
       <c r="B103" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103">
-        <v>7</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>44226</v>
+        <v>44377</v>
       </c>
       <c r="B104" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
       </c>
       <c r="D104">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B105" s="10">
-        <v>4</v>
+        <v>44347</v>
+      </c>
+      <c r="B105" s="1">
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B106" s="10">
-        <v>4</v>
+        <v>44316</v>
+      </c>
+      <c r="B106" s="1">
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D106">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <v>44500</v>
+        <v>44284</v>
       </c>
       <c r="B107" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <v>44468</v>
+        <v>44255</v>
       </c>
       <c r="B108" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <v>44437</v>
+        <v>44226</v>
       </c>
       <c r="B109" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>44407</v>
-      </c>
-      <c r="B110" s="1">
-        <v>5</v>
+        <v>44560</v>
+      </c>
+      <c r="B110" s="10">
+        <v>4</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>44377</v>
-      </c>
-      <c r="B111" s="1">
-        <v>6</v>
+        <v>44529</v>
+      </c>
+      <c r="B111" s="10">
+        <v>4</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
       </c>
       <c r="D111">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>44347</v>
+        <v>44500</v>
       </c>
       <c r="B112" s="1">
         <v>5</v>
@@ -4244,7 +4413,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>44316</v>
+        <v>44468</v>
       </c>
       <c r="B113" s="1">
         <v>5</v>
@@ -4258,7 +4427,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>44284</v>
+        <v>44437</v>
       </c>
       <c r="B114" s="1">
         <v>5</v>
@@ -4272,7 +4441,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>44255</v>
+        <v>44407</v>
       </c>
       <c r="B115" s="1">
         <v>5</v>
@@ -4286,329 +4455,329 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>44226</v>
+        <v>44377</v>
       </c>
       <c r="B116" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>44195</v>
+        <v>44347</v>
       </c>
       <c r="B117" s="1">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>38.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>44164</v>
+        <v>44316</v>
       </c>
       <c r="B118" s="1">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D118">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>44134</v>
+        <v>44284</v>
       </c>
       <c r="B119" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D119">
-        <v>40.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>44104</v>
+        <v>44255</v>
       </c>
       <c r="B120" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D120">
-        <v>40.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <v>44071</v>
+        <v>44226</v>
       </c>
       <c r="B121" s="1">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D121">
-        <v>41.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <v>44043</v>
+        <v>44195</v>
       </c>
       <c r="B122" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>44.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>44010</v>
+        <v>44164</v>
       </c>
       <c r="B123" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>43981</v>
+        <v>44134</v>
       </c>
       <c r="B124" s="1">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>45</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>43947</v>
+        <v>44104</v>
       </c>
       <c r="B125" s="1">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>49</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>43917</v>
+        <v>44071</v>
       </c>
       <c r="B126" s="1">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>50.5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>43881</v>
+        <v>44043</v>
       </c>
       <c r="B127" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>48.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>43861</v>
+        <v>44010</v>
       </c>
       <c r="B128" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <v>43811</v>
+        <v>43981</v>
       </c>
       <c r="B129" s="1">
-        <v>44.7</v>
+        <v>47</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>44.7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>44195</v>
+        <v>43947</v>
       </c>
       <c r="B130" s="1">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>44164</v>
+        <v>43917</v>
       </c>
       <c r="B131" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>44134</v>
+        <v>43881</v>
       </c>
       <c r="B132" s="1">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <v>44104</v>
+        <v>43861</v>
       </c>
       <c r="B133" s="1">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>4.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>44071</v>
+        <v>43811</v>
       </c>
       <c r="B134" s="1">
-        <v>4</v>
+        <v>44.7</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <v>44043</v>
+        <v>44195</v>
       </c>
       <c r="B135" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <v>44010</v>
+        <v>44164</v>
       </c>
       <c r="B136" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <v>43981</v>
+        <v>44134</v>
       </c>
       <c r="B137" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <v>43947</v>
+        <v>44104</v>
       </c>
       <c r="B138" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <v>43917</v>
+        <v>44071</v>
       </c>
       <c r="B139" s="1">
         <v>4</v>
@@ -4622,21 +4791,21 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <v>43881</v>
+        <v>44043</v>
       </c>
       <c r="B140" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
       </c>
       <c r="D140">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <v>43861</v>
+        <v>44010</v>
       </c>
       <c r="B141" s="1">
         <v>4</v>
@@ -4650,273 +4819,273 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <v>43811</v>
+        <v>43981</v>
       </c>
       <c r="B142" s="1">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
       </c>
       <c r="D142">
-        <v>2.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <v>44195</v>
+        <v>43947</v>
       </c>
       <c r="B143" s="1">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D143">
-        <v>38.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <v>44164</v>
+        <v>43917</v>
       </c>
       <c r="B144" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D144">
-        <v>38.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>44134</v>
+        <v>43881</v>
       </c>
       <c r="B145" s="1">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D145">
-        <v>39</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
-        <v>44104</v>
+        <v>43861</v>
       </c>
       <c r="B146" s="1">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D146">
-        <v>38.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <v>44071</v>
+        <v>43811</v>
       </c>
       <c r="B147" s="1">
-        <v>37</v>
+        <v>2.8</v>
       </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D147">
-        <v>37.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>44043</v>
+        <v>44195</v>
       </c>
       <c r="B148" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
       </c>
       <c r="D148">
-        <v>37</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <v>44010</v>
+        <v>44164</v>
       </c>
       <c r="B149" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
       </c>
       <c r="D149">
-        <v>37.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <v>43981</v>
+        <v>44134</v>
       </c>
       <c r="B150" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
       </c>
       <c r="D150">
-        <v>36.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <v>43947</v>
+        <v>44104</v>
       </c>
       <c r="B151" s="1">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
       </c>
       <c r="D151">
-        <v>33</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <v>43917</v>
+        <v>44071</v>
       </c>
       <c r="B152" s="1">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
       </c>
       <c r="D152">
-        <v>30</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>43881</v>
+        <v>44043</v>
       </c>
       <c r="B153" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
       </c>
       <c r="D153">
-        <v>29.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>43861</v>
+        <v>44010</v>
       </c>
       <c r="B154" s="1">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
       </c>
       <c r="D154">
-        <v>29</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <v>43811</v>
+        <v>43981</v>
       </c>
       <c r="B155" s="1">
-        <v>32.9</v>
+        <v>35</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
       </c>
       <c r="D155">
-        <v>32.9</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>44195</v>
+        <v>43947</v>
       </c>
       <c r="B156" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>44164</v>
+        <v>43917</v>
       </c>
       <c r="B157" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <v>44134</v>
+        <v>43881</v>
       </c>
       <c r="B158" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>7</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <v>44104</v>
+        <v>43861</v>
       </c>
       <c r="B159" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <v>44071</v>
+        <v>43811</v>
       </c>
       <c r="B160" s="1">
-        <v>7</v>
+        <v>32.9</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>7</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <v>44043</v>
+        <v>44195</v>
       </c>
       <c r="B161" s="1">
         <v>7</v>
@@ -4930,7 +5099,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <v>44010</v>
+        <v>44164</v>
       </c>
       <c r="B162" s="1">
         <v>7</v>
@@ -4944,7 +5113,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <v>43981</v>
+        <v>44134</v>
       </c>
       <c r="B163" s="1">
         <v>7</v>
@@ -4958,7 +5127,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <v>43947</v>
+        <v>44104</v>
       </c>
       <c r="B164" s="1">
         <v>7</v>
@@ -4967,138 +5136,138 @@
         <v>10</v>
       </c>
       <c r="D164">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <v>43917</v>
+        <v>44071</v>
       </c>
       <c r="B165" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>10</v>
       </c>
       <c r="D165">
-        <v>8.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <v>43881</v>
+        <v>44043</v>
       </c>
       <c r="B166" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>10</v>
       </c>
       <c r="D166">
-        <v>9.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>43861</v>
+        <v>44010</v>
       </c>
       <c r="B167" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>10</v>
       </c>
       <c r="D167">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
-        <v>43811</v>
+        <v>43981</v>
       </c>
       <c r="B168" s="1">
-        <v>11.8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>10</v>
       </c>
       <c r="D168">
-        <v>11.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
-        <v>44195</v>
+        <v>43947</v>
       </c>
       <c r="B169" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
-        <v>44164</v>
+        <v>43917</v>
       </c>
       <c r="B170" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <v>44134</v>
+        <v>43881</v>
       </c>
       <c r="B171" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
-        <v>44104</v>
+        <v>43861</v>
       </c>
       <c r="B172" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
-        <v>44071</v>
+        <v>43811</v>
       </c>
       <c r="B173" s="1">
-        <v>5</v>
+        <v>11.8</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
-        <v>44043</v>
+        <v>44195</v>
       </c>
       <c r="B174" s="1">
         <v>5</v>
@@ -5112,7 +5281,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
-        <v>44010</v>
+        <v>44164</v>
       </c>
       <c r="B175" s="1">
         <v>5</v>
@@ -5126,7 +5295,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
-        <v>43981</v>
+        <v>44134</v>
       </c>
       <c r="B176" s="1">
         <v>5</v>
@@ -5140,71 +5309,141 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
-        <v>43947</v>
+        <v>44104</v>
       </c>
       <c r="B177" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
       </c>
       <c r="D177">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>43917</v>
+        <v>44071</v>
       </c>
       <c r="B178" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
-        <v>43881</v>
+        <v>44043</v>
       </c>
       <c r="B179" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
       </c>
       <c r="D179">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
-        <v>43861</v>
+        <v>44010</v>
       </c>
       <c r="B180" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B181" s="1">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B182" s="1">
+        <v>4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B183" s="1">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>43881</v>
+      </c>
+      <c r="B184" s="1">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B185" s="1">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
         <v>43811</v>
       </c>
-      <c r="B181" s="1">
-        <v>4</v>
-      </c>
-      <c r="C181" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181">
+      <c r="B186" s="1">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186">
         <v>4</v>
       </c>
     </row>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF3FBC-AE48-FD48-BFAE-F0A4A73F51BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476B166C-A681-614A-83EC-EDB95A265328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="500" windowWidth="32000" windowHeight="15800" activeTab="3" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="5160" yWindow="500" windowWidth="32000" windowHeight="15800" activeTab="3" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>2-3 Nov</t>
+  </si>
+  <si>
+    <t>9–10 Nov</t>
+  </si>
+  <si>
+    <t>4–7 Nov</t>
   </si>
 </sst>
 </file>
@@ -740,7 +746,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,25 +781,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="B2" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="26">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="26">
         <v>4</v>
       </c>
       <c r="F2" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1913,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F2:F5"/>
+      <selection activeCell="F9" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1945,181 +1951,186 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>49</v>
+      <c r="A2" s="20">
+        <v>44876</v>
       </c>
       <c r="B2" s="17">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="C2" s="25">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E2" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F2" s="17">
-        <v>0.04</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>50</v>
+      <c r="A3" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="17">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C3" s="25">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="D3" s="17">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E3" s="17">
         <v>0.03</v>
       </c>
       <c r="F3" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>48</v>
+      <c r="A4" s="20">
+        <v>44874</v>
       </c>
       <c r="B4" s="17">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="C4" s="25">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="D4" s="17">
         <v>0.09</v>
       </c>
       <c r="E4" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F4" s="17">
-        <v>0.05</v>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
-        <v>44866</v>
+      <c r="A5" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="17">
-        <v>0.21</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C5" s="25">
         <v>0.47</v>
       </c>
       <c r="D5" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F5" s="17">
         <v>0.05</v>
       </c>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>47</v>
+      <c r="A6" s="20">
+        <v>44871</v>
       </c>
       <c r="B6" s="17">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="C6" s="25">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="D6" s="17">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="17">
         <v>0.04</v>
       </c>
       <c r="F6" s="17">
-        <v>0.04</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
-        <v>44864</v>
+      <c r="A7" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="17">
         <v>0.27</v>
       </c>
       <c r="C7" s="25">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="D7" s="17">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E7" s="17">
         <v>0.04</v>
       </c>
       <c r="F7" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
-        <v>44864</v>
+      <c r="A8" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="B8" s="17">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="C8" s="25">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="D8" s="17">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="E8" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F8" s="17">
-        <v>0.05</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B9" s="17">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C9" s="25">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="17">
         <v>0.04</v>
       </c>
       <c r="F9" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>45</v>
+      <c r="A10" s="20">
+        <v>44866</v>
       </c>
       <c r="B10" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="C10" s="25">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="D10" s="17">
         <v>0.1</v>
       </c>
       <c r="E10" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F10" s="17">
         <v>0.05</v>
@@ -2127,59 +2138,59 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="17">
         <v>0.26</v>
       </c>
       <c r="C11" s="25">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="D11" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E11" s="17">
         <v>0.04</v>
       </c>
       <c r="F11" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>46</v>
+      <c r="A12" s="20">
+        <v>44864</v>
       </c>
       <c r="B12" s="17">
         <v>0.27</v>
       </c>
       <c r="C12" s="25">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="17">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E12" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F12" s="17">
         <v>0.05</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
-        <v>44860</v>
+        <v>44864</v>
       </c>
       <c r="B13" s="17">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="C13" s="25">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="17">
         <v>0.09</v>
       </c>
       <c r="E13" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F13" s="17">
         <v>0.05</v>
@@ -2187,216 +2198,216 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.53</v>
       </c>
       <c r="D14" s="17">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E14" s="17">
         <v>0.04</v>
       </c>
       <c r="F14" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.51</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.44</v>
       </c>
       <c r="D15" s="17">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E15" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F15" s="17">
         <v>0.05</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" s="17">
         <v>0.26</v>
       </c>
-      <c r="C16" s="18">
-        <v>0.49</v>
+      <c r="C16" s="25">
+        <v>0.5</v>
       </c>
       <c r="D16" s="17">
         <v>0.1</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>41</v>
+      <c r="E16" s="17">
+        <v>0.04</v>
       </c>
       <c r="F16" s="17">
         <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
-        <v>44857</v>
+      <c r="A17" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B17" s="17">
-        <v>0.21</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0.54</v>
+        <v>0.27</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.51</v>
       </c>
       <c r="D17" s="17">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E17" s="17">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F17" s="17">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>39</v>
+      <c r="A18" s="20">
+        <v>44860</v>
       </c>
       <c r="B18" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C18" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="25">
         <v>0.51</v>
       </c>
       <c r="D18" s="17">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E18" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F18" s="17">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="17">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C19" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D19" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E19" s="17">
         <v>0.04</v>
       </c>
       <c r="F19" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B20" s="17">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="C20" s="18">
         <v>0.51</v>
       </c>
       <c r="D20" s="17">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E20" s="17">
         <v>0.05</v>
       </c>
       <c r="F20" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B21" s="17">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="C21" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.49</v>
       </c>
       <c r="D21" s="17">
         <v>0.1</v>
       </c>
-      <c r="E21" s="17">
-        <v>0.04</v>
+      <c r="E21" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="F21" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>29</v>
+      <c r="A22" s="20">
+        <v>44857</v>
       </c>
       <c r="B22" s="17">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="C22" s="18">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="D22" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E22" s="17">
         <v>0.03</v>
       </c>
       <c r="F22" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
-        <v>44854</v>
+      <c r="A23" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="B23" s="17">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C23" s="18">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="D23" s="17">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E23" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F23" s="17">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
-        <v>44854</v>
+      <c r="A24" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="B24" s="17">
         <v>0.22</v>
       </c>
       <c r="C24" s="18">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D24" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E24" s="17">
         <v>0.04</v>
@@ -2407,36 +2418,36 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="17">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="C25" s="18">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="D25" s="17">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E25" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F25" s="17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
-        <v>44853</v>
+      <c r="A26" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="B26" s="17">
         <v>0.19</v>
       </c>
       <c r="C26" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D26" s="17">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E26" s="17">
         <v>0.04</v>
@@ -2447,73 +2458,73 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="17">
         <v>0.23</v>
       </c>
       <c r="C27" s="18">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="D27" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>44854</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D28" s="17">
         <v>0.11</v>
       </c>
-      <c r="E27" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C28" s="18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="E28" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
+        <v>44854</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D29" s="17">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F28" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
-        <v>44850</v>
-      </c>
-      <c r="B29" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C29" s="18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0.11</v>
       </c>
       <c r="E29" s="17">
         <v>0.04</v>
       </c>
       <c r="F29" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B30" s="17">
         <v>0.22</v>
       </c>
       <c r="C30" s="18">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="D30" s="17">
         <v>0.11</v>
@@ -2522,41 +2533,41 @@
         <v>0.04</v>
       </c>
       <c r="F30" s="17">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
+      <c r="A31" s="20">
+        <v>44853</v>
       </c>
       <c r="B31" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.19</v>
       </c>
       <c r="C31" s="18">
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D31" s="17">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E31" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F31" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="20">
-        <v>44847</v>
+      <c r="A32" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="B32" s="17">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C32" s="18">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="D32" s="17">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E32" s="17">
         <v>0.04</v>
@@ -2567,139 +2578,139 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B33" s="17">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="C33" s="18">
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D33" s="17">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E33" s="17">
         <v>0.04</v>
       </c>
       <c r="F33" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
-        <v>44846</v>
+        <v>44850</v>
       </c>
       <c r="B34" s="17">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="C34" s="18">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D34" s="17">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E34" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F34" s="17">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" s="17">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="C35" s="18">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="D35" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E35" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F35" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B36" s="17">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C36" s="18">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="D36" s="17">
         <v>0.1</v>
       </c>
       <c r="E36" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F36" s="17">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
-        <v>44843</v>
+        <v>44847</v>
       </c>
       <c r="B37" s="17">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C37" s="18">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="D37" s="17">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E37" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F37" s="17">
         <v>0.03</v>
-      </c>
-      <c r="F37" s="17">
-        <v>0.04</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B38" s="17">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="C38" s="18">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="D38" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E38" s="17">
         <v>0.04</v>
       </c>
       <c r="F38" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>23</v>
+      <c r="A39" s="20">
+        <v>44846</v>
       </c>
       <c r="B39" s="17">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="C39" s="18">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="D39" s="17">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E39" s="17">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F39" s="17">
         <v>0.06</v>
@@ -2707,10 +2718,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B40" s="17">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="C40" s="18">
         <v>0.51</v>
@@ -2719,109 +2730,209 @@
         <v>0.09</v>
       </c>
       <c r="E40" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F40" s="17">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" s="17">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="C41" s="18">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="D41" s="17">
         <v>0.1</v>
       </c>
       <c r="E41" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F41" s="17">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>24</v>
+      <c r="A42" s="20">
+        <v>44843</v>
       </c>
       <c r="B42" s="17">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C42" s="18">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="D42" s="17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E42" s="17">
         <v>0.03</v>
       </c>
       <c r="F42" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="20">
-        <v>44840</v>
+      <c r="A43" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B43" s="17">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C43" s="18">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D43" s="17">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E43" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F43" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" s="17">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="C44" s="18">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="D44" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E44" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F44" s="17">
         <v>0.06</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="20">
-        <v>44839</v>
+      <c r="A45" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B45" s="17">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="C45" s="18">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D45" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E45" s="17">
         <v>0.04</v>
       </c>
       <c r="F45" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C46" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D46" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F46" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C47" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D47" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F47" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
+        <v>44840</v>
+      </c>
+      <c r="B48" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C48" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D48" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E48" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F48" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C49" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F49" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B50" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C50" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D50" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F50" s="17">
         <v>0.05</v>
       </c>
     </row>
@@ -2834,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381CFD7-A18A-AD47-BDA2-5D9B5FE8AC32}">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2859,16 +2970,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="B2" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3027,16 +3138,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3195,16 +3306,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="B26" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>50.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3363,16 +3474,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="B38" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3531,7 +3642,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476B166C-A681-614A-83EC-EDB95A265328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1457B-544D-A041-916B-273DA66D9725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="500" windowWidth="32000" windowHeight="15800" activeTab="3" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="15800" activeTab="3" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -199,6 +199,9 @@
   <si>
     <t>4–7 Nov</t>
   </si>
+  <si>
+    <t>10–14 Nov</t>
+  </si>
 </sst>
 </file>
 
@@ -352,7 +355,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,6 +430,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1919,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F2:F9"/>
+      <selection activeCell="D12" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1951,145 +1955,144 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
-        <v>44876</v>
+      <c r="A2" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="28">
+        <v>44878</v>
+      </c>
+      <c r="B3" s="17">
         <v>0.26</v>
       </c>
-      <c r="C2" s="25">
-        <v>0.49</v>
-      </c>
-      <c r="D2" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="17">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="C3" s="25">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="17">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E3" s="17">
         <v>0.03</v>
       </c>
       <c r="F3" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="G3" s="17"/>
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
-        <v>44874</v>
+        <v>44876</v>
       </c>
       <c r="B4" s="17">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="C4" s="25">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="D4" s="17">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E4" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="17">
         <v>0.05</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0.09</v>
       </c>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="17">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C5" s="25">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="D5" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F5" s="17">
         <v>0.04</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.05</v>
       </c>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
-        <v>44871</v>
+        <v>44874</v>
       </c>
       <c r="B6" s="17">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="C6" s="25">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="D6" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F6" s="17">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B7" s="17">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C7" s="25">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="D7" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="17">
         <v>0.04</v>
       </c>
       <c r="F7" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>44871</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="17">
         <v>0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.47</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.03</v>
       </c>
       <c r="F8" s="17">
         <v>0.03</v>
@@ -2098,53 +2101,54 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="17">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="C9" s="25">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="D9" s="17">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E9" s="17">
         <v>0.04</v>
       </c>
       <c r="F9" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
-        <v>44866</v>
+      <c r="A10" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="17">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="C10" s="25">
         <v>0.47</v>
       </c>
       <c r="D10" s="17">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E10" s="17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F10" s="17">
-        <v>0.05</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="17">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="C11" s="25">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="17">
         <v>0.09</v>
@@ -2153,38 +2157,38 @@
         <v>0.04</v>
       </c>
       <c r="F11" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="B12" s="17">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="C12" s="25">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="D12" s="17">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F12" s="17">
         <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
-        <v>44864</v>
+      <c r="A13" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="B13" s="17">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="C13" s="25">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="D13" s="17">
         <v>0.09</v>
@@ -2193,41 +2197,41 @@
         <v>0.04</v>
       </c>
       <c r="F13" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>44</v>
+      <c r="A14" s="20">
+        <v>44864</v>
       </c>
       <c r="B14" s="17">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="C14" s="25">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E14" s="17">
         <v>0.04</v>
       </c>
       <c r="F14" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>45</v>
+      <c r="A15" s="20">
+        <v>44864</v>
       </c>
       <c r="B15" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="C15" s="25">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E15" s="17">
         <v>0.04</v>
@@ -2238,59 +2242,59 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="17">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C16" s="25">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="D16" s="17">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E16" s="17">
         <v>0.04</v>
       </c>
       <c r="F16" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="17">
-        <v>0.27</v>
-      </c>
-      <c r="C17" s="25">
-        <v>0.51</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
-        <v>44860</v>
-      </c>
       <c r="B18" s="17">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="C18" s="25">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D18" s="17">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E18" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F18" s="17">
         <v>0.05</v>
@@ -2298,32 +2302,32 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B19" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C19" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.27</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.51</v>
       </c>
       <c r="D19" s="17">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E19" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F19" s="17">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>42</v>
+      <c r="A20" s="20">
+        <v>44860</v>
       </c>
       <c r="B20" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C20" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="25">
         <v>0.51</v>
       </c>
       <c r="D20" s="17">
@@ -2333,44 +2337,44 @@
         <v>0.05</v>
       </c>
       <c r="F20" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="17">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="C21" s="18">
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D21" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>41</v>
+        <v>0.09</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.04</v>
       </c>
       <c r="F21" s="17">
         <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
-        <v>44857</v>
+      <c r="A22" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="B22" s="17">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="C22" s="18">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="D22" s="17">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E22" s="17">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F22" s="17">
         <v>0.04</v>
@@ -2378,39 +2382,39 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B23" s="17">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C23" s="18">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="D23" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0.04</v>
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="F23" s="17">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>40</v>
+      <c r="A24" s="20">
+        <v>44857</v>
       </c>
       <c r="B24" s="17">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="C24" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="D24" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E24" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F24" s="17">
         <v>0.04</v>
@@ -2418,10 +2422,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B25" s="17">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C25" s="18">
         <v>0.51</v>
@@ -2430,18 +2434,18 @@
         <v>0.08</v>
       </c>
       <c r="E25" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F25" s="17">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B26" s="17">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="C26" s="18">
         <v>0.56000000000000005</v>
@@ -2461,67 +2465,67 @@
         <v>29</v>
       </c>
       <c r="B27" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="17">
         <v>0.23</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C29" s="18">
         <v>0.5</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D29" s="17">
         <v>0.09</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E29" s="17">
         <v>0.03</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F29" s="17">
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
         <v>44854</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B30" s="17">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="C28" s="18">
-        <v>0.53</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F28" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
-        <v>44854</v>
-      </c>
-      <c r="B29" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C29" s="18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D29" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="17">
-        <v>0.22</v>
       </c>
       <c r="C30" s="18">
         <v>0.53</v>
@@ -2530,24 +2534,24 @@
         <v>0.11</v>
       </c>
       <c r="E30" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F30" s="17">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="20">
-        <v>44853</v>
+      <c r="A31" s="27">
+        <v>44854</v>
       </c>
       <c r="B31" s="17">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="C31" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D31" s="17">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E31" s="17">
         <v>0.04</v>
@@ -2558,13 +2562,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="17">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="C32" s="18">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="D32" s="17">
         <v>0.11</v>
@@ -2573,21 +2577,21 @@
         <v>0.04</v>
       </c>
       <c r="F32" s="17">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>16</v>
+      <c r="A33" s="20">
+        <v>44853</v>
       </c>
       <c r="B33" s="17">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="C33" s="18">
         <v>0.55000000000000004</v>
       </c>
       <c r="D33" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E33" s="17">
         <v>0.04</v>
@@ -2597,14 +2601,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="20">
-        <v>44850</v>
+      <c r="A34" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="B34" s="17">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C34" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.52</v>
       </c>
       <c r="D34" s="17">
         <v>0.11</v>
@@ -2613,178 +2617,178 @@
         <v>0.04</v>
       </c>
       <c r="F34" s="17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="17">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C35" s="18">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D35" s="17">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E35" s="17">
         <v>0.04</v>
       </c>
       <c r="F35" s="17">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
-        <v>18</v>
+      <c r="A36" s="20">
+        <v>44850</v>
       </c>
       <c r="B36" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="C36" s="18">
-        <v>0.49</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D36" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E36" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F36" s="17">
         <v>0.05</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="20">
-        <v>44847</v>
+      <c r="A37" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="B37" s="17">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="C37" s="18">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="D37" s="17">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E37" s="17">
         <v>0.04</v>
       </c>
       <c r="F37" s="17">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="17">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C38" s="18">
         <v>0.49</v>
       </c>
       <c r="D38" s="17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E38" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F38" s="17">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="20">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B39" s="17">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="C39" s="18">
         <v>0.53</v>
       </c>
       <c r="D39" s="17">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E39" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F39" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F40" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="20">
+        <v>44846</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B42" s="17">
         <v>0.23</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C42" s="18">
         <v>0.51</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D42" s="17">
         <v>0.09</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E42" s="17">
         <v>0.05</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F42" s="17">
         <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C41" s="18">
-        <v>0.47</v>
-      </c>
-      <c r="D41" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E41" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F41" s="17">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
-        <v>44843</v>
-      </c>
-      <c r="B42" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C42" s="18">
-        <v>0.54</v>
-      </c>
-      <c r="D42" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E42" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F42" s="17">
-        <v>0.04</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="17">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="C43" s="18">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="D43" s="17">
         <v>0.1</v>
@@ -2793,41 +2797,41 @@
         <v>0.04</v>
       </c>
       <c r="F43" s="17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="20">
+        <v>44843</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0.54</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F44" s="17">
         <v>0.04</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C44" s="18">
-        <v>0.52</v>
-      </c>
-      <c r="D44" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E44" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F44" s="17">
-        <v>0.06</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" s="17">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="C45" s="18">
         <v>0.51</v>
       </c>
       <c r="D45" s="17">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E45" s="17">
         <v>0.04</v>
@@ -2841,76 +2845,76 @@
         <v>23</v>
       </c>
       <c r="B46" s="17">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="C46" s="18">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="D46" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E46" s="17">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F46" s="17">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="17">
         <v>0.26</v>
       </c>
       <c r="C47" s="18">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="D47" s="17">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E47" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F47" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C48" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D48" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="17">
         <v>0.03</v>
       </c>
-      <c r="F47" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="20">
-        <v>44840</v>
-      </c>
-      <c r="B48" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C48" s="18">
-        <v>0.52</v>
-      </c>
-      <c r="D48" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="E48" s="17">
+      <c r="F48" s="17">
         <v>0.05</v>
-      </c>
-      <c r="F48" s="17">
-        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="17">
         <v>0.26</v>
       </c>
       <c r="C49" s="18">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="D49" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E49" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F49" s="17">
         <v>0.06</v>
@@ -2918,21 +2922,61 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B50" s="17">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="C50" s="18">
         <v>0.52</v>
       </c>
       <c r="D50" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E50" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F50" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C51" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D51" s="17">
         <v>0.1</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>0.04</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B52" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C52" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D52" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F52" s="17">
         <v>0.05</v>
       </c>
     </row>
@@ -2945,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381CFD7-A18A-AD47-BDA2-5D9B5FE8AC32}">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2970,16 +3014,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44876</v>
+        <v>44879</v>
       </c>
       <c r="B2" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>25.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3138,7 +3182,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>44876</v>
+        <v>44879</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
@@ -3306,7 +3350,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>44876</v>
+        <v>44879</v>
       </c>
       <c r="B26" s="1">
         <v>48</v>
@@ -3474,7 +3518,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>44876</v>
+        <v>44879</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
@@ -3642,7 +3686,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>44876</v>
+        <v>44879</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1457B-544D-A041-916B-273DA66D9725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E5CC55-770D-444B-A47B-9788C907BB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="15800" activeTab="3" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>10–14 Nov</t>
+  </si>
+  <si>
+    <t>17–19 Nov</t>
+  </si>
+  <si>
+    <t>17–18 Nov</t>
+  </si>
+  <si>
+    <t>16–17 Nov</t>
+  </si>
+  <si>
+    <t>9–16 Nov</t>
   </si>
 </sst>
 </file>
@@ -750,7 +762,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,10 +797,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44876</v>
+        <v>44883</v>
       </c>
       <c r="B2" s="26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="26">
         <v>48</v>
@@ -803,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1923,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D2:D12"/>
+      <selection activeCell="F19" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1955,260 +1967,257 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>53</v>
+      <c r="A2" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="B2" s="17">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="C2" s="25">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="D2" s="17">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E2" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>44883</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="17">
         <v>0.05</v>
       </c>
-      <c r="F2" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
-        <v>44878</v>
-      </c>
-      <c r="B3" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="F3" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="D4" s="17">
         <v>0.09</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
-        <v>44876</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.49</v>
-      </c>
-      <c r="D4" s="17">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E4" s="17">
         <v>0.03</v>
       </c>
       <c r="F4" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>44882</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="17">
         <v>0.05</v>
       </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0.49</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.03</v>
-      </c>
       <c r="F5" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="G5" s="17"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
-        <v>44874</v>
+        <v>44882</v>
       </c>
       <c r="B6" s="17">
-        <v>0.21</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C6" s="25">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="17">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F6" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="G6" s="17"/>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="17">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C7" s="25">
-        <v>0.47</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="C8" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E8" s="17">
         <v>0.05</v>
-      </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
-        <v>44871</v>
-      </c>
-      <c r="B8" s="17">
-        <v>0.27</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.48</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.04</v>
       </c>
       <c r="F8" s="17">
         <v>0.03</v>
       </c>
-      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>49</v>
+      <c r="A9" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="17">
         <v>0.27</v>
       </c>
       <c r="C9" s="25">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F9" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>50</v>
+      <c r="A10" s="28">
+        <v>44878</v>
       </c>
       <c r="B10" s="17">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="C10" s="25">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="17">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="17">
         <v>0.03</v>
       </c>
       <c r="F10" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>44876</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="D11" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E11" s="17">
         <v>0.03</v>
-      </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0.04</v>
       </c>
       <c r="F11" s="17">
         <v>0.05</v>
       </c>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
-        <v>44866</v>
+      <c r="A12" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>44874</v>
+      </c>
+      <c r="B13" s="17">
         <v>0.21</v>
       </c>
-      <c r="C12" s="25">
-        <v>0.47</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="17">
-        <v>0.26</v>
-      </c>
       <c r="C13" s="25">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="D13" s="17">
         <v>0.09</v>
       </c>
       <c r="E13" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F13" s="17">
-        <v>0.04</v>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
-        <v>44864</v>
+      <c r="A14" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="B14" s="17">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C14" s="25">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="D14" s="17">
         <v>0.09</v>
@@ -2219,36 +2228,38 @@
       <c r="F14" s="17">
         <v>0.05</v>
       </c>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
-        <v>44864</v>
+        <v>44871</v>
       </c>
       <c r="B15" s="17">
         <v>0.27</v>
       </c>
       <c r="C15" s="25">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="D15" s="17">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E15" s="17">
         <v>0.04</v>
       </c>
       <c r="F15" s="17">
-        <v>0.05</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B16" s="17">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="C16" s="25">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="D16" s="17">
         <v>7.0000000000000007E-2</v>
@@ -2260,38 +2271,39 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>45</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="C17" s="25">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="D17" s="17">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E17" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F17" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" s="17">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="C18" s="25">
         <v>0.5</v>
       </c>
       <c r="D18" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E18" s="17">
         <v>0.04</v>
@@ -2300,32 +2312,32 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>46</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>44866</v>
       </c>
       <c r="B19" s="17">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="C19" s="25">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="D19" s="17">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E19" s="17">
         <v>0.05</v>
       </c>
       <c r="F19" s="17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
-        <v>44860</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="B20" s="17">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="C20" s="25">
         <v>0.51</v>
@@ -2334,21 +2346,21 @@
         <v>0.09</v>
       </c>
       <c r="E20" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F20" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>42</v>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>44864</v>
       </c>
       <c r="B21" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C21" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.27</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0.5</v>
       </c>
       <c r="D21" s="17">
         <v>0.09</v>
@@ -2360,238 +2372,238 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>42</v>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>44864</v>
       </c>
       <c r="B22" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C22" s="18">
-        <v>0.51</v>
+        <v>0.27</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.5</v>
       </c>
       <c r="D22" s="17">
         <v>0.09</v>
       </c>
       <c r="E22" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F22" s="17">
         <v>0.05</v>
       </c>
-      <c r="F22" s="17">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.53</v>
+      </c>
+      <c r="D23" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E23" s="17">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="17">
+      <c r="F23" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="17">
         <v>0.26</v>
       </c>
-      <c r="C23" s="18">
-        <v>0.49</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="C25" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="17">
         <v>0.1</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
-        <v>44857</v>
-      </c>
-      <c r="B24" s="17">
-        <v>0.21</v>
-      </c>
-      <c r="C24" s="18">
-        <v>0.54</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C25" s="18">
-        <v>0.51</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0.08</v>
       </c>
       <c r="E25" s="17">
         <v>0.04</v>
       </c>
       <c r="F25" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F26" s="17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C26" s="18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F26" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>29</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
+        <v>44860</v>
       </c>
       <c r="B27" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C27" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="25">
         <v>0.51</v>
       </c>
       <c r="D27" s="17">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E27" s="17">
         <v>0.05</v>
       </c>
       <c r="F27" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B28" s="17">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="C28" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D28" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E28" s="17">
         <v>0.04</v>
       </c>
       <c r="F28" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B29" s="17">
         <v>0.23</v>
       </c>
       <c r="C29" s="18">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="D29" s="17">
         <v>0.09</v>
       </c>
       <c r="E29" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>44857</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0.54</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E31" s="17">
         <v>0.03</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
-        <v>44854</v>
-      </c>
-      <c r="B30" s="17">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C30" s="18">
-        <v>0.53</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="27">
-        <v>44854</v>
-      </c>
-      <c r="B31" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C31" s="18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D31" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0.04</v>
       </c>
       <c r="F31" s="17">
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B32" s="17">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="C32" s="18">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="D32" s="17">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E32" s="17">
         <v>0.04</v>
       </c>
       <c r="F32" s="17">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="20">
-        <v>44853</v>
+      <c r="A33" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="B33" s="17">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="C33" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D33" s="17">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E33" s="17">
         <v>0.04</v>
@@ -2602,19 +2614,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34" s="17">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="C34" s="18">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D34" s="17">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E34" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F34" s="17">
         <v>0.03</v>
@@ -2622,16 +2634,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B35" s="17">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="C35" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D35" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E35" s="17">
         <v>0.04</v>
@@ -2641,334 +2653,334 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="20">
-        <v>44850</v>
+      <c r="A36" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="B36" s="17">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C36" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="D36" s="17">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E36" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F36" s="17">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
-        <v>17</v>
+      <c r="A37" s="20">
+        <v>44854</v>
       </c>
       <c r="B37" s="17">
-        <v>0.22</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C37" s="18">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="D37" s="17">
         <v>0.11</v>
       </c>
       <c r="E37" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="27">
+        <v>44854</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C38" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D38" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E38" s="17">
         <v>0.04</v>
       </c>
-      <c r="F37" s="17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="17">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C38" s="18">
-        <v>0.49</v>
-      </c>
-      <c r="D38" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E38" s="17">
-        <v>0.03</v>
-      </c>
       <c r="F38" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
-        <v>44847</v>
+      <c r="A39" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="B39" s="17">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="C39" s="18">
         <v>0.53</v>
       </c>
       <c r="D39" s="17">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E39" s="17">
         <v>0.04</v>
       </c>
       <c r="F39" s="17">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>19</v>
+      <c r="A40" s="20">
+        <v>44853</v>
       </c>
       <c r="B40" s="17">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="C40" s="18">
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D40" s="17">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E40" s="17">
         <v>0.04</v>
       </c>
       <c r="F40" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="20">
-        <v>44846</v>
+      <c r="A41" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="B41" s="17">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="C41" s="18">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="D41" s="17">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E41" s="17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F41" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B42" s="17">
         <v>0.23</v>
       </c>
       <c r="C42" s="18">
-        <v>0.51</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D42" s="17">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E42" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F42" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
-        <v>21</v>
+      <c r="A43" s="20">
+        <v>44850</v>
       </c>
       <c r="B43" s="17">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="C43" s="18">
-        <v>0.47</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D43" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E43" s="17">
         <v>0.04</v>
       </c>
       <c r="F43" s="17">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="20">
-        <v>44843</v>
+      <c r="A44" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="B44" s="17">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="C44" s="18">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="D44" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E44" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F44" s="17">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B45" s="17">
-        <v>0.23</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C45" s="18">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="D45" s="17">
         <v>0.1</v>
       </c>
       <c r="E45" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F45" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="20">
+        <v>44847</v>
+      </c>
+      <c r="B46" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C46" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D46" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="E46" s="17">
         <v>0.04</v>
       </c>
-      <c r="F45" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C46" s="18">
-        <v>0.52</v>
-      </c>
-      <c r="D46" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E46" s="17">
-        <v>0.05</v>
-      </c>
       <c r="F46" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B47" s="17">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C47" s="18">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="D47" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E47" s="17">
         <v>0.04</v>
       </c>
       <c r="F47" s="17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>23</v>
+      <c r="A48" s="20">
+        <v>44846</v>
       </c>
       <c r="B48" s="17">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="C48" s="18">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="D48" s="17">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E48" s="17">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F48" s="17">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B49" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C49" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E49" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F49" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="17">
         <v>0.26</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C50" s="18">
         <v>0.47</v>
       </c>
-      <c r="D49" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E49" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F49" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="20">
-        <v>44840</v>
-      </c>
-      <c r="B50" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C50" s="18">
-        <v>0.52</v>
-      </c>
       <c r="D50" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F50" s="17">
         <v>0.08</v>
       </c>
-      <c r="E50" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F50" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
-        <v>25</v>
+      <c r="A51" s="20">
+        <v>44843</v>
       </c>
       <c r="B51" s="17">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C51" s="18">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="D51" s="17">
         <v>0.1</v>
       </c>
       <c r="E51" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F51" s="17">
         <v>0.04</v>
       </c>
-      <c r="F51" s="17">
-        <v>0.06</v>
-      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="20">
-        <v>44839</v>
+      <c r="A52" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B52" s="17">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C52" s="18">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D52" s="17">
         <v>0.1</v>
@@ -2977,6 +2989,146 @@
         <v>0.04</v>
       </c>
       <c r="F52" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C53" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D53" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E53" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F53" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C54" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D54" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E54" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F54" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C55" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D55" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E55" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F55" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C56" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E56" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F56" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="20">
+        <v>44840</v>
+      </c>
+      <c r="B57" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C57" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E57" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F57" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C58" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E58" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F58" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B59" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C59" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D59" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E59" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F59" s="17">
         <v>0.05</v>
       </c>
     </row>
@@ -2989,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381CFD7-A18A-AD47-BDA2-5D9B5FE8AC32}">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3014,7 +3166,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44879</v>
+        <v>44884</v>
       </c>
       <c r="B2" s="1">
         <v>26</v>
@@ -3182,7 +3334,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>44879</v>
+        <v>44884</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
@@ -3350,7 +3502,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>44879</v>
+        <v>44884</v>
       </c>
       <c r="B26" s="1">
         <v>48</v>
@@ -3518,7 +3670,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>44879</v>
+        <v>44884</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
@@ -3686,7 +3838,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>44879</v>
+        <v>44884</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E5CC55-770D-444B-A47B-9788C907BB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDA204A-08C0-5B4F-B594-1855082C6FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="15800" activeTab="3" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="3080" yWindow="500" windowWidth="32000" windowHeight="15800" activeTab="3" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -213,6 +213,39 @@
   </si>
   <si>
     <t>9–16 Nov</t>
+  </si>
+  <si>
+    <t>22–23 Nov</t>
+  </si>
+  <si>
+    <t>17–21 Nov</t>
+  </si>
+  <si>
+    <t>23–24 Nov</t>
+  </si>
+  <si>
+    <t>29 Nov – 1 Dec</t>
+  </si>
+  <si>
+    <t>29–30 Nov</t>
+  </si>
+  <si>
+    <t>24–28 Nov</t>
+  </si>
+  <si>
+    <t>8–9 Dec</t>
+  </si>
+  <si>
+    <t>6–7 Dec</t>
+  </si>
+  <si>
+    <t>1–5 Dec</t>
+  </si>
+  <si>
+    <t>1–2 Dec</t>
+  </si>
+  <si>
+    <t>30 Nov – 2 Dec</t>
   </si>
 </sst>
 </file>
@@ -442,7 +475,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A931D-EDBC-E948-9A77-FFFFFCA63EAC}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,128 +830,128 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44883</v>
-      </c>
-      <c r="B2" s="26">
+        <v>44906</v>
+      </c>
+      <c r="B2" s="8">
         <v>26</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="8">
+        <v>47</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>44895</v>
+      </c>
+      <c r="B3" s="26">
+        <v>26</v>
+      </c>
+      <c r="C3" s="26">
         <v>48</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D3" s="26">
         <v>9</v>
       </c>
-      <c r="E2" s="26">
-        <v>4</v>
-      </c>
-      <c r="F2" s="26">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="E3" s="26">
+        <v>4</v>
+      </c>
+      <c r="F3" s="26">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B4" s="6">
         <v>31.5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C4" s="6">
         <v>41.1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D4" s="6">
         <v>11.1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="6">
         <v>5.8</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F4" s="6">
         <v>4.3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <v>9.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B4" s="8">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8">
-        <v>52</v>
-      </c>
-      <c r="D4" s="8">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44834</v>
-      </c>
-      <c r="B5" s="1">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B5" s="8">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8">
+        <v>52</v>
+      </c>
+      <c r="D5" s="8">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7">
-        <v>15</v>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B6" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44770</v>
+        <v>44804</v>
       </c>
       <c r="B7" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>12</v>
@@ -930,21 +963,21 @@
         <v>4</v>
       </c>
       <c r="G7" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44742</v>
+        <v>44770</v>
       </c>
       <c r="B8" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -953,12 +986,12 @@
         <v>4</v>
       </c>
       <c r="G8" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44710</v>
+        <v>44742</v>
       </c>
       <c r="B9" s="1">
         <v>33</v>
@@ -967,7 +1000,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -981,16 +1014,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44679</v>
+        <v>44710</v>
       </c>
       <c r="B10" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
@@ -999,18 +1032,18 @@
         <v>4</v>
       </c>
       <c r="G10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="B11" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -1019,116 +1052,116 @@
         <v>6</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44620</v>
+        <v>44650</v>
       </c>
       <c r="B12" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B13" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
       </c>
       <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7">
         <v>6</v>
       </c>
-      <c r="F13" s="1">
-        <v>5</v>
-      </c>
-      <c r="G13" s="7">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>44592</v>
+      </c>
+      <c r="B14" s="1">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="6">
         <v>40.299999999999997</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>35.200000000000003</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>5.9</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G15" s="14">
         <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B15" s="10">
-        <v>33</v>
-      </c>
-      <c r="C15" s="10">
-        <v>38</v>
-      </c>
-      <c r="D15" s="10">
-        <v>10</v>
-      </c>
-      <c r="E15" s="10">
-        <v>7</v>
-      </c>
-      <c r="F15" s="10">
-        <v>4</v>
-      </c>
-      <c r="G15" s="11">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>44529</v>
+        <v>44560</v>
       </c>
       <c r="B16" s="10">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10">
         <v>7</v>
@@ -1137,41 +1170,41 @@
         <v>4</v>
       </c>
       <c r="G16" s="11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>44500</v>
-      </c>
-      <c r="B17" s="1">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B17" s="10">
+        <v>37</v>
+      </c>
+      <c r="C17" s="10">
+        <v>36</v>
+      </c>
+      <c r="D17" s="10">
         <v>9</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="10">
         <v>7</v>
       </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-4</v>
+      <c r="F17" s="10">
+        <v>4</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>44468</v>
+        <v>44500</v>
       </c>
       <c r="B18" s="1">
         <v>39</v>
       </c>
       <c r="C18" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1">
         <v>9</v>
@@ -1183,44 +1216,44 @@
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>44437</v>
+        <v>44468</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>34</v>
       </c>
       <c r="D19" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1">
         <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>44407</v>
+        <v>44437</v>
       </c>
       <c r="B20" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1">
         <v>6</v>
@@ -1229,41 +1262,35 @@
         <v>5</v>
       </c>
       <c r="G20" s="1">
-        <v>-9</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>44377</v>
+        <v>44407</v>
       </c>
       <c r="B21" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
         <v>33</v>
       </c>
       <c r="D21" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1">
-        <v>-10</v>
-      </c>
-      <c r="J21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" t="s">
-        <v>13</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B22" s="1">
         <v>43</v>
@@ -1272,36 +1299,33 @@
         <v>33</v>
       </c>
       <c r="D22" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="1">
         <v>-10</v>
       </c>
-      <c r="I22" s="1">
-        <v>2019</v>
-      </c>
-      <c r="J22" s="1">
-        <v>44.7</v>
-      </c>
-      <c r="K22" s="1">
-        <v>32.9</v>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B23" s="1">
         <v>43</v>
       </c>
       <c r="C23" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1">
         <v>7</v>
@@ -1313,21 +1337,21 @@
         <v>5</v>
       </c>
       <c r="G23" s="1">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I23" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J23" s="1">
-        <v>44</v>
+        <v>44.7</v>
       </c>
       <c r="K23" s="1">
-        <v>35</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>44284</v>
+        <v>44316</v>
       </c>
       <c r="B24" s="1">
         <v>43</v>
@@ -1348,125 +1372,134 @@
         <v>-8</v>
       </c>
       <c r="I24" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J24" s="1">
-        <v>40.299999999999997</v>
+        <v>44</v>
       </c>
       <c r="K24" s="1">
-        <v>35.200000000000003</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>44255</v>
+        <v>44284</v>
       </c>
       <c r="B25" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1">
         <v>7</v>
       </c>
       <c r="E25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
       </c>
       <c r="G25" s="1">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="I25" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J25" s="1">
-        <v>31.6</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="K25" s="1">
-        <v>41.1</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>44226</v>
+        <v>44255</v>
       </c>
       <c r="B26" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1">
         <v>7</v>
       </c>
       <c r="E26" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
       </c>
       <c r="G26" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2022</v>
+      </c>
+      <c r="J26" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="K26" s="1">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>44226</v>
+      </c>
+      <c r="B27" s="1">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B28" s="5">
         <v>44</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C28" s="5">
         <v>35</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D28" s="5">
         <v>7.5</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F28" s="5">
         <v>4.7</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="14">
         <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>44195</v>
-      </c>
-      <c r="B28" s="1">
-        <v>39</v>
-      </c>
-      <c r="C28" s="1">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>44164</v>
+        <v>44195</v>
       </c>
       <c r="B29" s="1">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1">
         <v>38</v>
-      </c>
-      <c r="C29" s="1">
-        <v>39</v>
       </c>
       <c r="D29" s="1">
         <v>7</v>
@@ -1478,15 +1511,15 @@
         <v>5</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>44134</v>
+        <v>44164</v>
       </c>
       <c r="B30" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1">
         <v>39</v>
@@ -1501,18 +1534,18 @@
         <v>5</v>
       </c>
       <c r="G30" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B31" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1">
         <v>7</v>
@@ -1524,38 +1557,38 @@
         <v>5</v>
       </c>
       <c r="G31" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>44071</v>
+        <v>44104</v>
       </c>
       <c r="B32" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1">
         <v>7</v>
       </c>
       <c r="E32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1">
         <v>5</v>
       </c>
       <c r="G32" s="1">
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>44043</v>
+        <v>44071</v>
       </c>
       <c r="B33" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1">
         <v>37</v>
@@ -1570,18 +1603,18 @@
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>44010</v>
+        <v>44043</v>
       </c>
       <c r="B34" s="1">
         <v>43</v>
       </c>
       <c r="C34" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="1">
         <v>7</v>
@@ -1593,18 +1626,18 @@
         <v>5</v>
       </c>
       <c r="G34" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>43981</v>
+        <v>44010</v>
       </c>
       <c r="B35" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1">
         <v>7</v>
@@ -1616,18 +1649,18 @@
         <v>5</v>
       </c>
       <c r="G35" s="1">
-        <v>-12</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>43947</v>
+        <v>43981</v>
       </c>
       <c r="B36" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1">
         <v>7</v>
@@ -1636,24 +1669,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1">
-        <v>-20</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>43917</v>
+        <v>43947</v>
       </c>
       <c r="B37" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1">
         <v>4</v>
@@ -1662,79 +1695,102 @@
         <v>4</v>
       </c>
       <c r="G37" s="1">
-        <v>-21</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>43881</v>
+        <v>43917</v>
       </c>
       <c r="B38" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1">
         <v>4</v>
       </c>
       <c r="G38" s="1">
-        <v>-17</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>43861</v>
+        <v>43881</v>
       </c>
       <c r="B39" s="1">
         <v>47</v>
       </c>
       <c r="C39" s="1">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B40" s="1">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1">
         <v>29</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>10</v>
       </c>
-      <c r="E39" s="1">
-        <v>4</v>
-      </c>
-      <c r="F39" s="1">
-        <v>4</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
         <v>-18</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B41" s="15">
         <v>44.7</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C41" s="15">
         <v>32.9</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D41" s="15">
         <v>11.8</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="15">
         <v>2.8</v>
       </c>
-      <c r="F40" s="15">
-        <v>4</v>
-      </c>
-      <c r="G40" s="16">
+      <c r="F41" s="15">
+        <v>4</v>
+      </c>
+      <c r="G41" s="16">
         <v>11.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1935,18 +1991,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F2:F19"/>
+      <selection activeCell="E8" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="18.5" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1966,15 +2022,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>54</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>44906</v>
       </c>
       <c r="B2" s="17">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C2" s="25">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="D2" s="17">
         <v>0.09</v>
@@ -1983,55 +2039,55 @@
         <v>0.03</v>
       </c>
       <c r="F2" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
-        <v>44883</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="B3" s="17">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="C3" s="25">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="D3" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E3" s="17">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F3" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B4" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="C4" s="25">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="D4" s="17">
         <v>0.09</v>
       </c>
       <c r="E4" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F4" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
-        <v>44882</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="B5" s="17">
-        <v>0.21</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C5" s="25">
         <v>0.48</v>
@@ -2040,267 +2096,261 @@
         <v>0.1</v>
       </c>
       <c r="E5" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F5" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
-        <v>44882</v>
+        <v>44899</v>
       </c>
       <c r="B6" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="C6" s="25">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="D6" s="17">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F6" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>56</v>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="B7" s="17">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="C7" s="25">
         <v>0.48</v>
       </c>
       <c r="D7" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F7" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>57</v>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>68</v>
       </c>
       <c r="B8" s="17">
         <v>0.28999999999999998</v>
       </c>
       <c r="C8" s="25">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="D8" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>44895</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="D10" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E10" s="17">
         <v>0.05</v>
       </c>
-      <c r="F8" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="17">
-        <v>0.27</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
-        <v>44878</v>
-      </c>
-      <c r="B10" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="F10" s="17">
         <v>0.09</v>
       </c>
-      <c r="E10" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
-        <v>44876</v>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="17">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="C11" s="25">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="D11" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E11" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F11" s="17">
         <v>0.05</v>
       </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B12" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="C12" s="25">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="D12" s="17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="17">
         <v>0.03</v>
       </c>
       <c r="F12" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
-        <v>44874</v>
+        <v>44892</v>
       </c>
       <c r="B13" s="17">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="C13" s="25">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="D13" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E13" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F13" s="17">
         <v>0.05</v>
       </c>
-      <c r="F13" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B14" s="17">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="C14" s="25">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="D14" s="17">
         <v>0.09</v>
       </c>
       <c r="E14" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F14" s="17">
         <v>0.05</v>
       </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
-        <v>44871</v>
+        <v>44888</v>
       </c>
       <c r="B15" s="17">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="C15" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="25">
         <v>0.48</v>
       </c>
-      <c r="D15" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="17">
-        <v>0.27</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0.51</v>
-      </c>
       <c r="D16" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E16" s="17">
         <v>0.04</v>
       </c>
       <c r="F16" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>50</v>
+      <c r="A17" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="B17" s="17">
         <v>0.3</v>
       </c>
       <c r="C17" s="25">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="D17" s="17">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="E17" s="17">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F17" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="G17" s="17"/>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>48</v>
+      <c r="A18" s="20">
+        <v>44885</v>
       </c>
       <c r="B18" s="17">
-        <v>0.24</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C18" s="25">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="D18" s="17">
         <v>0.09</v>
@@ -2309,101 +2359,101 @@
         <v>0.04</v>
       </c>
       <c r="F18" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>44883</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
-        <v>44866</v>
-      </c>
-      <c r="B19" s="17">
-        <v>0.21</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0.47</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0.51</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.04</v>
-      </c>
       <c r="F20" s="17">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
-        <v>44864</v>
+      <c r="A21" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="17">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C21" s="25">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="D21" s="17">
         <v>0.09</v>
       </c>
       <c r="E21" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F21" s="17">
         <v>0.04</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
-        <v>44864</v>
+        <v>44882</v>
       </c>
       <c r="B22" s="17">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="C22" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>44882</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C23" s="25">
         <v>0.5</v>
       </c>
-      <c r="D22" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C23" s="25">
-        <v>0.53</v>
-      </c>
       <c r="D23" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E23" s="17">
         <v>0.04</v>
@@ -2414,196 +2464,201 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B24" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="C24" s="25">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="D24" s="17">
         <v>0.1</v>
       </c>
       <c r="E24" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="17">
         <v>0.04</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B25" s="17">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C25" s="25">
         <v>0.5</v>
       </c>
       <c r="D25" s="17">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E25" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F25" s="17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B26" s="17">
         <v>0.27</v>
       </c>
       <c r="C26" s="25">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D26" s="17">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E26" s="17">
         <v>0.05</v>
       </c>
       <c r="F26" s="17">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
-        <v>44860</v>
+        <v>44878</v>
       </c>
       <c r="B27" s="17">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="C27" s="25">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D27" s="17">
         <v>0.09</v>
       </c>
       <c r="E27" s="17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F27" s="17">
         <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>42</v>
+      <c r="A28" s="20">
+        <v>44876</v>
       </c>
       <c r="B28" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C28" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.26</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.49</v>
       </c>
       <c r="D28" s="17">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E28" s="17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F28" s="17">
         <v>0.05</v>
       </c>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B29" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C29" s="18">
-        <v>0.51</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.49</v>
       </c>
       <c r="D29" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E29" s="17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F29" s="17">
         <v>0.04</v>
       </c>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>43</v>
+      <c r="A30" s="20">
+        <v>44874</v>
       </c>
       <c r="B30" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C30" s="18">
-        <v>0.49</v>
+        <v>0.21</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.42</v>
       </c>
       <c r="D30" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="20">
+        <v>44871</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="D32" s="17">
         <v>0.1</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="20">
-        <v>44857</v>
-      </c>
-      <c r="B31" s="17">
-        <v>0.21</v>
-      </c>
-      <c r="C31" s="18">
-        <v>0.54</v>
-      </c>
-      <c r="D31" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F31" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C32" s="18">
-        <v>0.51</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0.08</v>
       </c>
       <c r="E32" s="17">
         <v>0.04</v>
       </c>
       <c r="F32" s="17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B33" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C33" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.27</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0.51</v>
       </c>
       <c r="D33" s="17">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E33" s="17">
         <v>0.04</v>
@@ -2612,118 +2667,119 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
-        <v>29</v>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="B34" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="C34" s="18">
-        <v>0.51</v>
+        <v>0.3</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0.47</v>
       </c>
       <c r="D34" s="17">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E34" s="17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F34" s="17">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B35" s="17">
-        <v>0.19</v>
-      </c>
-      <c r="C35" s="18">
-        <v>0.56000000000000005</v>
+        <v>0.24</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0.5</v>
       </c>
       <c r="D35" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E35" s="17">
         <v>0.04</v>
       </c>
       <c r="F35" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
+        <v>44866</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E37" s="17">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C36" s="18">
+      <c r="F37" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
+        <v>44864</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="C38" s="25">
         <v>0.5</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D38" s="17">
         <v>0.09</v>
-      </c>
-      <c r="E36" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F36" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="20">
-        <v>44854</v>
-      </c>
-      <c r="B37" s="17">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C37" s="18">
-        <v>0.53</v>
-      </c>
-      <c r="D37" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E37" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F37" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="27">
-        <v>44854</v>
-      </c>
-      <c r="B38" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C38" s="18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D38" s="17">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E38" s="17">
         <v>0.04</v>
       </c>
       <c r="F38" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>26</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
+        <v>44864</v>
       </c>
       <c r="B39" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C39" s="18">
-        <v>0.53</v>
+        <v>0.27</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.5</v>
       </c>
       <c r="D39" s="17">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E39" s="17">
         <v>0.04</v>
@@ -2732,18 +2788,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="20">
-        <v>44853</v>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="17">
-        <v>0.19</v>
-      </c>
-      <c r="C40" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.53</v>
       </c>
       <c r="D40" s="17">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E40" s="17">
         <v>0.04</v>
@@ -2752,195 +2808,195 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B41" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C41" s="18">
-        <v>0.52</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0.44</v>
       </c>
       <c r="D41" s="17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E41" s="17">
         <v>0.04</v>
       </c>
       <c r="F41" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B42" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="C42" s="18">
-        <v>0.55000000000000004</v>
+        <v>0.26</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.5</v>
       </c>
       <c r="D42" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E42" s="17">
         <v>0.04</v>
       </c>
       <c r="F42" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="D43" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="20">
+        <v>44860</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C45" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E45" s="17">
         <v>0.04</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="20">
-        <v>44850</v>
-      </c>
-      <c r="B43" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C43" s="18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D43" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E43" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F43" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="C44" s="18">
-        <v>0.52</v>
-      </c>
-      <c r="D44" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="E44" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="F44" s="17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="17">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C45" s="18">
-        <v>0.49</v>
-      </c>
-      <c r="D45" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E45" s="17">
-        <v>0.03</v>
       </c>
       <c r="F45" s="17">
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="20">
-        <v>44847</v>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="B46" s="17">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C46" s="18">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="D46" s="17">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="E46" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F46" s="17">
         <v>0.04</v>
       </c>
-      <c r="F46" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B47" s="17">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C47" s="18">
         <v>0.49</v>
       </c>
       <c r="D47" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
+        <v>44857</v>
+      </c>
+      <c r="B48" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="C48" s="18">
+        <v>0.54</v>
+      </c>
+      <c r="D48" s="17">
         <v>0.11</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F48" s="17">
         <v>0.04</v>
-      </c>
-      <c r="F47" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="20">
-        <v>44846</v>
-      </c>
-      <c r="B48" s="17">
-        <v>0.19</v>
-      </c>
-      <c r="C48" s="18">
-        <v>0.53</v>
-      </c>
-      <c r="D48" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="E48" s="17">
-        <v>0.06</v>
-      </c>
-      <c r="F48" s="17">
-        <v>0.06</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B49" s="17">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="C49" s="18">
         <v>0.51</v>
       </c>
       <c r="D49" s="17">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E49" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F49" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B50" s="17">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="C50" s="18">
-        <v>0.47</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D50" s="17">
         <v>0.1</v>
@@ -2949,38 +3005,38 @@
         <v>0.04</v>
       </c>
       <c r="F50" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C51" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D51" s="17">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="20">
-        <v>44843</v>
-      </c>
-      <c r="B51" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C51" s="18">
-        <v>0.54</v>
-      </c>
-      <c r="D51" s="17">
-        <v>0.1</v>
-      </c>
       <c r="E51" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F51" s="17">
         <v>0.03</v>
-      </c>
-      <c r="F51" s="17">
-        <v>0.04</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B52" s="17">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="C52" s="18">
-        <v>0.51</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D52" s="17">
         <v>0.1</v>
@@ -2994,141 +3050,481 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B53" s="17">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C53" s="18">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="D53" s="17">
         <v>0.09</v>
       </c>
       <c r="E53" s="17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F53" s="17">
         <v>0.06</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
-        <v>23</v>
+      <c r="A54" s="20">
+        <v>44854</v>
       </c>
       <c r="B54" s="17">
-        <v>0.26</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C54" s="18">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="D54" s="17">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E54" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F54" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="27">
+        <v>44854</v>
+      </c>
+      <c r="B55" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C55" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D55" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E55" s="17">
         <v>0.04</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>0.04</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="C55" s="18">
-        <v>0.51</v>
-      </c>
-      <c r="D55" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E55" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F55" s="17">
-        <v>0.05</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B56" s="17">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="C56" s="18">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="D56" s="17">
         <v>0.11</v>
       </c>
       <c r="E56" s="17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F56" s="17">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="20">
-        <v>44840</v>
+        <v>44853</v>
       </c>
       <c r="B57" s="17">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="C57" s="18">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D57" s="17">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E57" s="17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F57" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B58" s="17">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="C58" s="18">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="D58" s="17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E58" s="17">
         <v>0.04</v>
       </c>
       <c r="F58" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="20">
-        <v>44839</v>
+      <c r="A59" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="B59" s="17">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C59" s="18">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D59" s="17">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E59" s="17">
         <v>0.04</v>
       </c>
       <c r="F59" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="20">
+        <v>44850</v>
+      </c>
+      <c r="B60" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C60" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D60" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E60" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F60" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C61" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D61" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E61" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F61" s="17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C62" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="D62" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E62" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F62" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="20">
+        <v>44847</v>
+      </c>
+      <c r="B63" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C63" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D63" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="E63" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F63" s="17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C64" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="D64" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E64" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F64" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="20">
+        <v>44846</v>
+      </c>
+      <c r="B65" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="C65" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="D65" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E65" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="F65" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C66" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D66" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E66" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F66" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C67" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D67" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E67" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="20">
+        <v>44843</v>
+      </c>
+      <c r="B68" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C68" s="18">
+        <v>0.54</v>
+      </c>
+      <c r="D68" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E68" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F68" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C69" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D69" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E69" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F69" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C70" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D70" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E70" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F70" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C71" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D71" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E71" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F71" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C72" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D72" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E72" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F72" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C73" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="D73" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="E73" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F73" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="20">
+        <v>44840</v>
+      </c>
+      <c r="B74" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C74" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D74" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E74" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F74" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="C75" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D75" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E75" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F75" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B76" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="C76" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E76" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="F76" s="17">
         <v>0.05</v>
       </c>
     </row>
@@ -3139,10 +3535,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381CFD7-A18A-AD47-BDA2-5D9B5FE8AC32}">
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3166,203 +3562,203 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44884</v>
+        <v>44906</v>
       </c>
       <c r="B2" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B3" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>44858</v>
+        <v>44884</v>
       </c>
       <c r="B4" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>26.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B5" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44804</v>
+        <v>44858</v>
       </c>
       <c r="B6" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>31.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44770</v>
+        <v>44834</v>
       </c>
       <c r="B7" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>32.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44742</v>
+        <v>44804</v>
       </c>
       <c r="B8" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44710</v>
+        <v>44770</v>
       </c>
       <c r="B9" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44679</v>
+        <v>44742</v>
       </c>
       <c r="B10" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>34.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44650</v>
+        <v>44710</v>
       </c>
       <c r="B11" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44620</v>
+        <v>44679</v>
       </c>
       <c r="B12" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>44592</v>
+        <v>44650</v>
       </c>
       <c r="B13" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>44884</v>
+        <v>44620</v>
       </c>
       <c r="B14" s="1">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>44865</v>
+        <v>44592</v>
       </c>
       <c r="B15" s="1">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>44858</v>
+        <v>44906</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -3371,68 +3767,68 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>44834</v>
+        <v>44895</v>
       </c>
       <c r="B17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>44804</v>
+        <v>44884</v>
       </c>
       <c r="B18" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>44770</v>
+        <v>44865</v>
       </c>
       <c r="B19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>44742</v>
+        <v>44858</v>
       </c>
       <c r="B20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>44710</v>
+        <v>44834</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
@@ -3446,7 +3842,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>44679</v>
+        <v>44804</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
@@ -3460,7 +3856,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>44650</v>
+        <v>44770</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
@@ -3469,26 +3865,26 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>44620</v>
+        <v>44742</v>
       </c>
       <c r="B24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>44592</v>
+        <v>44710</v>
       </c>
       <c r="B25" s="1">
         <v>6</v>
@@ -3502,161 +3898,161 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>44884</v>
+        <v>44679</v>
       </c>
       <c r="B26" s="1">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>44865</v>
+        <v>44650</v>
       </c>
       <c r="B27" s="1">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>52</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>44858</v>
+        <v>44620</v>
       </c>
       <c r="B28" s="1">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>44834</v>
+        <v>44592</v>
       </c>
       <c r="B29" s="1">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>42.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>44804</v>
+        <v>44906</v>
       </c>
       <c r="B30" s="1">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>40.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>44770</v>
+        <v>44895</v>
       </c>
       <c r="B31" s="1">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>39.5</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>44742</v>
+        <v>44884</v>
       </c>
       <c r="B32" s="1">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>44710</v>
+        <v>44865</v>
       </c>
       <c r="B33" s="1">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>44679</v>
+        <v>44858</v>
       </c>
       <c r="B34" s="1">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>38.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>44650</v>
+        <v>44834</v>
       </c>
       <c r="B35" s="1">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>38.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>44620</v>
+        <v>44804</v>
       </c>
       <c r="B36" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>44592</v>
+        <v>44770</v>
       </c>
       <c r="B37" s="1">
         <v>40</v>
@@ -3665,138 +4061,138 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>44884</v>
+        <v>44742</v>
       </c>
       <c r="B38" s="1">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>9.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>44865</v>
+        <v>44710</v>
       </c>
       <c r="B39" s="1">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>44858</v>
+        <v>44679</v>
       </c>
       <c r="B40" s="1">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>44834</v>
+        <v>44650</v>
       </c>
       <c r="B41" s="1">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>44804</v>
+        <v>44620</v>
       </c>
       <c r="B42" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>44770</v>
+        <v>44592</v>
       </c>
       <c r="B43" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>12.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>44742</v>
+        <v>44906</v>
       </c>
       <c r="B44" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44">
-        <v>12.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>44710</v>
+        <v>44895</v>
       </c>
       <c r="B45" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>44679</v>
+        <v>44884</v>
       </c>
       <c r="B46" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>44650</v>
+        <v>44865</v>
       </c>
       <c r="B47" s="1">
         <v>10</v>
@@ -3805,29 +4201,29 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>44620</v>
+        <v>44858</v>
       </c>
       <c r="B48" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>44592</v>
+        <v>44834</v>
       </c>
       <c r="B49" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -3838,147 +4234,147 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>44884</v>
+        <v>44804</v>
       </c>
       <c r="B50" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>44865</v>
+        <v>44770</v>
       </c>
       <c r="B51" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>44857</v>
+        <v>44742</v>
       </c>
       <c r="B52" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>44834</v>
+        <v>44710</v>
       </c>
       <c r="B53" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>4.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>44804</v>
+        <v>44679</v>
       </c>
       <c r="B54" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>44770</v>
+        <v>44650</v>
       </c>
       <c r="B55" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>44742</v>
+        <v>44620</v>
       </c>
       <c r="B56" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>44710</v>
+        <v>44592</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>44679</v>
+        <v>44906</v>
       </c>
       <c r="B58" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
       </c>
       <c r="D58">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>44650</v>
+        <v>44895</v>
       </c>
       <c r="B59" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
       <c r="D59">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>44620</v>
+        <v>44884</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -3987,200 +4383,200 @@
         <v>5</v>
       </c>
       <c r="D60">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>44592</v>
+        <v>44865</v>
       </c>
       <c r="B61" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B62" s="10">
-        <v>33</v>
+        <v>44857</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>33</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B63" s="10">
-        <v>37</v>
+        <v>44834</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>35</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>44500</v>
+        <v>44804</v>
       </c>
       <c r="B64" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>44468</v>
+        <v>44770</v>
       </c>
       <c r="B65" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>44437</v>
+        <v>44742</v>
       </c>
       <c r="B66" s="1">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>39.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>44407</v>
+        <v>44710</v>
       </c>
       <c r="B67" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>44377</v>
+        <v>44679</v>
       </c>
       <c r="B68" s="1">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>42.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>44347</v>
+        <v>44650</v>
       </c>
       <c r="B69" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>43</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>44316</v>
+        <v>44620</v>
       </c>
       <c r="B70" s="1">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>43</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>44284</v>
+        <v>44592</v>
       </c>
       <c r="B71" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>44255</v>
-      </c>
-      <c r="B72" s="1">
-        <v>41</v>
+        <v>44560</v>
+      </c>
+      <c r="B72" s="10">
+        <v>33</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>44226</v>
-      </c>
-      <c r="B73" s="1">
-        <v>40</v>
+        <v>44529</v>
+      </c>
+      <c r="B73" s="10">
+        <v>37</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>40.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B74" s="10">
-        <v>38</v>
+        <v>44500</v>
+      </c>
+      <c r="B74" s="1">
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>38</v>
@@ -4188,136 +4584,136 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B75" s="10">
-        <v>36</v>
+        <v>44468</v>
+      </c>
+      <c r="B75" s="1">
+        <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>44500</v>
+        <v>44437</v>
       </c>
       <c r="B76" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>35.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>44468</v>
+        <v>44407</v>
       </c>
       <c r="B77" s="1">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>34.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>44437</v>
+        <v>44377</v>
       </c>
       <c r="B78" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>34</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>44407</v>
+        <v>44347</v>
       </c>
       <c r="B79" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>33.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>44377</v>
+        <v>44316</v>
       </c>
       <c r="B80" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>44347</v>
+        <v>44284</v>
       </c>
       <c r="B81" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>44316</v>
+        <v>44255</v>
       </c>
       <c r="B82" s="1">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>44284</v>
+        <v>44226</v>
       </c>
       <c r="B83" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>36</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>44255</v>
-      </c>
-      <c r="B84" s="1">
-        <v>37</v>
+        <v>44560</v>
+      </c>
+      <c r="B84" s="10">
+        <v>38</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -4328,847 +4724,847 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>44226</v>
-      </c>
-      <c r="B85" s="1">
-        <v>39</v>
+        <v>44529</v>
+      </c>
+      <c r="B85" s="10">
+        <v>36</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B86" s="10">
-        <v>7</v>
+        <v>44500</v>
+      </c>
+      <c r="B86" s="1">
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B87" s="10">
-        <v>7</v>
+        <v>44468</v>
+      </c>
+      <c r="B87" s="1">
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>7</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>44500</v>
+        <v>44437</v>
       </c>
       <c r="B88" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>44468</v>
+        <v>44407</v>
       </c>
       <c r="B89" s="1">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>6.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>44437</v>
+        <v>44377</v>
       </c>
       <c r="B90" s="1">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>44407</v>
+        <v>44347</v>
       </c>
       <c r="B91" s="1">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>5.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>44377</v>
+        <v>44316</v>
       </c>
       <c r="B92" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>44347</v>
+        <v>44284</v>
       </c>
       <c r="B93" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>44316</v>
+        <v>44255</v>
       </c>
       <c r="B94" s="1">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>44284</v>
+        <v>44226</v>
       </c>
       <c r="B95" s="1">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>5.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>44255</v>
-      </c>
-      <c r="B96" s="1">
-        <v>6</v>
+        <v>44560</v>
+      </c>
+      <c r="B96" s="10">
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
       <c r="D96">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>44226</v>
-      </c>
-      <c r="B97" s="1">
-        <v>5</v>
+        <v>44529</v>
+      </c>
+      <c r="B97" s="10">
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B98" s="10">
-        <v>10</v>
+        <v>44500</v>
+      </c>
+      <c r="B98" s="1">
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98">
-        <v>9.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B99" s="10">
+        <v>44468</v>
+      </c>
+      <c r="B99" s="1">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>9</v>
       </c>
-      <c r="C99" t="s">
-        <v>10</v>
-      </c>
       <c r="D99">
-        <v>9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>44500</v>
+        <v>44437</v>
       </c>
       <c r="B100" s="1">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
         <v>9</v>
       </c>
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
       <c r="D100">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>44468</v>
+        <v>44407</v>
       </c>
       <c r="B101" s="1">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
         <v>9</v>
       </c>
-      <c r="C101" t="s">
-        <v>10</v>
-      </c>
       <c r="D101">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>44437</v>
+        <v>44377</v>
       </c>
       <c r="B102" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102">
-        <v>9.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>44407</v>
+        <v>44347</v>
       </c>
       <c r="B103" s="1">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
         <v>9</v>
       </c>
-      <c r="C103" t="s">
-        <v>10</v>
-      </c>
       <c r="D103">
-        <v>8.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>44377</v>
+        <v>44316</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>44347</v>
+        <v>44284</v>
       </c>
       <c r="B105" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>44316</v>
+        <v>44255</v>
       </c>
       <c r="B106" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <v>44284</v>
+        <v>44226</v>
       </c>
       <c r="B107" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <v>44255</v>
-      </c>
-      <c r="B108" s="1">
-        <v>7</v>
+        <v>44560</v>
+      </c>
+      <c r="B108" s="10">
+        <v>10</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <v>44226</v>
-      </c>
-      <c r="B109" s="1">
-        <v>7</v>
+        <v>44529</v>
+      </c>
+      <c r="B109" s="10">
+        <v>9</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
       </c>
       <c r="D109">
-        <v>6.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B110" s="10">
-        <v>4</v>
+        <v>44500</v>
+      </c>
+      <c r="B110" s="1">
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B111" s="10">
-        <v>4</v>
+        <v>44468</v>
+      </c>
+      <c r="B111" s="1">
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>44500</v>
+        <v>44437</v>
       </c>
       <c r="B112" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>44468</v>
+        <v>44407</v>
       </c>
       <c r="B113" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D113">
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>44437</v>
+        <v>44377</v>
       </c>
       <c r="B114" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>44407</v>
+        <v>44347</v>
       </c>
       <c r="B115" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D115">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>44377</v>
+        <v>44316</v>
       </c>
       <c r="B116" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D116">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>44347</v>
+        <v>44284</v>
       </c>
       <c r="B117" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>44316</v>
+        <v>44255</v>
       </c>
       <c r="B118" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>44284</v>
+        <v>44226</v>
       </c>
       <c r="B119" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>44255</v>
-      </c>
-      <c r="B120" s="1">
-        <v>5</v>
+        <v>44560</v>
+      </c>
+      <c r="B120" s="10">
+        <v>4</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <v>44226</v>
-      </c>
-      <c r="B121" s="1">
-        <v>5</v>
+        <v>44529</v>
+      </c>
+      <c r="B121" s="10">
+        <v>4</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <v>44195</v>
+        <v>44500</v>
       </c>
       <c r="B122" s="1">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D122">
-        <v>38.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>44164</v>
+        <v>44468</v>
       </c>
       <c r="B123" s="1">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D123">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>44134</v>
+        <v>44437</v>
       </c>
       <c r="B124" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D124">
-        <v>40.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>44104</v>
+        <v>44407</v>
       </c>
       <c r="B125" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D125">
-        <v>40.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>44071</v>
+        <v>44377</v>
       </c>
       <c r="B126" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D126">
-        <v>41.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>44043</v>
+        <v>44347</v>
       </c>
       <c r="B127" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D127">
-        <v>44.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>44010</v>
+        <v>44316</v>
       </c>
       <c r="B128" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D128">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <v>43981</v>
+        <v>44284</v>
       </c>
       <c r="B129" s="1">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D129">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>43947</v>
+        <v>44255</v>
       </c>
       <c r="B130" s="1">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D130">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>43917</v>
+        <v>44226</v>
       </c>
       <c r="B131" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D131">
-        <v>50.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>43881</v>
+        <v>44195</v>
       </c>
       <c r="B132" s="1">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>48.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <v>43861</v>
+        <v>44164</v>
       </c>
       <c r="B133" s="1">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>43811</v>
+        <v>44134</v>
       </c>
       <c r="B134" s="1">
-        <v>44.7</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>44.7</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <v>44195</v>
+        <v>44104</v>
       </c>
       <c r="B135" s="1">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <v>44164</v>
+        <v>44071</v>
       </c>
       <c r="B136" s="1">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <v>44134</v>
+        <v>44043</v>
       </c>
       <c r="B137" s="1">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <v>44104</v>
+        <v>44010</v>
       </c>
       <c r="B138" s="1">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>4.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <v>44071</v>
+        <v>43981</v>
       </c>
       <c r="B139" s="1">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <v>44043</v>
+        <v>43947</v>
       </c>
       <c r="B140" s="1">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <v>44010</v>
+        <v>43917</v>
       </c>
       <c r="B141" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <v>43981</v>
+        <v>43881</v>
       </c>
       <c r="B142" s="1">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <v>43947</v>
+        <v>43861</v>
       </c>
       <c r="B143" s="1">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <v>43917</v>
+        <v>43811</v>
       </c>
       <c r="B144" s="1">
-        <v>4</v>
+        <v>44.7</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>43881</v>
+        <v>44195</v>
       </c>
       <c r="B145" s="1">
         <v>5</v>
@@ -5177,580 +5573,720 @@
         <v>9</v>
       </c>
       <c r="D145">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
-        <v>43861</v>
+        <v>44164</v>
       </c>
       <c r="B146" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <v>43811</v>
+        <v>44134</v>
       </c>
       <c r="B147" s="1">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>9</v>
       </c>
       <c r="D147">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>44195</v>
+        <v>44104</v>
       </c>
       <c r="B148" s="1">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D148">
-        <v>38.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <v>44164</v>
+        <v>44071</v>
       </c>
       <c r="B149" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D149">
-        <v>38.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <v>44134</v>
+        <v>44043</v>
       </c>
       <c r="B150" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D150">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <v>44104</v>
+        <v>44010</v>
       </c>
       <c r="B151" s="1">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D151">
-        <v>38.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <v>44071</v>
+        <v>43981</v>
       </c>
       <c r="B152" s="1">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D152">
-        <v>37.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>44043</v>
+        <v>43947</v>
       </c>
       <c r="B153" s="1">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D153">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>44010</v>
+        <v>43917</v>
       </c>
       <c r="B154" s="1">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D154">
-        <v>37.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <v>43981</v>
+        <v>43881</v>
       </c>
       <c r="B155" s="1">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D155">
-        <v>36.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>43947</v>
+        <v>43861</v>
       </c>
       <c r="B156" s="1">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D156">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>43917</v>
+        <v>43811</v>
       </c>
       <c r="B157" s="1">
-        <v>29</v>
+        <v>2.8</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D157">
-        <v>30</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <v>43881</v>
+        <v>44195</v>
       </c>
       <c r="B158" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>29.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <v>43861</v>
+        <v>44164</v>
       </c>
       <c r="B159" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
       </c>
       <c r="D159">
-        <v>29</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <v>43811</v>
+        <v>44134</v>
       </c>
       <c r="B160" s="1">
-        <v>32.9</v>
+        <v>39</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
       </c>
       <c r="D160">
-        <v>32.9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <v>44195</v>
+        <v>44104</v>
       </c>
       <c r="B161" s="1">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>7</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <v>44164</v>
+        <v>44071</v>
       </c>
       <c r="B162" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>7</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <v>44134</v>
+        <v>44043</v>
       </c>
       <c r="B163" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <v>44104</v>
+        <v>44010</v>
       </c>
       <c r="B164" s="1">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>7</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <v>44071</v>
+        <v>43981</v>
       </c>
       <c r="B165" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>7</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <v>44043</v>
+        <v>43947</v>
       </c>
       <c r="B166" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>44010</v>
+        <v>43917</v>
       </c>
       <c r="B167" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
-        <v>43981</v>
+        <v>43881</v>
       </c>
       <c r="B168" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>7</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
-        <v>43947</v>
+        <v>43861</v>
       </c>
       <c r="B169" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>7.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
-        <v>43917</v>
+        <v>43811</v>
       </c>
       <c r="B170" s="1">
-        <v>8</v>
+        <v>32.9</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>8.5</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <v>43881</v>
+        <v>44195</v>
       </c>
       <c r="B171" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>10</v>
       </c>
       <c r="D171">
-        <v>9.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
-        <v>43861</v>
+        <v>44164</v>
       </c>
       <c r="B172" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>10</v>
       </c>
       <c r="D172">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
-        <v>43811</v>
+        <v>44134</v>
       </c>
       <c r="B173" s="1">
-        <v>11.8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>10</v>
       </c>
       <c r="D173">
-        <v>11.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
-        <v>44195</v>
+        <v>44104</v>
       </c>
       <c r="B174" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
-        <v>44164</v>
+        <v>44071</v>
       </c>
       <c r="B175" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D175">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
-        <v>44134</v>
+        <v>44043</v>
       </c>
       <c r="B176" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
-        <v>44104</v>
+        <v>44010</v>
       </c>
       <c r="B177" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>44071</v>
+        <v>43981</v>
       </c>
       <c r="B178" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
-        <v>44043</v>
+        <v>43947</v>
       </c>
       <c r="B179" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
-        <v>44010</v>
+        <v>43917</v>
       </c>
       <c r="B180" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D180">
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
-        <v>43981</v>
+        <v>43881</v>
       </c>
       <c r="B181" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D181">
-        <v>5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
-        <v>43947</v>
+        <v>43861</v>
       </c>
       <c r="B182" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D182">
-        <v>4.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
-        <v>43917</v>
+        <v>43811</v>
       </c>
       <c r="B183" s="1">
-        <v>4</v>
+        <v>11.8</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
-        <v>43881</v>
+        <v>44195</v>
       </c>
       <c r="B184" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
-        <v>43861</v>
+        <v>44164</v>
       </c>
       <c r="B185" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B186" s="1">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B187" s="1">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>44071</v>
+      </c>
+      <c r="B188" s="1">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B189" s="1">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>44010</v>
+      </c>
+      <c r="B190" s="1">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B191" s="1">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B192" s="1">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B193" s="1">
+        <v>4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>43881</v>
+      </c>
+      <c r="B194" s="1">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B195" s="1">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
         <v>43811</v>
       </c>
-      <c r="B186" s="1">
-        <v>4</v>
-      </c>
-      <c r="C186" t="s">
-        <v>5</v>
-      </c>
-      <c r="D186">
+      <c r="B196" s="1">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196">
         <v>4</v>
       </c>
     </row>

--- a/GreatBritain.xlsx
+++ b/GreatBritain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDA204A-08C0-5B4F-B594-1855082C6FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E228C932-335F-1A49-972F-E8D58891EE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="500" windowWidth="32000" windowHeight="15800" activeTab="3" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="15800" activeTab="1" xr2:uid="{E9C4E95E-8359-A342-8AAF-3EA61FE48FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -134,30 +134,6 @@
     <t>Con</t>
   </si>
   <si>
-    <t>2019 Vote</t>
-  </si>
-  <si>
-    <t>2019 Seats</t>
-  </si>
-  <si>
-    <t>2020 Vote</t>
-  </si>
-  <si>
-    <t>2020 Seats</t>
-  </si>
-  <si>
-    <t>2021 Vote</t>
-  </si>
-  <si>
-    <t>2021 Seats</t>
-  </si>
-  <si>
-    <t>2022 Vote</t>
-  </si>
-  <si>
-    <t>2022 Seats</t>
-  </si>
-  <si>
     <t>21–23 Oct</t>
   </si>
   <si>
@@ -246,6 +222,99 @@
   </si>
   <si>
     <t>30 Nov – 2 Dec</t>
+  </si>
+  <si>
+    <t>7–13 Dec</t>
+  </si>
+  <si>
+    <t>9–12 Dec</t>
+  </si>
+  <si>
+    <t>14–15 Dec</t>
+  </si>
+  <si>
+    <t>15–16 Dec</t>
+  </si>
+  <si>
+    <t>14–16 Dec</t>
+  </si>
+  <si>
+    <t>20–21 Dec</t>
+  </si>
+  <si>
+    <t>21–22 Dec</t>
+  </si>
+  <si>
+    <t>2019 GE</t>
+  </si>
+  <si>
+    <t>44.7(365)</t>
+  </si>
+  <si>
+    <t>33(203)</t>
+  </si>
+  <si>
+    <t>11.8(11)</t>
+  </si>
+  <si>
+    <t>2.8(1)</t>
+  </si>
+  <si>
+    <t>4(48)</t>
+  </si>
+  <si>
+    <t>44(373)</t>
+  </si>
+  <si>
+    <t>35(196)</t>
+  </si>
+  <si>
+    <t>7.5(5)</t>
+  </si>
+  <si>
+    <t>4.4(1)</t>
+  </si>
+  <si>
+    <t>4.7(52)</t>
+  </si>
+  <si>
+    <t>40.3(346)</t>
+  </si>
+  <si>
+    <t>35.2(221)</t>
+  </si>
+  <si>
+    <t>8.3(7)</t>
+  </si>
+  <si>
+    <t>5.9(1)</t>
+  </si>
+  <si>
+    <t>4.9(52)</t>
+  </si>
+  <si>
+    <t>30.7(234)</t>
+  </si>
+  <si>
+    <t>42.2(321)</t>
+  </si>
+  <si>
+    <t>10.7(20)</t>
+  </si>
+  <si>
+    <t>5.7(1)</t>
+  </si>
+  <si>
+    <t>4.4(54)</t>
+  </si>
+  <si>
+    <t>2020 Polls/Seats</t>
+  </si>
+  <si>
+    <t>2021 Polls/Seats</t>
+  </si>
+  <si>
+    <t>2022 Polls/Seats</t>
   </si>
 </sst>
 </file>
@@ -317,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,19 +495,10 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -465,17 +531,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A931D-EDBC-E948-9A77-FFFFFCA63EAC}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,16 +882,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -832,19 +905,19 @@
       <c r="A2" s="4">
         <v>44906</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="1">
         <v>26</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="1">
         <v>47</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="1">
         <v>9</v>
       </c>
-      <c r="E2" s="8">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
         <v>3</v>
       </c>
       <c r="G2" s="1">
@@ -852,129 +925,129 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>44895</v>
-      </c>
-      <c r="B3" s="26">
+      <c r="A3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="28">
+        <v>30.7</v>
+      </c>
+      <c r="C3" s="28">
+        <v>42.2</v>
+      </c>
+      <c r="D3" s="28">
+        <v>10.7</v>
+      </c>
+      <c r="E3" s="28">
+        <v>5.7</v>
+      </c>
+      <c r="F3" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G3" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>44923</v>
+      </c>
+      <c r="B4" s="1">
         <v>26</v>
       </c>
-      <c r="C3" s="26">
-        <v>48</v>
-      </c>
-      <c r="D3" s="26">
-        <v>9</v>
-      </c>
-      <c r="E3" s="26">
-        <v>4</v>
-      </c>
-      <c r="F3" s="26">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
-        <v>31.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>41.1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="F4" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>9.6</v>
+      <c r="C4" s="1">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44865</v>
-      </c>
-      <c r="B5" s="8">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8">
-        <v>52</v>
-      </c>
-      <c r="D5" s="8">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8">
-        <v>4</v>
+        <v>44895</v>
+      </c>
+      <c r="B5" s="22">
+        <v>26</v>
+      </c>
+      <c r="C5" s="22">
+        <v>48</v>
+      </c>
+      <c r="D5" s="22">
+        <v>9</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4</v>
+      </c>
+      <c r="F5" s="22">
+        <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B6" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B7" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44770</v>
+        <v>44804</v>
       </c>
       <c r="B8" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>12</v>
@@ -986,21 +1059,21 @@
         <v>4</v>
       </c>
       <c r="G8" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44742</v>
+        <v>44770</v>
       </c>
       <c r="B9" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1009,12 +1082,12 @@
         <v>4</v>
       </c>
       <c r="G9" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44710</v>
+        <v>44742</v>
       </c>
       <c r="B10" s="1">
         <v>33</v>
@@ -1023,7 +1096,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
@@ -1037,16 +1110,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44679</v>
+        <v>44710</v>
       </c>
       <c r="B11" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
@@ -1055,18 +1128,18 @@
         <v>4</v>
       </c>
       <c r="G11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="B12" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -1075,136 +1148,136 @@
         <v>6</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>44620</v>
+        <v>44650</v>
       </c>
       <c r="B13" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B14" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1">
         <v>11</v>
       </c>
       <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7">
         <v>6</v>
       </c>
-      <c r="F14" s="1">
-        <v>5</v>
-      </c>
-      <c r="G14" s="7">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>44592</v>
+      </c>
+      <c r="B15" s="1">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B16" s="6">
         <v>40.299999999999997</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="6">
         <v>35.200000000000003</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>5.9</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="11">
         <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>44560</v>
-      </c>
-      <c r="B16" s="10">
-        <v>33</v>
-      </c>
-      <c r="C16" s="10">
-        <v>38</v>
-      </c>
-      <c r="D16" s="10">
-        <v>10</v>
-      </c>
-      <c r="E16" s="10">
-        <v>7</v>
-      </c>
-      <c r="F16" s="10">
-        <v>4</v>
-      </c>
-      <c r="G16" s="11">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B17" s="10">
-        <v>37</v>
-      </c>
-      <c r="C17" s="10">
-        <v>36</v>
-      </c>
-      <c r="D17" s="10">
-        <v>9</v>
-      </c>
-      <c r="E17" s="10">
+        <v>44560</v>
+      </c>
+      <c r="B17" s="1">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
         <v>7</v>
       </c>
-      <c r="F17" s="10">
-        <v>4</v>
-      </c>
-      <c r="G17" s="11">
-        <v>-1</v>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>44500</v>
+        <v>44529</v>
       </c>
       <c r="B18" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1">
         <v>9</v>
@@ -1213,21 +1286,21 @@
         <v>7</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-4</v>
+        <v>4</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>44468</v>
+        <v>44500</v>
       </c>
       <c r="B19" s="1">
         <v>39</v>
       </c>
       <c r="C19" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1">
         <v>9</v>
@@ -1239,44 +1312,44 @@
         <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>44437</v>
+        <v>44468</v>
       </c>
       <c r="B20" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <v>34</v>
       </c>
       <c r="D20" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
       </c>
       <c r="G20" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>44407</v>
+        <v>44437</v>
       </c>
       <c r="B21" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
@@ -1285,41 +1358,35 @@
         <v>5</v>
       </c>
       <c r="G21" s="1">
-        <v>-9</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>44377</v>
+        <v>44407</v>
       </c>
       <c r="B22" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1">
         <v>33</v>
       </c>
       <c r="D22" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1">
-        <v>-10</v>
-      </c>
-      <c r="J22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B23" s="1">
         <v>43</v>
@@ -1328,36 +1395,33 @@
         <v>33</v>
       </c>
       <c r="D23" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
       </c>
       <c r="F23" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="1">
         <v>-10</v>
       </c>
-      <c r="I23" s="1">
-        <v>2019</v>
-      </c>
-      <c r="J23" s="1">
-        <v>44.7</v>
-      </c>
-      <c r="K23" s="1">
-        <v>32.9</v>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B24" s="1">
         <v>43</v>
       </c>
       <c r="C24" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1">
         <v>7</v>
@@ -1369,21 +1433,21 @@
         <v>5</v>
       </c>
       <c r="G24" s="1">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I24" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J24" s="1">
-        <v>44</v>
+        <v>44.7</v>
       </c>
       <c r="K24" s="1">
-        <v>35</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>44284</v>
+        <v>44316</v>
       </c>
       <c r="B25" s="1">
         <v>43</v>
@@ -1404,125 +1468,134 @@
         <v>-8</v>
       </c>
       <c r="I25" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J25" s="1">
-        <v>40.299999999999997</v>
+        <v>44</v>
       </c>
       <c r="K25" s="1">
-        <v>35.200000000000003</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>44255</v>
+        <v>44284</v>
       </c>
       <c r="B26" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" s="1">
         <v>7</v>
       </c>
       <c r="E26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
       </c>
       <c r="G26" s="1">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="I26" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J26" s="1">
-        <v>31.6</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="K26" s="1">
-        <v>41.1</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>44226</v>
+        <v>44255</v>
       </c>
       <c r="B27" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1">
         <v>7</v>
       </c>
       <c r="E27" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
       </c>
       <c r="G27" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2022</v>
+      </c>
+      <c r="J27" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="K27" s="1">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>44226</v>
+      </c>
+      <c r="B28" s="1">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B29" s="5">
         <v>44</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C29" s="5">
         <v>35</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D29" s="5">
         <v>7.5</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F29" s="5">
         <v>4.7</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="11">
         <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>44195</v>
-      </c>
-      <c r="B29" s="1">
-        <v>39</v>
-      </c>
-      <c r="C29" s="1">
-        <v>38</v>
-      </c>
-      <c r="D29" s="1">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1">
-        <v>5</v>
-      </c>
-      <c r="G29" s="1">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>44164</v>
+        <v>44195</v>
       </c>
       <c r="B30" s="1">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1">
         <v>38</v>
-      </c>
-      <c r="C30" s="1">
-        <v>39</v>
       </c>
       <c r="D30" s="1">
         <v>7</v>
@@ -1534,15 +1607,15 @@
         <v>5</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>44134</v>
+        <v>44164</v>
       </c>
       <c r="B31" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
         <v>39</v>
@@ -1557,18 +1630,18 @@
         <v>5</v>
       </c>
       <c r="G31" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B32" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1">
         <v>7</v>
@@ -1580,38 +1653,38 @@
         <v>5</v>
       </c>
       <c r="G32" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>44071</v>
+        <v>44104</v>
       </c>
       <c r="B33" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1">
         <v>7</v>
       </c>
       <c r="E33" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" s="1">
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>44043</v>
+        <v>44071</v>
       </c>
       <c r="B34" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1">
         <v>37</v>
@@ -1626,18 +1699,18 @@
         <v>5</v>
       </c>
       <c r="G34" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>44010</v>
+        <v>44043</v>
       </c>
       <c r="B35" s="1">
         <v>43</v>
       </c>
       <c r="C35" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="1">
         <v>7</v>
@@ -1649,18 +1722,18 @@
         <v>5</v>
       </c>
       <c r="G35" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>43981</v>
+        <v>44010</v>
       </c>
       <c r="B36" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1">
         <v>7</v>
@@ -1672,18 +1745,18 @@
         <v>5</v>
       </c>
       <c r="G36" s="1">
-        <v>-12</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>43947</v>
+        <v>43981</v>
       </c>
       <c r="B37" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1">
         <v>7</v>
@@ -1692,24 +1765,24 @@
         <v>4</v>
       </c>
       <c r="F37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1">
-        <v>-20</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>43917</v>
+        <v>43947</v>
       </c>
       <c r="B38" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D38" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1">
         <v>4</v>
@@ -1718,79 +1791,102 @@
         <v>4</v>
       </c>
       <c r="G38" s="1">
-        <v>-21</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>43881</v>
+        <v>43917</v>
       </c>
       <c r="B39" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1">
         <v>4</v>
       </c>
       <c r="G39" s="1">
-        <v>-17</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>43861</v>
+        <v>43881</v>
       </c>
       <c r="B40" s="1">
         <v>47</v>
       </c>
       <c r="C40" s="1">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B41" s="1">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1">
         <v>29</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>10</v>
       </c>
-      <c r="E40" s="1">
-        <v>4</v>
-      </c>
-      <c r="F40" s="1">
-        <v>4</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1">
         <v>-18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B42" s="12">
         <v>44.7</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C42" s="12">
         <v>32.9</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="12">
         <v>11.8</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="12">
         <v>2.8</v>
       </c>
-      <c r="F41" s="15">
-        <v>4</v>
-      </c>
-      <c r="G41" s="16">
+      <c r="F42" s="12">
+        <v>4</v>
+      </c>
+      <c r="G42" s="13">
         <v>11.8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1799,189 +1895,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FDD339-2D4A-054C-AB9F-A7A8061A7268}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>31</v>
+      <c r="B1" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1">
-        <v>44.7</v>
-      </c>
-      <c r="C2" s="24">
-        <v>365</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44</v>
-      </c>
-      <c r="E2" s="24">
-        <v>373</v>
-      </c>
-      <c r="F2" s="1">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="G2" s="24">
-        <v>346</v>
-      </c>
-      <c r="H2" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1">
-        <v>203</v>
-      </c>
-      <c r="D3" s="1">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1">
-        <v>196</v>
-      </c>
-      <c r="F3" s="1">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="G3" s="1">
-        <v>221</v>
-      </c>
-      <c r="H3" s="1">
-        <v>41.1</v>
-      </c>
-      <c r="I3" s="24">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>52</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G6" s="1">
-        <v>52</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>52</v>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1991,19 +2015,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73571342-61EF-734E-8EE5-A24DC6419A7A}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E2:E8"/>
+      <selection activeCell="F18" sqref="F2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="23" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2023,1508 +2047,1728 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="25">
+        <v>45288</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.19</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="D3" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>45281</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.46</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.47</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.44</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>45274</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="D9" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.49</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.46</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>44906</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B13" s="14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C13" s="21">
         <v>0.46</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D13" s="14">
         <v>0.09</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E13" s="14">
         <v>0.03</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F13" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="17">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="14">
         <v>0.3</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C14" s="21">
         <v>0.48</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D14" s="14">
         <v>0.09</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E14" s="14">
         <v>0.02</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F14" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="17">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="14">
         <v>0.24</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C15" s="21">
         <v>0.48</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D15" s="14">
         <v>0.09</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E15" s="14">
         <v>0.04</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F15" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="17">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C16" s="21">
         <v>0.48</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D16" s="14">
         <v>0.1</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E16" s="14">
         <v>0.04</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F16" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
         <v>44899</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B17" s="14">
         <v>0.26</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C17" s="21">
         <v>0.48</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D17" s="14">
         <v>0.1</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E17" s="14">
         <v>0.03</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F17" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="17">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="14">
         <v>0.25</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C18" s="21">
         <v>0.48</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D18" s="14">
         <v>0.09</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E18" s="14">
         <v>0.04</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F18" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="17">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C19" s="21">
         <v>0.43</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D19" s="14">
         <v>0.08</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E19" s="14">
         <v>0.04</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F19" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="17">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C20" s="21">
         <v>0.46</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D20" s="14">
         <v>0.1</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E20" s="14">
         <v>0.04</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F20" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
         <v>44895</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B21" s="14">
         <v>0.21</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C21" s="21">
         <v>0.46</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D21" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E21" s="14">
         <v>0.05</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F21" s="14">
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="17">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="14">
         <v>0.22</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C22" s="21">
         <v>0.47</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D22" s="14">
         <v>0.09</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E22" s="14">
         <v>0.04</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F22" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="17">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="14">
         <v>0.3</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C23" s="21">
         <v>0.48</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D23" s="14">
         <v>0.1</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E23" s="14">
         <v>0.03</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F23" s="14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
         <v>44892</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B24" s="14">
         <v>0.27</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C24" s="21">
         <v>0.47</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D24" s="14">
         <v>0.11</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E24" s="14">
         <v>0.03</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F24" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="17">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="14">
         <v>0.25</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C25" s="21">
         <v>0.49</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D25" s="14">
         <v>0.09</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E25" s="14">
         <v>0.03</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F25" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
         <v>44888</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B26" s="14">
         <v>0.24</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C26" s="21">
         <v>0.44</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D26" s="14">
         <v>0.08</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E26" s="14">
         <v>0.05</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F26" s="14">
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="17">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="14">
         <v>0.25</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C27" s="21">
         <v>0.48</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D27" s="14">
         <v>0.09</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E27" s="14">
         <v>0.04</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F27" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="17">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="14">
         <v>0.3</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C28" s="21">
         <v>0.45</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D28" s="14">
         <v>0.08</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E28" s="14">
         <v>0.05</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F28" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
         <v>44885</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B29" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C29" s="21">
         <v>0.49</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D29" s="14">
         <v>0.09</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E29" s="14">
         <v>0.04</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F29" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="17">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="14">
         <v>0.25</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C30" s="21">
         <v>0.51</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D30" s="14">
         <v>0.09</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E30" s="14">
         <v>0.03</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F30" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
         <v>44883</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B31" s="14">
         <v>0.21</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C31" s="21">
         <v>0.47</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D31" s="14">
         <v>0.1</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E31" s="14">
         <v>0.05</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F31" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="17">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C32" s="21">
         <v>0.45</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D32" s="14">
         <v>0.09</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E32" s="14">
         <v>0.03</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F32" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
         <v>44882</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B33" s="14">
         <v>0.21</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C33" s="21">
         <v>0.48</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D33" s="14">
         <v>0.1</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E33" s="14">
         <v>0.05</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F33" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
         <v>44882</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B34" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C34" s="21">
         <v>0.5</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D34" s="14">
         <v>0.08</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E34" s="14">
         <v>0.04</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F34" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="17">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="14">
         <v>0.27</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C35" s="21">
         <v>0.48</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D35" s="14">
         <v>0.1</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E35" s="14">
         <v>0.05</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F35" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="17">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C36" s="21">
         <v>0.5</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D36" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E36" s="14">
         <v>0.05</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F36" s="14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="17">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="14">
         <v>0.27</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C37" s="21">
         <v>0.5</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D37" s="14">
         <v>0.06</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E37" s="14">
         <v>0.05</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F37" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
         <v>44878</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B38" s="14">
         <v>0.26</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C38" s="21">
         <v>0.5</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D38" s="14">
         <v>0.09</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E38" s="14">
         <v>0.03</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F38" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
         <v>44876</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B39" s="14">
         <v>0.26</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C39" s="21">
         <v>0.49</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D39" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E39" s="14">
         <v>0.03</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F39" s="14">
         <v>0.05</v>
       </c>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="17">
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C40" s="21">
         <v>0.49</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D40" s="14">
         <v>0.11</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E40" s="14">
         <v>0.03</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F40" s="14">
         <v>0.04</v>
       </c>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="17">
         <v>44874</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B41" s="14">
         <v>0.21</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C41" s="21">
         <v>0.42</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D41" s="14">
         <v>0.09</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E41" s="14">
         <v>0.05</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F41" s="14">
         <v>0.09</v>
       </c>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="17">
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C42" s="21">
         <v>0.47</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D42" s="14">
         <v>0.09</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E42" s="14">
         <v>0.04</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F42" s="14">
         <v>0.05</v>
       </c>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="20">
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="17">
         <v>44871</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B43" s="14">
         <v>0.27</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C43" s="21">
         <v>0.48</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D43" s="14">
         <v>0.1</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E43" s="14">
         <v>0.04</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F43" s="14">
         <v>0.03</v>
       </c>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="17">
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="14">
         <v>0.27</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C44" s="21">
         <v>0.51</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D44" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E44" s="14">
         <v>0.04</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F44" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="17">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="14">
         <v>0.3</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C45" s="21">
         <v>0.47</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D45" s="14">
         <v>0.12</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E45" s="14">
         <v>0.03</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F45" s="14">
         <v>0.03</v>
       </c>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="17">
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="14">
         <v>0.24</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C46" s="21">
         <v>0.5</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D46" s="14">
         <v>0.09</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E46" s="14">
         <v>0.04</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F46" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="20">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="17">
         <v>44866</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B47" s="14">
         <v>0.21</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C47" s="21">
         <v>0.47</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D47" s="14">
         <v>0.1</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E47" s="14">
         <v>0.05</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F47" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="17">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="14">
         <v>0.26</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C48" s="21">
         <v>0.51</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D48" s="14">
         <v>0.09</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E48" s="14">
         <v>0.04</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F48" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="20">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="17">
         <v>44864</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B49" s="14">
         <v>0.27</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C49" s="21">
         <v>0.5</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D49" s="14">
         <v>0.09</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E49" s="14">
         <v>0.04</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F49" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="17">
         <v>44864</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B50" s="14">
         <v>0.27</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C50" s="21">
         <v>0.5</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D50" s="14">
         <v>0.09</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E50" s="14">
         <v>0.04</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F50" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="17">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="14">
         <v>0.25</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C51" s="21">
         <v>0.53</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D51" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E51" s="14">
         <v>0.04</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F51" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="17">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C52" s="21">
         <v>0.44</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D52" s="14">
         <v>0.1</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E52" s="14">
         <v>0.04</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F52" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="17">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="14">
         <v>0.26</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C53" s="21">
         <v>0.5</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D53" s="14">
         <v>0.1</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E53" s="14">
         <v>0.04</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F53" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="17">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="14">
         <v>0.27</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C54" s="21">
         <v>0.51</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D54" s="14">
         <v>0.08</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E54" s="14">
         <v>0.05</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F54" s="14">
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="20">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="17">
         <v>44860</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B55" s="14">
         <v>0.2</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C55" s="21">
         <v>0.51</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D55" s="14">
         <v>0.09</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E55" s="14">
         <v>0.05</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F55" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="17">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="14">
         <v>0.23</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C56" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D56" s="14">
         <v>0.09</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E56" s="14">
         <v>0.04</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F56" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="17">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="14">
         <v>0.23</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C57" s="15">
         <v>0.51</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D57" s="14">
         <v>0.09</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E57" s="14">
         <v>0.05</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F57" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="17">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="14">
         <v>0.26</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C58" s="15">
         <v>0.49</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D58" s="14">
         <v>0.1</v>
       </c>
-      <c r="E47" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="17">
+      <c r="E58" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="20">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="17">
         <v>44857</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B59" s="14">
         <v>0.21</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C59" s="15">
         <v>0.54</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D59" s="14">
         <v>0.11</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E59" s="14">
         <v>0.03</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F59" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="17">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="14">
         <v>0.25</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C60" s="15">
         <v>0.51</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D60" s="14">
         <v>0.08</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E60" s="14">
         <v>0.04</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F60" s="14">
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="17">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="14">
         <v>0.22</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C61" s="15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D61" s="14">
         <v>0.1</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E61" s="14">
         <v>0.04</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F61" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B62" s="14">
         <v>0.26</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C62" s="15">
         <v>0.51</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D62" s="14">
         <v>0.08</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E62" s="14">
         <v>0.05</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F62" s="14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B63" s="14">
         <v>0.19</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C63" s="15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D63" s="14">
         <v>0.1</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E63" s="14">
         <v>0.04</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F63" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B64" s="14">
         <v>0.23</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C64" s="15">
         <v>0.5</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D64" s="14">
         <v>0.09</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E64" s="14">
         <v>0.03</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F64" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="20">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="17">
         <v>44854</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B65" s="14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C65" s="15">
         <v>0.53</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D65" s="14">
         <v>0.11</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E65" s="14">
         <v>0.05</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F65" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="27">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="23">
         <v>44854</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B66" s="14">
         <v>0.22</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C66" s="15">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D66" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E66" s="14">
         <v>0.04</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F66" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B67" s="14">
         <v>0.22</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C67" s="15">
         <v>0.53</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D67" s="14">
         <v>0.11</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E67" s="14">
         <v>0.04</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F67" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="20">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="17">
         <v>44853</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B68" s="14">
         <v>0.19</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C68" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D68" s="14">
         <v>0.12</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E68" s="14">
         <v>0.04</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F68" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B69" s="14">
         <v>0.23</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C69" s="15">
         <v>0.52</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D69" s="14">
         <v>0.11</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E69" s="14">
         <v>0.04</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F69" s="14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B70" s="14">
         <v>0.23</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C70" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D70" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E70" s="14">
         <v>0.04</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F70" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="20">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="17">
         <v>44850</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B71" s="14">
         <v>0.2</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C71" s="15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D71" s="14">
         <v>0.11</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E71" s="14">
         <v>0.04</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F71" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B72" s="14">
         <v>0.22</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C72" s="15">
         <v>0.52</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D72" s="14">
         <v>0.11</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E72" s="14">
         <v>0.04</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F72" s="14">
         <v>0.02</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B73" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C73" s="15">
         <v>0.49</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D73" s="14">
         <v>0.1</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E73" s="14">
         <v>0.03</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F73" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="20">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="17">
         <v>44847</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B74" s="14">
         <v>0.24</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C74" s="15">
         <v>0.53</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D74" s="14">
         <v>0.13</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E74" s="14">
         <v>0.04</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F74" s="14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B75" s="14">
         <v>0.25</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C75" s="15">
         <v>0.49</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D75" s="14">
         <v>0.11</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E75" s="14">
         <v>0.04</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F75" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="20">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="17">
         <v>44846</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B76" s="14">
         <v>0.19</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C76" s="15">
         <v>0.53</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D76" s="14">
         <v>0.08</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E76" s="14">
         <v>0.06</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F76" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B77" s="14">
         <v>0.23</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C77" s="15">
         <v>0.51</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D77" s="14">
         <v>0.09</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E77" s="14">
         <v>0.05</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F77" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B78" s="14">
         <v>0.26</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C78" s="15">
         <v>0.47</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D78" s="14">
         <v>0.1</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E78" s="14">
         <v>0.04</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F78" s="14">
         <v>0.08</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="20">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="17">
         <v>44843</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B79" s="14">
         <v>0.25</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C79" s="15">
         <v>0.54</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D79" s="14">
         <v>0.1</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E79" s="14">
         <v>0.03</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F79" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B80" s="14">
         <v>0.23</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C80" s="15">
         <v>0.51</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D80" s="14">
         <v>0.1</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E80" s="14">
         <v>0.04</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F80" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B81" s="14">
         <v>0.22</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C81" s="15">
         <v>0.52</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D81" s="14">
         <v>0.09</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E81" s="14">
         <v>0.05</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F81" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B82" s="14">
         <v>0.26</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C82" s="15">
         <v>0.51</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D82" s="14">
         <v>0.09</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E82" s="14">
         <v>0.04</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F82" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B83" s="14">
         <v>0.24</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C83" s="15">
         <v>0.51</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D83" s="14">
         <v>0.1</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E83" s="14">
         <v>0.03</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F83" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B84" s="14">
         <v>0.26</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C84" s="15">
         <v>0.47</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D84" s="14">
         <v>0.11</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E84" s="14">
         <v>0.03</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F84" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="20">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="17">
         <v>44840</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B85" s="14">
         <v>0.2</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C85" s="15">
         <v>0.52</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D85" s="14">
         <v>0.08</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E85" s="14">
         <v>0.05</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F85" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B86" s="14">
         <v>0.26</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C86" s="15">
         <v>0.48</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D86" s="14">
         <v>0.1</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E86" s="14">
         <v>0.04</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F86" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="20">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="17">
         <v>44839</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B87" s="14">
         <v>0.24</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C87" s="15">
         <v>0.52</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D87" s="14">
         <v>0.1</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E87" s="14">
         <v>0.04</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F87" s="14">
         <v>0.05</v>
       </c>
     </row>
@@ -3537,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381CFD7-A18A-AD47-BDA2-5D9B5FE8AC32}">
   <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3562,16 +3806,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44906</v>
+        <v>44923</v>
       </c>
       <c r="B2" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>26.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3758,16 +4002,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>44906</v>
+        <v>44923</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3954,7 +4198,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>44906</v>
+        <v>44923</v>
       </c>
       <c r="B30" s="1">
         <v>47</v>
@@ -4150,16 +4394,16 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>44906</v>
+        <v>44923</v>
       </c>
       <c r="B44" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4346,16 +4590,16 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>44906</v>
+        <v>44923</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
       </c>
       <c r="D58">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4544,7 +4788,7 @@
       <c r="A72" s="4">
         <v>44560</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="1">
         <v>33</v>
       </c>
       <c r="C72" t="s">
@@ -4558,7 +4802,7 @@
       <c r="A73" s="4">
         <v>44529</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="1">
         <v>37</v>
       </c>
       <c r="C73" t="s">
@@ -4712,7 +4956,7 @@
       <c r="A84" s="4">
         <v>44560</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="1">
         <v>38</v>
       </c>
       <c r="C84" t="s">
@@ -4726,7 +4970,7 @@
       <c r="A85" s="4">
         <v>44529</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="1">
         <v>36</v>
       </c>
       <c r="C85" t="s">
@@ -4880,7 +5124,7 @@
       <c r="A96" s="4">
         <v>44560</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="1">
         <v>7</v>
       </c>
       <c r="C96" t="s">
@@ -4894,7 +5138,7 @@
       <c r="A97" s="4">
         <v>44529</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="1">
         <v>7</v>
       </c>
       <c r="C97" t="s">
@@ -5048,7 +5292,7 @@
       <c r="A108" s="4">
         <v>44560</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="1">
         <v>10</v>
       </c>
       <c r="C108" t="s">
@@ -5062,7 +5306,7 @@
       <c r="A109" s="4">
         <v>44529</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="1">
         <v>9</v>
       </c>
       <c r="C109" t="s">
@@ -5216,7 +5460,7 @@
       <c r="A120" s="4">
         <v>44560</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="1">
         <v>4</v>
       </c>
       <c r="C120" t="s">
@@ -5230,7 +5474,7 @@
       <c r="A121" s="4">
         <v>44529</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="1">
         <v>4</v>
       </c>
       <c r="C121" t="s">
